--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>45238.82357638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45373.61430555556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45811.62898148148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45250</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>45040</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44753.32848379629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44886</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44349.40521990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44563.73993055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44314.4852662037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44280</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44693.66460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44642.43065972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44642.44318287037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44628.42969907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44753.39418981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44628.43050925926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44693.6590625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44650</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44753</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44635.66027777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45592.75105324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>45517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45057</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>45545.79484953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>45418.59761574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>45751.51493055555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>44683</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>44929</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>44235</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>45187</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45399.66082175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>45399</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>45238.825625</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>45099</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>45345.62907407407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>45313.60317129629</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44881.40414351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45566</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>45798.45908564814</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>45799.51231481481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>45799.4587962963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>45799.49961805555</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>45799.51752314815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>45798.44802083333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>45798.46579861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44909</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>45799.51355324074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>45446.6730787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44784.43820601852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>45884.54458333334</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44824.50174768519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45803.47547453704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45572.35760416667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45805</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45589.49070601852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>44714.44008101852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>45582.62592592592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>45582.62986111111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45625.47077546296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45085.54883101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45811.5890625</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45328</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45603</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>45702.5430324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44623</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45728.30768518519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45721.423125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45337</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45817.42643518518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45897.53482638889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45896.43144675926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45896.44113425926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45896.44429398148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45896.41814814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45896.41945601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>45818.55997685185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45818.56096064814</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44980.41365740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45244.35234953704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>45818.55596064815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45818.55798611111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>45903.59125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>45821.31986111111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>45456</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>45902.60028935185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45905.60494212963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45419.43511574074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45667.66609953704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45917.4165625</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45826.29282407407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45917.40004629629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45917.40295138889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45917.41353009259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45062.36817129629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45917.40908564815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45917.42443287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45917.4290625</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45918.4284375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45831.47098379629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>45922.61059027778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>45923.43152777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>45924.34196759259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45058.60979166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>45924.60802083334</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>45646.61444444444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>45929.5359375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>45348</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>45930.56956018518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45274</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44784.4495949074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>44587.46003472222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44838.66666666666</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>45471</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>45931.76866898148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44587.45909722222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>45932</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>45938.41451388889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44606</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45943.63825231481</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45943.640625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45943.57131944445</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45838</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45399.66299768518</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45399.66778935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45390</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45946.64501157407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45946</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45946.63685185185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45743.76568287037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45134.47034722222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45747.50989583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45866.53873842592</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45337</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45602.92913194445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>45636.60099537037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45096.52827546297</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44489</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>45804</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>45134.48231481481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>45958.89180555556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>45571.59386574074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45589</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45030</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45961.38677083333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45964.63546296296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45965.5700462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45966.77891203704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44769</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45971.48627314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45930</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45971.3446412037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45971.34190972222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45672.69664351852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45975</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44630.62471064815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45649.34305555555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45978.56734953704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45978.59846064815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45978.44703703704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45419.44590277778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44659</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45582.6306712963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45691</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45287</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>46024.63701388889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45001</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44722.551875</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44973</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45382.87498842592</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45337</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45993.7368287037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45001</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>45994.74658564815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45639.5343287037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45994.74046296296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44419</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44419</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45281.5049537037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>46035.84706018519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45764</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>46000.46729166667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>46044.69524305555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45427</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44642.42333333333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>46045</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45408</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45475.59787037037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>46007.46944444445</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45764.42244212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45034.65365740741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45427.62200231481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44930.35895833333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>46055.61503472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45040</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>46057.441875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>46035</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>46035</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>46035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44746.58916666666</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45730.38883101852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>46035</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>45057</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>46035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44747.55924768518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44978</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>44333</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45348.64657407408</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45034</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>45582</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>45043.65006944445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>45397.90431712963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44236</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>45047</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>45256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>45134.43918981482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>45594.68315972222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44433</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45246</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44645.37586805555</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>45166</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45411.65899305556</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45215</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>45337</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>45589</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>45244.46680555555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>45239.54755787037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45077.62905092593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44965.39467592593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>45307.45815972222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>45056</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>45558.64363425926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45624.31143518518</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44930.40255787037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44501.79969907407</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44501</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>45294.3707175926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44788</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>45581.80997685185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44966.87815972222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45014</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45244</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>45244</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>45571.62708333333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45134.41664351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>45592.77157407408</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45555.44511574074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45786.41207175926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44361</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45721.43710648148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45565.72832175926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45733.57016203704</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45790</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45742.66047453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45735.42291666667</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45736.8315162037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45736.9021875</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>45238.82357638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45373.61430555556</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45811.62898148148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45250</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>45040</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44753.32848379629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44886</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44349.40521990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44563.73993055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44314.4852662037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44280</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44693.66460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44642.43065972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44642.44318287037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44628.42969907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44753.39418981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44628.43050925926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44693.6590625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44650</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44753</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44635.66027777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45592.75105324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>45517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45057</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>45545.79484953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>45418.59761574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>45751.51493055555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>44683</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>44929</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>44235</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>45187</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45399.66082175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>45399</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>45238.825625</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>45099</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>45345.62907407407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>45313.60317129629</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44881.40414351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45566</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>45798.45908564814</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>45799.51231481481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>45799.4587962963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>45799.49961805555</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>45799.51752314815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>45798.44802083333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>45798.46579861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44909</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>45799.51355324074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>45446.6730787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44784.43820601852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>45884.54458333334</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44824.50174768519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45803.47547453704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45572.35760416667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45805</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45589.49070601852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>44714.44008101852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>45582.62592592592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>45582.62986111111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45625.47077546296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45085.54883101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45811.5890625</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45328</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45603</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>45702.5430324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44623</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45728.30768518519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45721.423125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45337</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45817.42643518518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45897.53482638889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45896.43144675926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45896.44113425926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45896.44429398148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45896.41814814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45896.41945601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>45818.55997685185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45818.56096064814</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44980.41365740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45244.35234953704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>45818.55596064815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45818.55798611111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>45903.59125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>45821.31986111111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>45456</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>45902.60028935185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45905.60494212963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45419.43511574074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45667.66609953704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45917.4165625</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45826.29282407407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45917.40004629629</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45917.40295138889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45917.41353009259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45062.36817129629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45917.40908564815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45917.42443287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45917.4290625</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45918.4284375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45831.47098379629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>45922.61059027778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>45923.43152777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>45924.34196759259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45058.60979166667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>45924.60802083334</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>45646.61444444444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>45929.5359375</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>45348</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>45930.56956018518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45274</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44784.4495949074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>44587.46003472222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44838.66666666666</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>45471</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>45931.76866898148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44587.45909722222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>45932</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>45938.41451388889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44606</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45943.63825231481</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45943.640625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45943.57131944445</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45838</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45399.66299768518</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45399.66778935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45390</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>45946.64501157407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>45946</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45946.63685185185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45743.76568287037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45134.47034722222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45747.50989583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>45866.53873842592</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45337</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>45602.92913194445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>45636.60099537037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45096.52827546297</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>44489</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>45804</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>45134.48231481481</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>45958.89180555556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>45571.59386574074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45589</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45030</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45961.38677083333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45964.63546296296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45965.5700462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45966.77891203704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44769</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45971.48627314815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45930</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45971.3446412037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45971.34190972222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45672.69664351852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45975</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44630.62471064815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44550</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45974</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45649.34305555555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45978.56734953704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45978.59846064815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45978.44703703704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45419.44590277778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>44659</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45582.6306712963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45691</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45287</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>46024.63701388889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45001</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44722.551875</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44973</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45382.87498842592</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45337</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45993.7368287037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45001</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>45994.74658564815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45639.5343287037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45994.74046296296</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>44419</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44419</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45281.5049537037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>46035.84706018519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45764</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>46000.46729166667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>46044.69524305555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45427</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44642.42333333333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>46045</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45408</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45475.59787037037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>46007.46944444445</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45764.42244212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45034.65365740741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45427.62200231481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44930.35895833333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>46055.61503472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45040</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>46057.441875</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>46035</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>46035</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>46035</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44746.58916666666</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45730.38883101852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>46035</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>45057</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>46035</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>44747.55924768518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44978</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>44333</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45348.64657407408</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>45034</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>45582</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>45043.65006944445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>45397.90431712963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44236</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>45047</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>45256</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>45134.43918981482</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>45594.68315972222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44433</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45134</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45211</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>45246</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44645.37586805555</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>45166</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45411.65899305556</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45215</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>45337</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>45589</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>45244.46680555555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>45239.54755787037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45077.62905092593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44965.39467592593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>45307.45815972222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>45056</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>45558.64363425926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45624.31143518518</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44930.40255787037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44501.79969907407</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44501</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>45294.3707175926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44788</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>45581.80997685185</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44966.87815972222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45014</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45244</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>45244</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>45571.62708333333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45134.41664351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>45592.77157407408</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45555.44511574074</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45786.41207175926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>44361</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45721.43710648148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45565.72832175926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45733.57016203704</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45790</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45742.66047453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45735.42291666667</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45736.8315162037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45736.9021875</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45728</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z309"/>
+  <dimension ref="A1:Z307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55617-2023</t>
+          <t>A 58292-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45238.82357638889</v>
+        <v>45250</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,23 +1508,23 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
@@ -1532,55 +1532,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 55617-2023 artfynd.xlsx", "A 55617-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 58292-2023 artfynd.xlsx", "A 58292-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 55617-2023 karta.png", "A 55617-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 58292-2023 karta.png", "A 58292-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 55617-2023 FSC-klagomål.docx", "A 55617-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 58292-2023 FSC-klagomål.docx", "A 58292-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 55617-2023 FSC-klagomål mail.docx", "A 55617-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 58292-2023 FSC-klagomål mail.docx", "A 58292-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 55617-2023 tillsynsbegäran.docx", "A 55617-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 58292-2023 tillsynsbegäran.docx", "A 58292-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 55617-2023 tillsynsbegäran mail.docx", "A 55617-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 58292-2023 tillsynsbegäran mail.docx", "A 58292-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 11709-2024</t>
+          <t>A 17920-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45373.61430555556</v>
+        <v>45040</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1593,16 +1593,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1627,31 +1627,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Vanlig padda</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 11709-2024 artfynd.xlsx", "A 11709-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 17920-2023 artfynd.xlsx", "A 17920-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 11709-2024 karta.png", "A 11709-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 17920-2023 karta.png", "A 17920-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 11709-2024 FSC-klagomål.docx", "A 11709-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 17920-2023 FSC-klagomål.docx", "A 17920-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 11709-2024 FSC-klagomål mail.docx", "A 11709-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 17920-2023 FSC-klagomål mail.docx", "A 17920-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 11709-2024 tillsynsbegäran.docx", "A 11709-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 17920-2023 tillsynsbegäran.docx", "A 17920-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 11709-2024 tillsynsbegäran mail.docx", "A 11709-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 17920-2023 tillsynsbegäran mail.docx", "A 17920-2023")</f>
         <v/>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
         <v>44438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45811.62898148148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,14 +1828,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 58292-2023</t>
+          <t>A 11709-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45250</v>
+        <v>45373.61430555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1857,13 +1857,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1875,52 +1875,52 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 58292-2023 artfynd.xlsx", "A 58292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 11709-2024 artfynd.xlsx", "A 11709-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 58292-2023 karta.png", "A 58292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 11709-2024 karta.png", "A 11709-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 58292-2023 FSC-klagomål.docx", "A 58292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 11709-2024 FSC-klagomål.docx", "A 11709-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 58292-2023 FSC-klagomål mail.docx", "A 58292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 11709-2024 FSC-klagomål mail.docx", "A 11709-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 58292-2023 tillsynsbegäran.docx", "A 58292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 11709-2024 tillsynsbegäran.docx", "A 11709-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 58292-2023 tillsynsbegäran mail.docx", "A 58292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 11709-2024 tillsynsbegäran mail.docx", "A 11709-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 17920-2023</t>
+          <t>A 55617-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45040</v>
+        <v>45238.82357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1967,31 +1967,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Vanlig padda</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 17920-2023 artfynd.xlsx", "A 17920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 55617-2023 artfynd.xlsx", "A 55617-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 17920-2023 karta.png", "A 17920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 55617-2023 karta.png", "A 55617-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 17920-2023 FSC-klagomål.docx", "A 17920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 55617-2023 FSC-klagomål.docx", "A 55617-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 17920-2023 FSC-klagomål mail.docx", "A 17920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 55617-2023 FSC-klagomål mail.docx", "A 55617-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 17920-2023 tillsynsbegäran.docx", "A 17920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 55617-2023 tillsynsbegäran.docx", "A 55617-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 17920-2023 tillsynsbegäran mail.docx", "A 17920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 55617-2023 tillsynsbegäran mail.docx", "A 55617-2023")</f>
         <v/>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2174,14 +2174,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 29346-2022</t>
+          <t>A 54899-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44753.32848379629</v>
+        <v>44886</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 54899-2022</t>
+          <t>A 29346-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44886</v>
+        <v>44753.32848379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44349.40521990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44563.73993055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44314.4852662037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44280</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44693.66460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44642.43065972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44642.44318287037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44628.42969907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44753.39418981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3909,14 +3909,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61042-2021</t>
+          <t>A 60987-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3966,14 +3966,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60987-2021</t>
+          <t>A 61042-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>44628.43050925926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44693.6590625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44650</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44753</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44635.66027777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,14 +4784,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48494-2024</t>
+          <t>A 17861-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45592.75105324074</v>
+        <v>45419.43511574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4841,14 +4841,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33033-2024</t>
+          <t>A 33476-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45517</v>
+        <v>44788</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20584-2023</t>
+          <t>A 24107-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45057</v>
+        <v>45456</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4955,14 +4955,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38360-2024</t>
+          <t>A 14798-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45545.79484953704</v>
+        <v>45397.90431712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4974,8 +4974,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5008,18 +5013,38 @@
         <v>0</v>
       </c>
       <c r="R69" s="2" t="inlineStr"/>
+      <c r="U69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="V69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="W69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="X69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17749-2024</t>
+          <t>A 12610-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45418.59761574074</v>
+        <v>45382.87498842592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5032,7 +5057,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.4</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5069,14 +5094,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16452-2025</t>
+          <t>A 43621-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45751.51493055555</v>
+        <v>44433</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5089,7 +5114,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5126,14 +5151,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17985-2022</t>
+          <t>A 2556-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44683</v>
+        <v>45313.60317129629</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5146,7 +5171,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5183,14 +5208,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 369-2023</t>
+          <t>A 23441-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44929</v>
+        <v>44333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5203,7 +5228,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5240,14 +5265,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6469-2021</t>
+          <t>A 17749-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44235</v>
+        <v>45418.59761574074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5260,7 +5285,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5297,14 +5322,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43817-2023</t>
+          <t>A 16551-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45187</v>
+        <v>45408</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5317,7 +5342,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5354,14 +5379,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15099-2024</t>
+          <t>A 22402-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45399.66082175926</v>
+        <v>45446.6730787037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5374,7 +5399,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5411,14 +5436,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15107-2024</t>
+          <t>A 120-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45399</v>
+        <v>45294.3707175926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5456,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5468,14 +5493,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 55618-2023</t>
+          <t>A 18997-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45238.825625</v>
+        <v>45427.62200231481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5488,7 +5513,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5525,14 +5550,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28263-2023</t>
+          <t>A 6167-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45099</v>
+        <v>45337</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5545,7 +5570,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>6.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5582,14 +5607,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7420-2024</t>
+          <t>A 40223-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45345.62907407407</v>
+        <v>44419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5601,8 +5626,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5639,14 +5669,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2556-2024</t>
+          <t>A 40226-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45313.60317129629</v>
+        <v>44419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5658,8 +5688,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5696,14 +5731,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47630-2022</t>
+          <t>A 54006-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44852</v>
+        <v>44881.40414351852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5716,7 +5751,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5753,14 +5788,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 34183-2023</t>
+          <t>A 58972-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45138</v>
+        <v>45636.60099537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5773,7 +5808,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5810,14 +5845,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54006-2022</t>
+          <t>A 61566-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44881.40414351852</v>
+        <v>45646.61444444444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5830,7 +5865,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5867,14 +5902,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42698-2024</t>
+          <t>A 27867-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45566</v>
+        <v>45817.42643518518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5887,7 +5922,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5924,14 +5959,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24560-2025</t>
+          <t>A 14722-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45798.45908564814</v>
+        <v>45014</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5944,7 +5979,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5981,14 +6016,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24892-2025</t>
+          <t>A 10444-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45799.51231481481</v>
+        <v>44623</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6001,7 +6036,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6038,14 +6073,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24832-2025</t>
+          <t>A 43799-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45799.4587962963</v>
+        <v>45571.62708333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6058,7 +6093,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6095,14 +6130,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24882-2025</t>
+          <t>A 43856-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45799.49961805555</v>
+        <v>45572.35760416667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6115,7 +6150,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6152,14 +6187,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24897-2025</t>
+          <t>A 16747-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45799.51752314815</v>
+        <v>45030</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6172,7 +6207,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6209,14 +6244,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24549-2025</t>
+          <t>A 28960-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45798.44802083333</v>
+        <v>45821.31986111111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6229,7 +6264,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6266,14 +6301,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 24567-2025</t>
+          <t>A 29840-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45798.46579861111</v>
+        <v>45826.29282407407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6286,7 +6321,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6323,14 +6358,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61409-2022</t>
+          <t>A 42698-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44909</v>
+        <v>45566</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6343,7 +6378,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6380,14 +6415,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24894-2025</t>
+          <t>A 31051-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45799.51355324074</v>
+        <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6400,7 +6435,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6437,14 +6472,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 22402-2024</t>
+          <t>A 49481-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45446.6730787037</v>
+        <v>45211</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6457,7 +6492,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6494,14 +6529,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32838-2022</t>
+          <t>A 30621-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44784.43820601852</v>
+        <v>45831.47098379629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6514,7 +6549,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6551,14 +6586,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 38614-2025</t>
+          <t>A 61731-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45884.54458333334</v>
+        <v>45649.34305555555</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6571,7 +6606,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6608,14 +6643,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 40721-2022</t>
+          <t>A 46520-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44824.50174768519</v>
+        <v>45582</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6628,7 +6663,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6665,14 +6700,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25575-2025</t>
+          <t>A 20536-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45803.47547453704</v>
+        <v>45057</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,13 +6719,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6727,14 +6757,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43856-2024</t>
+          <t>A 15102-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45572.35760416667</v>
+        <v>45399.66299768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6747,7 +6777,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6784,14 +6814,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26247-2025</t>
+          <t>A 55618-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45805</v>
+        <v>45238.825625</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6804,7 +6834,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6841,14 +6871,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 48034-2024</t>
+          <t>A 48161-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45589.49070601852</v>
+        <v>45589</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6861,7 +6891,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>42</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6898,14 +6928,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22631-2022</t>
+          <t>A 56480-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44714.44008101852</v>
+        <v>45625.47077546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6918,7 +6948,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>7.1</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6955,14 +6985,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46514-2024</t>
+          <t>A 15108-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45582.62592592592</v>
+        <v>45399.66778935185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6975,7 +7005,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7012,14 +7042,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46521-2024</t>
+          <t>A 40939-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45582.62986111111</v>
+        <v>45558.64363425926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7032,7 +7062,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7069,14 +7099,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 56480-2024</t>
+          <t>A 48163-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45625.47077546296</v>
+        <v>45589</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7089,7 +7119,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>14.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7126,14 +7156,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24940-2023</t>
+          <t>A 40553-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45085.54883101852</v>
+        <v>45896.44429398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7146,7 +7176,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7183,14 +7213,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27031-2025</t>
+          <t>A 40538-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45811.5890625</v>
+        <v>45896.41814814815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7203,7 +7233,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7240,14 +7270,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 4736-2024</t>
+          <t>A 40539-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45328</v>
+        <v>45896.41945601852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7259,13 +7289,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7302,14 +7327,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 51480-2024</t>
+          <t>A 65120-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45603</v>
+        <v>45287</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7322,7 +7347,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>11.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7359,14 +7384,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 7243-2025</t>
+          <t>A 40544-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45702.5430324074</v>
+        <v>45896.43144675926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7379,7 +7404,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7416,14 +7441,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10444-2022</t>
+          <t>A 40550-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44623</v>
+        <v>45896.44113425926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7436,7 +7461,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7473,14 +7498,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 11817-2025</t>
+          <t>A 7590-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45728.30768518519</v>
+        <v>45348</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7493,7 +7518,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7530,14 +7555,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 10515-2025</t>
+          <t>A 32666-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45721.423125</v>
+        <v>45838</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7550,7 +7575,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7587,14 +7612,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6167-2024</t>
+          <t>A 40844-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45337</v>
+        <v>45897.53482638889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7607,7 +7632,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7644,14 +7669,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27867-2025</t>
+          <t>A 7605-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45817.42643518518</v>
+        <v>44606</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7664,7 +7689,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7701,14 +7726,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40844-2025</t>
+          <t>A 41795-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45897.53482638889</v>
+        <v>45902.60028935185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7721,7 +7746,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7758,14 +7783,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 40544-2025</t>
+          <t>A 58704-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45896.43144675926</v>
+        <v>44489</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7778,7 +7803,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7815,14 +7840,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 40550-2025</t>
+          <t>A 20584-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45896.44113425926</v>
+        <v>45057</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7860,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7872,14 +7897,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 40553-2025</t>
+          <t>A 59745-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45896.44429398148</v>
+        <v>45639.5343287037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7892,7 +7917,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7929,14 +7954,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 40538-2025</t>
+          <t>A 42021-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45896.41814814815</v>
+        <v>45903.59125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7949,7 +7974,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7986,14 +8011,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 40539-2025</t>
+          <t>A 15067-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45896.41945601852</v>
+        <v>45743.76568287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8006,7 +8031,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8043,14 +8068,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28264-2025</t>
+          <t>A 42566-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45818.55997685185</v>
+        <v>45905.60494212963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8063,7 +8088,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8100,14 +8125,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28265-2025</t>
+          <t>A 2146-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45818.56096064814</v>
+        <v>45672.69664351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8157,14 +8182,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 9169-2023</t>
+          <t>A 36101-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44980.41365740741</v>
+        <v>45866.53873842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8177,7 +8202,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8214,14 +8239,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56734-2023</t>
+          <t>A 15458-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45244.35234953704</v>
+        <v>45747.50989583333</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8234,7 +8259,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8271,14 +8296,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28261-2025</t>
+          <t>A 46523-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45818.55596064815</v>
+        <v>45582.6306712963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8291,7 +8316,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8328,14 +8353,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28263-2025</t>
+          <t>A 28385-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45818.55798611111</v>
+        <v>44747.55924768518</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8348,7 +8373,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8385,14 +8410,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 42021-2025</t>
+          <t>A 26025-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45903.59125</v>
+        <v>45804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8405,7 +8430,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8442,14 +8467,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28960-2025</t>
+          <t>A 44589-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45821.31986111111</v>
+        <v>45917.42443287037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8462,7 +8487,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8499,14 +8524,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 24107-2024</t>
+          <t>A 44841-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45456</v>
+        <v>45918.4284375</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8519,7 +8544,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8556,14 +8581,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 41795-2025</t>
+          <t>A 44583-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45902.60028935185</v>
+        <v>45917.40908564815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8576,7 +8601,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8613,14 +8638,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 42566-2025</t>
+          <t>A 44588-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45905.60494212963</v>
+        <v>45917.4165625</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8633,7 +8658,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8670,14 +8695,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 17861-2024</t>
+          <t>A 44597-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45419.43511574074</v>
+        <v>45917.4290625</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8690,7 +8715,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8727,14 +8752,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 1385-2025</t>
+          <t>A 44578-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45667.66609953704</v>
+        <v>45917.40295138889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8747,7 +8772,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8784,14 +8809,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44588-2025</t>
+          <t>A 44584-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45917.4165625</v>
+        <v>45917.41353009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8804,7 +8829,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8841,14 +8866,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 29840-2025</t>
+          <t>A 44575-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45826.29282407407</v>
+        <v>45917.40004629629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8886,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8898,14 +8923,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44575-2025</t>
+          <t>A 45537-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45917.40004629629</v>
+        <v>45922.61059027778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8943,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8955,14 +8980,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 44578-2025</t>
+          <t>A 38614-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45917.40295138889</v>
+        <v>45884.54458333334</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +9000,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9012,14 +9037,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 44584-2025</t>
+          <t>A 46145-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45917.41353009259</v>
+        <v>45924.60802083334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9057,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>6.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9069,14 +9094,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 21140-2023</t>
+          <t>A 9732-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45062.36817129629</v>
+        <v>44978</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9114,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9126,14 +9151,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 44583-2025</t>
+          <t>A 45712-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45917.40908564815</v>
+        <v>45923.43152777778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9171,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9183,14 +9208,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 44589-2025</t>
+          <t>A 45950-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45917.42443287037</v>
+        <v>45924.34196759259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9203,7 +9228,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9240,14 +9265,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 44597-2025</t>
+          <t>A 17932-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45917.4290625</v>
+        <v>45040</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9260,7 +9285,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9297,14 +9322,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 44841-2025</t>
+          <t>A 46986-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45918.4284375</v>
+        <v>45929.5359375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9317,7 +9342,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9354,14 +9379,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 30621-2025</t>
+          <t>A 47342-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45831.47098379629</v>
+        <v>45930.56956018518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9374,7 +9399,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9411,14 +9436,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45537-2025</t>
+          <t>A 47783-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45922.61059027778</v>
+        <v>45931.76866898148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9431,7 +9456,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9468,14 +9493,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45712-2025</t>
+          <t>A 19133-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45923.43152777778</v>
+        <v>45764</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9488,7 +9513,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9525,14 +9550,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45950-2025</t>
+          <t>A 48036-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45924.34196759259</v>
+        <v>45932</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9545,7 +9570,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9582,14 +9607,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20793-2023</t>
+          <t>A 3880-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45058.60979166667</v>
+        <v>44587.45909722222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9602,7 +9627,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9639,14 +9664,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 46145-2025</t>
+          <t>A 27232-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45924.60802083334</v>
+        <v>45471</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9659,7 +9684,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9696,14 +9721,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 61566-2024</t>
+          <t>A 3884-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45646.61444444444</v>
+        <v>44587.46003472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9716,7 +9741,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9753,14 +9778,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46986-2025</t>
+          <t>A 18715-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45929.5359375</v>
+        <v>45043.65006944445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9773,7 +9798,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9810,14 +9835,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 7590-2024</t>
+          <t>A 16452-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45348</v>
+        <v>45751.51493055555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9830,7 +9855,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9867,14 +9892,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47342-2025</t>
+          <t>A 12823-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45930.56956018518</v>
+        <v>44642.42333333333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9887,7 +9912,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9924,14 +9949,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 63509-2023</t>
+          <t>A 49201-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45274</v>
+        <v>45938.41451388889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9944,7 +9969,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9981,14 +10006,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 32843-2022</t>
+          <t>A 57699-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44784.4495949074</v>
+        <v>45246</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10001,7 +10026,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10038,14 +10063,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 3884-2022</t>
+          <t>A 27815-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44587.46003472222</v>
+        <v>45475.59787037037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10058,7 +10083,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10095,14 +10120,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 43987-2022</t>
+          <t>A 22631-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44838.66666666666</v>
+        <v>44714.44008101852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10115,7 +10140,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10152,14 +10177,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 27232-2024</t>
+          <t>A 50192-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45471</v>
+        <v>45943.63825231481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10172,7 +10197,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>15.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10209,14 +10234,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 47783-2025</t>
+          <t>A 50193-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45931.76866898148</v>
+        <v>45943.640625</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10229,7 +10254,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10266,14 +10291,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 3880-2022</t>
+          <t>A 50145-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44587.45909722222</v>
+        <v>45943.57131944445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10286,7 +10311,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10323,14 +10348,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48036-2025</t>
+          <t>A 50884-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45932</v>
+        <v>45946</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10343,7 +10368,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10380,14 +10405,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 49201-2025</t>
+          <t>A 50901-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45938.41451388889</v>
+        <v>45946.64501157407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10400,7 +10425,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10437,14 +10462,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 7605-2022</t>
+          <t>A 50891-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44606</v>
+        <v>45946.63685185185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10457,7 +10482,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10494,14 +10519,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50192-2025</t>
+          <t>A 20793-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45943.63825231481</v>
+        <v>45058.60979166667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10514,7 +10539,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>15.8</v>
+        <v>3.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10551,14 +10576,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 50193-2025</t>
+          <t>A 28263-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45943.640625</v>
+        <v>45099</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10571,7 +10596,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10608,14 +10633,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 50145-2025</t>
+          <t>A 53296-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45943.57131944445</v>
+        <v>45958.89180555556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10628,7 +10653,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10665,14 +10690,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 32666-2025</t>
+          <t>A 54244-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45838</v>
+        <v>45964.63546296296</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10685,7 +10710,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10722,14 +10747,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 15102-2024</t>
+          <t>A 6179-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45399.66299768518</v>
+        <v>45337</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10742,7 +10767,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10779,14 +10804,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 15108-2024</t>
+          <t>A 53869-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45399.66778935185</v>
+        <v>45961.38677083333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10798,8 +10823,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10836,14 +10866,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 13698-2024</t>
+          <t>A 61825-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45390</v>
+        <v>44501.79969907407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,7 +10886,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10893,14 +10923,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 50901-2025</t>
+          <t>A 61826-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45946.64501157407</v>
+        <v>44501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10913,7 +10943,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10950,14 +10980,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 50884-2025</t>
+          <t>A 73226-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45946</v>
+        <v>44550</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +11000,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11007,14 +11037,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 50891-2025</t>
+          <t>A 54467-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45946.63685185185</v>
+        <v>45965.5700462963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11027,7 +11057,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.8</v>
+        <v>13.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11064,14 +11094,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 15067-2025</t>
+          <t>A 1749-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45743.76568287037</v>
+        <v>45307.45815972222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11084,7 +11114,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11121,14 +11151,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 33921-2023</t>
+          <t>A 54863-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45134.47034722222</v>
+        <v>45966.77891203704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11141,7 +11171,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11178,14 +11208,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 15458-2025</t>
+          <t>A 38360-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45747.50989583333</v>
+        <v>45545.79484953704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11198,7 +11228,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11235,14 +11265,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 36101-2025</t>
+          <t>A 27181-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45866.53873842592</v>
+        <v>45096.52827546297</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11255,7 +11285,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11292,14 +11322,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6140-2024</t>
+          <t>A 46320-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45337</v>
+        <v>45581.80997685185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11312,7 +11342,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>12.8</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11349,14 +11379,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 50939-2024</t>
+          <t>A 55331-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45602.92913194445</v>
+        <v>45971.34190972222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11369,7 +11399,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11406,14 +11436,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 58972-2024</t>
+          <t>A 9169-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45636.60099537037</v>
+        <v>44980.41365740741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11426,7 +11456,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11463,14 +11493,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 27181-2023</t>
+          <t>A 55336-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45096.52827546297</v>
+        <v>45971.3446412037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11483,7 +11513,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11520,14 +11550,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 58704-2021</t>
+          <t>A 55439-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44489</v>
+        <v>45971.48627314815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11540,7 +11570,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11577,14 +11607,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 26025-2025</t>
+          <t>A 47523-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45804</v>
+        <v>45930</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11597,7 +11627,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11634,14 +11664,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 33925-2023</t>
+          <t>A 56261-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45134.48231481481</v>
+        <v>45974</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11654,7 +11684,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11691,14 +11721,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 53296-2025</t>
+          <t>A 33912-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45958.89180555556</v>
+        <v>45134.41664351852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11711,7 +11741,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11748,14 +11778,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 43798-2024</t>
+          <t>A 56259-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45571.59386574074</v>
+        <v>45974</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11768,7 +11798,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11805,14 +11835,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 48161-2024</t>
+          <t>A 7640-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45589</v>
+        <v>45348.64657407408</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11825,7 +11855,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11862,14 +11892,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 16747-2023</t>
+          <t>A 56734-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45030</v>
+        <v>45244.35234953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11882,7 +11912,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11919,14 +11949,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 53869-2025</t>
+          <t>A 33942-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45961.38677083333</v>
+        <v>45134</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11938,13 +11968,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11981,14 +12006,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54244-2025</t>
+          <t>A 34183-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45964.63546296296</v>
+        <v>45138</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12001,7 +12026,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12038,14 +12063,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 54467-2025</t>
+          <t>A 16922-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45965.5700462963</v>
+        <v>45411.65899305556</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12058,7 +12083,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>13.4</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12095,14 +12120,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 54863-2025</t>
+          <t>A 56922-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45966.77891203704</v>
+        <v>45978.59846064815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12115,7 +12140,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12152,14 +12177,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 31051-2022</t>
+          <t>A 56805-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44769</v>
+        <v>45978.44703703704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12172,7 +12197,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>12.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12209,14 +12234,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 55439-2025</t>
+          <t>A 56886-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45971.48627314815</v>
+        <v>45975</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12266,14 +12291,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 47523-2025</t>
+          <t>A 56893-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45930</v>
+        <v>45978.56734953704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12286,7 +12311,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12323,14 +12348,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 55336-2025</t>
+          <t>A 146-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45971.3446412037</v>
+        <v>46024.63701388889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12343,7 +12368,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12380,14 +12405,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 55331-2025</t>
+          <t>A 6140-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45971.34190972222</v>
+        <v>45337</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12400,7 +12425,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.2</v>
+        <v>12.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12437,14 +12462,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 2146-2025</t>
+          <t>A 64606-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45672.69664351852</v>
+        <v>45281.5049537037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12457,7 +12482,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12494,14 +12519,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 56886-2025</t>
+          <t>A 60325-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45975</v>
+        <v>45994.74046296296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12514,7 +12539,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>11.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12551,14 +12576,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 11439-2022</t>
+          <t>A 50939-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44630.62471064815</v>
+        <v>45602.92913194445</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12571,7 +12596,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>10.6</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12608,14 +12633,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 73226-2021</t>
+          <t>A 60095-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44550</v>
+        <v>45993.7368287037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12628,7 +12653,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12665,14 +12690,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 56259-2025</t>
+          <t>A 60328-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45974</v>
+        <v>45994.74658564815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12685,7 +12710,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>8.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12722,14 +12747,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 56261-2025</t>
+          <t>A 2050-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45974</v>
+        <v>46035.84706018519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12742,7 +12767,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12779,14 +12804,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61731-2024</t>
+          <t>A 18937-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45649.34305555555</v>
+        <v>45427</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12799,7 +12824,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12836,14 +12861,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 56893-2025</t>
+          <t>A 61120-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45978.56734953704</v>
+        <v>46000.46729166667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12856,7 +12881,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12893,14 +12918,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 56922-2025</t>
+          <t>A 55794-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45978.59846064815</v>
+        <v>45239.54755787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12913,7 +12938,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12950,14 +12975,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 56805-2025</t>
+          <t>A 33915-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45978.44703703704</v>
+        <v>45134.43918981482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12970,7 +12995,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>12.1</v>
+        <v>1.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13007,14 +13032,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 17871-2024</t>
+          <t>A 43987-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45419.44590277778</v>
+        <v>44838.66666666666</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13052,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13064,14 +13089,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 15309-2022</t>
+          <t>A 4195-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44659</v>
+        <v>46044.69524305555</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13109,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13121,14 +13146,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 46523-2024</t>
+          <t>A 17985-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45582.6306712963</v>
+        <v>44683</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13166,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13178,14 +13203,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 5009-2025</t>
+          <t>A 56829-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45691</v>
+        <v>45244.46680555555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13223,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13235,14 +13260,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 65120-2023</t>
+          <t>A 43817-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45287</v>
+        <v>45187</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13255,7 +13280,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>11.4</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13292,14 +13317,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 146-2026</t>
+          <t>A 7243-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46024.63701388889</v>
+        <v>45702.5430324074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13349,14 +13374,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 12910-2023</t>
+          <t>A 13698-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45001</v>
+        <v>45390</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13369,7 +13394,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13413,7 +13438,7 @@
         <v>44722.551875</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13463,14 +13488,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 7795-2023</t>
+          <t>A 40721-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44973</v>
+        <v>44824.50174768519</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13483,7 +13508,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13520,14 +13545,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 12610-2024</t>
+          <t>A 62439-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45382.87498842592</v>
+        <v>46007.46944444445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13540,7 +13565,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13577,14 +13602,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 6172-2024</t>
+          <t>A 4910-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45337</v>
+        <v>46045</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13597,7 +13622,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13634,14 +13659,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 60095-2025</t>
+          <t>A 56029-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45993.7368287037</v>
+        <v>45624.31143518518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13654,7 +13679,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13691,14 +13716,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 12853-2023</t>
+          <t>A 59692-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45001</v>
+        <v>45256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13711,7 +13736,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13748,14 +13773,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 60328-2025</t>
+          <t>A 7795-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45994.74658564815</v>
+        <v>44973</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13768,7 +13793,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>8.9</v>
+        <v>2.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13805,14 +13830,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 59745-2024</t>
+          <t>A 6356-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45639.5343287037</v>
+        <v>46055.61503472222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13850,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13862,14 +13887,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 60325-2025</t>
+          <t>A 1930-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45994.74046296296</v>
+        <v>46035</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13882,7 +13907,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>11.5</v>
+        <v>2.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13919,14 +13944,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 40223-2021</t>
+          <t>A 1937-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44419</v>
+        <v>46035</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13940,11 +13965,11 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13981,14 +14006,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 40226-2021</t>
+          <t>A 1920-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44419</v>
+        <v>46035</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14000,13 +14025,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>2.6</v>
+        <v>5.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14043,14 +14063,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 64606-2023</t>
+          <t>A 1925-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45281.5049537037</v>
+        <v>46035</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14063,7 +14083,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14100,14 +14120,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 2050-2026</t>
+          <t>A 1933-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46035.84706018519</v>
+        <v>46035</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14120,7 +14140,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14157,14 +14177,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 19133-2025</t>
+          <t>A 47630-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45764</v>
+        <v>44852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14177,7 +14197,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14214,14 +14234,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 61120-2025</t>
+          <t>A 6865-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46000.46729166667</v>
+        <v>46057.441875</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14234,7 +14254,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14271,14 +14291,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 4195-2026</t>
+          <t>A 7420-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46044.69524305555</v>
+        <v>45345.62907407407</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14291,7 +14311,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14328,14 +14348,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 18937-2024</t>
+          <t>A 15099-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45427</v>
+        <v>45399.66082175926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14348,7 +14368,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14385,14 +14405,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 12823-2022</t>
+          <t>A 15107-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44642.42333333333</v>
+        <v>45399</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14405,7 +14425,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14442,14 +14462,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 4910-2026</t>
+          <t>A 32838-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46045</v>
+        <v>44784.43820601852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14462,7 +14482,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14499,14 +14519,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 16551-2024</t>
+          <t>A 505-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45408</v>
+        <v>44930.35895833333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14519,7 +14539,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14556,14 +14576,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 27815-2024</t>
+          <t>A 19051-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45475.59787037037</v>
+        <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14576,7 +14596,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14613,14 +14633,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 62439-2025</t>
+          <t>A 6270-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46007.46944444445</v>
+        <v>44965.39467592593</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14633,7 +14653,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14670,14 +14690,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 18855-2025</t>
+          <t>A 63509-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45764.42244212963</v>
+        <v>45274</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14690,7 +14710,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14727,14 +14747,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 17172-2023</t>
+          <t>A 13334-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45034.65365740741</v>
+        <v>44645.37586805555</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14747,7 +14767,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14784,14 +14804,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 18997-2024</t>
+          <t>A 20280-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45427.62200231481</v>
+        <v>45056</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14804,7 +14824,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14841,14 +14861,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 505-2023</t>
+          <t>A 24940-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44930.35895833333</v>
+        <v>45085.54883101852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14861,7 +14881,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14898,14 +14918,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 6356-2026</t>
+          <t>A 33921-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46055.61503472222</v>
+        <v>45134.47034722222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14918,7 +14938,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14955,14 +14975,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 17932-2023</t>
+          <t>A 48494-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45040</v>
+        <v>45592.75105324074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14975,7 +14995,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15012,14 +15032,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 6865-2026</t>
+          <t>A 12853-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46057.441875</v>
+        <v>45001</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15032,7 +15052,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15069,14 +15089,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 1920-2026</t>
+          <t>A 21140-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46035</v>
+        <v>45062.36817129629</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15089,7 +15109,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>5.9</v>
+        <v>0.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15126,14 +15146,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 1925-2026</t>
+          <t>A 6752-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46035</v>
+        <v>44966.87815972222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15146,7 +15166,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15183,14 +15203,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 1933-2026</t>
+          <t>A 17172-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46035</v>
+        <v>45034.65365740741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15203,7 +15223,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15240,14 +15260,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 28190-2022</t>
+          <t>A 32843-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44746.58916666666</v>
+        <v>44784.4495949074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15260,7 +15280,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15297,14 +15317,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 12385-2025</t>
+          <t>A 28190-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45730.38883101852</v>
+        <v>44746.58916666666</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15316,13 +15336,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15359,14 +15374,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 1937-2026</t>
+          <t>A 39899-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46035</v>
+        <v>45166</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15378,13 +15393,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>2.8</v>
+        <v>15.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15421,14 +15431,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 20536-2023</t>
+          <t>A 12910-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45057</v>
+        <v>45001</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15441,7 +15451,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15478,14 +15488,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 1930-2026</t>
+          <t>A 6172-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46035</v>
+        <v>45337</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15498,7 +15508,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15535,14 +15545,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 28385-2022</t>
+          <t>A 33925-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44747.55924768518</v>
+        <v>45134.48231481481</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15555,7 +15565,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15592,14 +15602,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 9732-2023</t>
+          <t>A 18855-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44978</v>
+        <v>45764.42244212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15622,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15649,14 +15659,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 23441-2021</t>
+          <t>A 15309-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44333</v>
+        <v>44659</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15679,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15706,14 +15716,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 7640-2024</t>
+          <t>A 11439-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45348.64657407408</v>
+        <v>44630.62471064815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15736,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5</v>
+        <v>10.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15763,14 +15773,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 17077-2023</t>
+          <t>A 33033-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45034</v>
+        <v>45517</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15783,7 +15793,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15820,14 +15830,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 46520-2024</t>
+          <t>A 49131-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45582</v>
+        <v>45594.68315972222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15840,7 +15850,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15877,14 +15887,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 18715-2023</t>
+          <t>A 61409-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45043.65006944445</v>
+        <v>44909</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15907,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15934,14 +15944,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 14798-2024</t>
+          <t>A 48496-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45397.90431712963</v>
+        <v>45592.77157407408</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15953,13 +15963,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15992,38 +15997,18 @@
         <v>0</v>
       </c>
       <c r="R261" s="2" t="inlineStr"/>
-      <c r="U261">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="V261">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="W261">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="X261">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y261">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 6550-2021</t>
+          <t>A 1385-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44236</v>
+        <v>45667.66609953704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16036,7 +16021,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16073,14 +16058,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 19051-2023</t>
+          <t>A 56725-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45047</v>
+        <v>45244</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16093,7 +16078,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16130,14 +16115,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 59692-2023</t>
+          <t>A 56739-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45256</v>
+        <v>45244</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16150,7 +16135,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16187,14 +16172,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 33915-2023</t>
+          <t>A 17871-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45134.43918981482</v>
+        <v>45419.44590277778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16207,7 +16192,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16244,14 +16229,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 49131-2024</t>
+          <t>A 50002-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45594.68315972222</v>
+        <v>45215</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16264,7 +16249,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16301,14 +16286,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 43621-2021</t>
+          <t>A 12385-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44433</v>
+        <v>45730.38883101852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16320,8 +16305,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16358,14 +16348,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 33942-2023</t>
+          <t>A 369-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45134</v>
+        <v>44929</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16378,7 +16368,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16415,14 +16405,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 49481-2023</t>
+          <t>A 519-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45211</v>
+        <v>44930.40255787037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16435,7 +16425,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16472,14 +16462,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 57699-2023</t>
+          <t>A 43798-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45246</v>
+        <v>45571.59386574074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16492,7 +16482,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16529,14 +16519,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 13334-2022</t>
+          <t>A 23700-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44645.37586805555</v>
+        <v>45077.62905092593</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16549,7 +16539,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16586,14 +16576,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 39899-2023</t>
+          <t>A 5009-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45166</v>
+        <v>45691</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16606,7 +16596,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>15.6</v>
+        <v>1.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16643,14 +16633,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 16922-2024</t>
+          <t>A 17077-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45411.65899305556</v>
+        <v>45034</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16663,7 +16653,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16700,14 +16690,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 50002-2023</t>
+          <t>A 40399-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45215</v>
+        <v>45555.44511574074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16757,14 +16747,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 6179-2024</t>
+          <t>A 22326-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45337</v>
+        <v>45786.41207175926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16777,7 +16767,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16814,14 +16804,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 48163-2024</t>
+          <t>A 23060-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45589</v>
+        <v>45790</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16834,7 +16824,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>14.4</v>
+        <v>3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16871,14 +16861,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 56829-2023</t>
+          <t>A 29371-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45244.46680555555</v>
+        <v>44361</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16891,7 +16881,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16928,14 +16918,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 55794-2023</t>
+          <t>A 10525-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45239.54755787037</v>
+        <v>45721.43710648148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16948,7 +16938,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16985,14 +16975,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 23700-2023</t>
+          <t>A 42605-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45077.62905092593</v>
+        <v>45565.72832175926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17005,7 +16995,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17042,14 +17032,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 6270-2023</t>
+          <t>A 13666-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44965.39467592593</v>
+        <v>45736.8315162037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17062,7 +17052,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17099,14 +17089,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 1749-2024</t>
+          <t>A 13674-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45307.45815972222</v>
+        <v>45736.9021875</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17119,7 +17109,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17156,14 +17146,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 20280-2023</t>
+          <t>A 12760-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45056</v>
+        <v>45733.57016203704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17176,7 +17166,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17213,14 +17203,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 40939-2024</t>
+          <t>A 13196-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45558.64363425926</v>
+        <v>45735.42291666667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17233,7 +17223,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.2</v>
+        <v>5.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17270,14 +17260,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 56029-2024</t>
+          <t>A 14752-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45624.31143518518</v>
+        <v>45742.66047453704</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17290,7 +17280,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17327,14 +17317,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 519-2023</t>
+          <t>A 11883-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44930.40255787037</v>
+        <v>45728</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17337,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17384,14 +17374,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 61825-2021</t>
+          <t>A 24549-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44501.79969907407</v>
+        <v>45798.44802083333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17394,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17441,14 +17431,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 61826-2021</t>
+          <t>A 24567-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44501</v>
+        <v>45798.46579861111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17461,7 +17451,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17498,14 +17488,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 120-2024</t>
+          <t>A 24560-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45294.3707175926</v>
+        <v>45798.45908564814</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17518,7 +17508,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17555,14 +17545,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 33476-2022</t>
+          <t>A 24894-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44788</v>
+        <v>45799.51355324074</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17575,7 +17565,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17612,14 +17602,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 46320-2024</t>
+          <t>A 24882-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45581.80997685185</v>
+        <v>45799.49961805555</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17632,7 +17622,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17669,14 +17659,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 6752-2023</t>
+          <t>A 24892-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44966.87815972222</v>
+        <v>45799.51231481481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17689,7 +17679,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17726,14 +17716,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 14722-2023</t>
+          <t>A 24897-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45014</v>
+        <v>45799.51752314815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17746,7 +17736,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17783,14 +17773,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 56725-2023</t>
+          <t>A 24832-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45244</v>
+        <v>45799.4587962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17803,7 +17793,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17840,14 +17830,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 56739-2023</t>
+          <t>A 25575-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45244</v>
+        <v>45803.47547453704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17859,8 +17849,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17897,14 +17892,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 43799-2024</t>
+          <t>A 26247-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45571.62708333333</v>
+        <v>45805</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17917,7 +17912,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17954,14 +17949,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 33912-2023</t>
+          <t>A 46514-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45134.41664351852</v>
+        <v>45582.62592592592</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17974,7 +17969,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18011,14 +18006,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 48496-2024</t>
+          <t>A 46521-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45592.77157407408</v>
+        <v>45582.62986111111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18031,7 +18026,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18068,14 +18063,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 40399-2024</t>
+          <t>A 48034-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45555.44511574074</v>
+        <v>45589.49070601852</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18088,7 +18083,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18125,14 +18120,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 22326-2025</t>
+          <t>A 51480-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45786.41207175926</v>
+        <v>45603</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18145,7 +18140,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18182,14 +18177,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 29371-2021</t>
+          <t>A 4736-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44361</v>
+        <v>45328</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,8 +18196,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G300" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18239,14 +18239,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 10525-2025</t>
+          <t>A 27031-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45721.43710648148</v>
+        <v>45811.5890625</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18296,14 +18296,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 42605-2024</t>
+          <t>A 11817-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45565.72832175926</v>
+        <v>45728.30768518519</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18353,14 +18353,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 12760-2025</t>
+          <t>A 10515-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45733.57016203704</v>
+        <v>45721.423125</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18410,14 +18410,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 23060-2025</t>
+          <t>A 28264-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45790</v>
+        <v>45818.55997685185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18467,14 +18467,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 14752-2025</t>
+          <t>A 28265-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45742.66047453704</v>
+        <v>45818.56096064814</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18524,14 +18524,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 13196-2025</t>
+          <t>A 28261-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45735.42291666667</v>
+        <v>45818.55596064815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18578,17 +18578,17 @@
       </c>
       <c r="R306" s="2" t="inlineStr"/>
     </row>
-    <row r="307" ht="15" customHeight="1">
+    <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 13666-2025</t>
+          <t>A 28263-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45736.8315162037</v>
+        <v>45818.55798611111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18634,120 +18634,6 @@
         <v>0</v>
       </c>
       <c r="R307" s="2" t="inlineStr"/>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>A 13674-2025</t>
-        </is>
-      </c>
-      <c r="B308" s="1" t="n">
-        <v>45736.9021875</v>
-      </c>
-      <c r="C308" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G308" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="n">
-        <v>0</v>
-      </c>
-      <c r="K308" t="n">
-        <v>0</v>
-      </c>
-      <c r="L308" t="n">
-        <v>0</v>
-      </c>
-      <c r="M308" t="n">
-        <v>0</v>
-      </c>
-      <c r="N308" t="n">
-        <v>0</v>
-      </c>
-      <c r="O308" t="n">
-        <v>0</v>
-      </c>
-      <c r="P308" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q308" t="n">
-        <v>0</v>
-      </c>
-      <c r="R308" s="2" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>A 11883-2025</t>
-        </is>
-      </c>
-      <c r="B309" s="1" t="n">
-        <v>45728</v>
-      </c>
-      <c r="C309" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G309" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="n">
-        <v>0</v>
-      </c>
-      <c r="K309" t="n">
-        <v>0</v>
-      </c>
-      <c r="L309" t="n">
-        <v>0</v>
-      </c>
-      <c r="M309" t="n">
-        <v>0</v>
-      </c>
-      <c r="N309" t="n">
-        <v>0</v>
-      </c>
-      <c r="O309" t="n">
-        <v>0</v>
-      </c>
-      <c r="P309" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q309" t="n">
-        <v>0</v>
-      </c>
-      <c r="R309" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55617-2023</t>
+          <t>A 17920-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45238.82357638889</v>
+        <v>45040</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1542,459 +1542,459 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 17920-2023 artfynd.xlsx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 17920-2023 karta.png", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 17920-2023 FSC-klagomål.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 17920-2023 FSC-klagomål mail.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 17920-2023 tillsynsbegäran.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 17920-2023 tillsynsbegäran mail.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 58292-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>19</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 58292-2023 artfynd.xlsx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 58292-2023 karta.png", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 58292-2023 FSC-klagomål.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 58292-2023 FSC-klagomål mail.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 58292-2023 tillsynsbegäran.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 58292-2023 tillsynsbegäran mail.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 11709-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45373.61430555556</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Gullklöver</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 11709-2024 artfynd.xlsx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 11709-2024 karta.png", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 11709-2024 FSC-klagomål.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 11709-2024 FSC-klagomål mail.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 11709-2024 tillsynsbegäran.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 11709-2024 tillsynsbegäran mail.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 55617-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45238.82357638889</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 55617-2023 artfynd.xlsx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 55617-2023 karta.png", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 55617-2023 FSC-klagomål.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 55617-2023 FSC-klagomål mail.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 55617-2023 tillsynsbegäran.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 55617-2023 tillsynsbegäran mail.docx", "A 55617-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 44736-2021</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44438</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>6.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Barkticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 44736-2021 artfynd.xlsx", "A 44736-2021")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 44736-2021 karta.png", "A 44736-2021")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 44736-2021 FSC-klagomål.docx", "A 44736-2021")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 44736-2021 FSC-klagomål mail.docx", "A 44736-2021")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 44736-2021 tillsynsbegäran.docx", "A 44736-2021")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 44736-2021 tillsynsbegäran mail.docx", "A 44736-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 27055-2025</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45811.62898148148</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>6.1</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Barkticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 27055-2025 artfynd.xlsx", "A 27055-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 27055-2025 karta.png", "A 27055-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 27055-2025 FSC-klagomål.docx", "A 27055-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 27055-2025 FSC-klagomål mail.docx", "A 27055-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 27055-2025 tillsynsbegäran.docx", "A 27055-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 27055-2025 tillsynsbegäran mail.docx", "A 27055-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 11709-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45373.61430555556</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gullklöver</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 11709-2024 artfynd.xlsx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 11709-2024 karta.png", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 11709-2024 FSC-klagomål.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 11709-2024 FSC-klagomål mail.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 11709-2024 tillsynsbegäran.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 11709-2024 tillsynsbegäran mail.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 58292-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45250</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>19</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ask</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 58292-2023 artfynd.xlsx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 58292-2023 karta.png", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 58292-2023 FSC-klagomål.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 58292-2023 FSC-klagomål mail.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 58292-2023 tillsynsbegäran.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 58292-2023 tillsynsbegäran mail.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 17920-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45040</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 17920-2023 artfynd.xlsx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 17920-2023 karta.png", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 17920-2023 FSC-klagomål.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 17920-2023 FSC-klagomål mail.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 17920-2023 tillsynsbegäran.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 17920-2023 tillsynsbegäran mail.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2117,14 +2117,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 29346-2022</t>
+          <t>A 34717-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44753.32848379629</v>
+        <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2174,14 +2174,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34717-2022</t>
+          <t>A 29346-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44795</v>
+        <v>44753.32848379629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>44886</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3034,14 +3034,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26740-2021</t>
+          <t>A 29371-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44349.40521990741</v>
+        <v>44753.39418981481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3053,8 +3053,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>10.3</v>
+        <v>5.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3091,14 +3096,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46870-2021</t>
+          <t>A 60987-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44446</v>
+        <v>44497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3110,13 +3115,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 10-2022</t>
+          <t>A 61042-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44563.73993055556</v>
+        <v>44497</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20138-2021</t>
+          <t>A 10977-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44314.4852662037</v>
+        <v>44628.43050925926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 58301-2021</t>
+          <t>A 26740-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44488</v>
+        <v>44349.40521990741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>10.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14708-2021</t>
+          <t>A 34380-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44280</v>
+        <v>44379.89332175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3381,14 +3381,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3465-2022</t>
+          <t>A 46870-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44585</v>
+        <v>44446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3400,8 +3400,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3438,14 +3443,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 34380-2021</t>
+          <t>A 34592-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44379.89332175926</v>
+        <v>44382</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3457,8 +3462,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>12.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3495,14 +3505,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12828-2022</t>
+          <t>A 34593-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44642.43065972222</v>
+        <v>44382</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3514,8 +3524,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.3</v>
+        <v>6.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3552,14 +3567,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12836-2022</t>
+          <t>A 10-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44642.44318287037</v>
+        <v>44563.73993055556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3572,7 +3587,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3609,14 +3624,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19561-2022</t>
+          <t>A 18157-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44693.66460648148</v>
+        <v>44684</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3629,7 +3644,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3666,14 +3681,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34592-2021</t>
+          <t>A 19559-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44382</v>
+        <v>44693.6590625</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3685,13 +3700,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>12.5</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3728,14 +3738,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 34593-2021</t>
+          <t>A 2377-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44382</v>
+        <v>44579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3747,13 +3757,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3790,14 +3795,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10976-2022</t>
+          <t>A 20138-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44628.42969907408</v>
+        <v>44314.4852662037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3810,7 +3815,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3847,14 +3852,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29371-2022</t>
+          <t>A 10976-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44753.39418981481</v>
+        <v>44628.42969907408</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,13 +3871,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3909,14 +3909,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61042-2021</t>
+          <t>A 13923-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44497</v>
+        <v>44650</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3928,8 +3928,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3966,14 +3971,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10977-2022</t>
+          <t>A 58301-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44628.43050925926</v>
+        <v>44488</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3991,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4023,14 +4028,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60987-2021</t>
+          <t>A 14708-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44497</v>
+        <v>44280</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4048,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4080,14 +4085,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 18157-2022</t>
+          <t>A 34598-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44684</v>
+        <v>44382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4099,8 +4104,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4137,14 +4147,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19559-2022</t>
+          <t>A 34595-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44693.6590625</v>
+        <v>44382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4156,8 +4166,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4194,14 +4209,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2377-2022</t>
+          <t>A 29373-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44579</v>
+        <v>44753</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4213,8 +4228,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>12.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4251,14 +4271,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13923-2022</t>
+          <t>A 3465-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44650</v>
+        <v>44585</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4270,13 +4290,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4313,14 +4328,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 34598-2021</t>
+          <t>A 22557-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44382</v>
+        <v>44322</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4332,13 +4347,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4375,14 +4385,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 29373-2022</t>
+          <t>A 11979-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44753</v>
+        <v>44635.66027777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4394,13 +4404,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>12.5</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4437,14 +4442,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22557-2021</t>
+          <t>A 19561-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44322</v>
+        <v>44693.66460648148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4462,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4494,14 +4499,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34595-2021</t>
+          <t>A 12828-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44382</v>
+        <v>44642.43065972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4513,13 +4518,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4556,14 +4556,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11979-2022</t>
+          <t>A 12836-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44635.66027777778</v>
+        <v>44642.44318287037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4613,14 +4613,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30201-2021</t>
+          <t>A 16551-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44363</v>
+        <v>45408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29345-2022</t>
+          <t>A 30201-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44753.32299768519</v>
+        <v>44363</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4727,14 +4727,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30878-2021</t>
+          <t>A 22402-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44365</v>
+        <v>45446.6730787037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4784,14 +4784,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61731-2024</t>
+          <t>A 29345-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45649.34305555555</v>
+        <v>44753.32299768519</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4841,14 +4841,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40844-2025</t>
+          <t>A 30878-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45897.53482638889</v>
+        <v>44365</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48494-2024</t>
+          <t>A 120-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45592.75105324074</v>
+        <v>45294.3707175926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4955,14 +4955,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40544-2025</t>
+          <t>A 20793-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45896.43144675926</v>
+        <v>45058.60979166667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5012,14 +5012,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40550-2025</t>
+          <t>A 18997-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45896.44113425926</v>
+        <v>45427.62200231481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5069,14 +5069,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40553-2025</t>
+          <t>A 28263-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45896.44429398148</v>
+        <v>45099</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5126,14 +5126,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33033-2024</t>
+          <t>A 33476-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45517</v>
+        <v>44788</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5183,14 +5183,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 519-2023</t>
+          <t>A 6167-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44930.40255787037</v>
+        <v>45337</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5240,14 +5240,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40538-2025</t>
+          <t>A 40223-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45896.41814814815</v>
+        <v>44419</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5259,8 +5259,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5297,14 +5302,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40539-2025</t>
+          <t>A 40226-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45896.41945601852</v>
+        <v>44419</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5316,8 +5321,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5354,14 +5364,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61825-2021</t>
+          <t>A 58972-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44501.79969907407</v>
+        <v>45636.60099537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5374,7 +5384,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5411,14 +5421,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 61826-2021</t>
+          <t>A 61566-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44501</v>
+        <v>45646.61444444444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5441,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5468,14 +5478,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 38614-2025</t>
+          <t>A 54006-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45884.54458333334</v>
+        <v>44881.40414351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5488,7 +5498,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5525,14 +5535,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 20584-2023</t>
+          <t>A 17861-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45057</v>
+        <v>45419.43511574074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5545,7 +5555,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5582,14 +5592,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 120-2024</t>
+          <t>A 24107-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45294.3707175926</v>
+        <v>45456</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5612,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5639,14 +5649,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 38360-2024</t>
+          <t>A 6179-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45545.79484953704</v>
+        <v>45337</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5659,7 +5669,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5696,14 +5706,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 56480-2024</t>
+          <t>A 61825-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45625.47077546296</v>
+        <v>44501.79969907407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5716,7 +5726,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5753,14 +5763,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16452-2025</t>
+          <t>A 61826-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45751.51493055555</v>
+        <v>44501</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5773,7 +5783,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5810,14 +5820,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 17749-2024</t>
+          <t>A 73226-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45418.59761574074</v>
+        <v>44550</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5830,7 +5840,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5867,14 +5877,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33476-2022</t>
+          <t>A 1749-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44788</v>
+        <v>45307.45815972222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5924,14 +5934,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 17985-2022</t>
+          <t>A 14798-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44683</v>
+        <v>45397.90431712963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5943,8 +5953,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>10</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5977,18 +5992,38 @@
         <v>0</v>
       </c>
       <c r="R86" s="2" t="inlineStr"/>
+      <c r="U86">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="V86">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="W86">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="X86">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y86">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46320-2024</t>
+          <t>A 12610-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45581.80997685185</v>
+        <v>45382.87498842592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6001,7 +6036,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6038,14 +6073,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6752-2023</t>
+          <t>A 43621-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44966.87815972222</v>
+        <v>44433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6058,7 +6093,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6095,14 +6130,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14722-2023</t>
+          <t>A 38360-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45014</v>
+        <v>45545.79484953704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6115,7 +6150,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6152,14 +6187,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 56725-2023</t>
+          <t>A 27181-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45244</v>
+        <v>45096.52827546297</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6172,7 +6207,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6209,14 +6244,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 56739-2023</t>
+          <t>A 46320-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45244</v>
+        <v>45581.80997685185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6229,7 +6264,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6266,14 +6301,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43799-2024</t>
+          <t>A 9169-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45571.62708333333</v>
+        <v>44980.41365740741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6286,7 +6321,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6323,14 +6358,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42021-2025</t>
+          <t>A 2556-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45903.59125</v>
+        <v>45313.60317129629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6343,7 +6378,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6380,14 +6415,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43817-2023</t>
+          <t>A 14722-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45187</v>
+        <v>45014</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6400,7 +6435,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6437,14 +6472,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 15099-2024</t>
+          <t>A 33912-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45399.66082175926</v>
+        <v>45134.41664351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6457,7 +6492,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6494,14 +6529,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 15107-2024</t>
+          <t>A 17749-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45399</v>
+        <v>45418.59761574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6514,7 +6549,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>8.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6551,14 +6586,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 369-2023</t>
+          <t>A 10444-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44929</v>
+        <v>44623</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6571,7 +6606,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6608,14 +6643,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 41795-2025</t>
+          <t>A 43799-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45902.60028935185</v>
+        <v>45571.62708333333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6628,7 +6663,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6665,14 +6700,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33912-2023</t>
+          <t>A 43856-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45134.41664351852</v>
+        <v>45572.35760416667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6685,7 +6720,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6722,14 +6757,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48496-2024</t>
+          <t>A 7640-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45592.77157407408</v>
+        <v>45348.64657407408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6742,7 +6777,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6779,14 +6814,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42566-2025</t>
+          <t>A 16747-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45905.60494212963</v>
+        <v>45030</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6799,7 +6834,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6836,14 +6871,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 7420-2024</t>
+          <t>A 23441-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45345.62907407407</v>
+        <v>44333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6856,7 +6891,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6893,14 +6928,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55618-2023</t>
+          <t>A 56734-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45238.825625</v>
+        <v>45244.35234953704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6913,7 +6948,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6950,14 +6985,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 28263-2023</t>
+          <t>A 33942-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45099</v>
+        <v>45134</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6970,7 +7005,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7007,14 +7042,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47630-2022</t>
+          <t>A 26247-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44852</v>
+        <v>45805</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7027,7 +7062,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7064,14 +7099,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 34183-2023</t>
+          <t>A 42698-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45138</v>
+        <v>45566</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7084,7 +7119,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7121,14 +7156,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40399-2024</t>
+          <t>A 46514-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45555.44511574074</v>
+        <v>45582.62592592592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7141,7 +7176,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7178,14 +7213,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 2556-2024</t>
+          <t>A 46521-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45313.60317129629</v>
+        <v>45582.62986111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7198,7 +7233,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7235,14 +7270,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 54006-2022</t>
+          <t>A 48034-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44881.40414351852</v>
+        <v>45589.49070601852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7255,7 +7290,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7292,14 +7327,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 22326-2025</t>
+          <t>A 34183-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45786.41207175926</v>
+        <v>45138</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7347,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7349,14 +7384,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29371-2021</t>
+          <t>A 16922-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44361</v>
+        <v>45411.65899305556</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7406,14 +7441,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10525-2025</t>
+          <t>A 51480-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45721.43710648148</v>
+        <v>45603</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7426,7 +7461,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7463,14 +7498,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42605-2024</t>
+          <t>A 4736-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45565.72832175926</v>
+        <v>45328</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7482,8 +7517,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7520,14 +7560,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 42698-2024</t>
+          <t>A 27031-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45566</v>
+        <v>45811.5890625</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7540,7 +7580,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7577,14 +7617,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12760-2025</t>
+          <t>A 49481-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45733.57016203704</v>
+        <v>45211</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7597,7 +7637,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7634,14 +7674,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 23060-2025</t>
+          <t>A 11817-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45790</v>
+        <v>45728.30768518519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7654,7 +7694,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7691,14 +7731,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 14752-2025</t>
+          <t>A 46520-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45742.66047453704</v>
+        <v>45582</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7711,7 +7751,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7748,14 +7788,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13196-2025</t>
+          <t>A 20536-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45735.42291666667</v>
+        <v>45057</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7768,7 +7808,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7805,14 +7845,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 13666-2025</t>
+          <t>A 15102-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45736.8315162037</v>
+        <v>45399.66299768518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7825,7 +7865,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7862,14 +7902,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 13674-2025</t>
+          <t>A 55618-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45736.9021875</v>
+        <v>45238.825625</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7882,7 +7922,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7919,14 +7959,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61409-2022</t>
+          <t>A 10515-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44909</v>
+        <v>45721.423125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7939,7 +7979,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7976,14 +8016,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44588-2025</t>
+          <t>A 28264-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45917.4165625</v>
+        <v>45818.55997685185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7996,7 +8036,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8033,14 +8073,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 44575-2025</t>
+          <t>A 28265-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45917.40004629629</v>
+        <v>45818.56096064814</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8053,7 +8093,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8090,14 +8130,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44578-2025</t>
+          <t>A 28261-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45917.40295138889</v>
+        <v>45818.55596064815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8150,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8147,14 +8187,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44584-2025</t>
+          <t>A 28263-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45917.41353009259</v>
+        <v>45818.55798611111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8167,7 +8207,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8204,14 +8244,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 22402-2024</t>
+          <t>A 48161-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45446.6730787037</v>
+        <v>45589</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8224,7 +8264,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.4</v>
+        <v>42</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8261,14 +8301,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 32838-2022</t>
+          <t>A 15108-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44784.43820601852</v>
+        <v>45399.66778935185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8281,7 +8321,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8318,14 +8358,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40721-2022</t>
+          <t>A 40939-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44824.50174768519</v>
+        <v>45558.64363425926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8338,7 +8378,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8375,14 +8415,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43856-2024</t>
+          <t>A 48163-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45572.35760416667</v>
+        <v>45589</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8395,7 +8435,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>14.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8432,14 +8472,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44583-2025</t>
+          <t>A 27867-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45917.40908564815</v>
+        <v>45817.42643518518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8452,7 +8492,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8489,14 +8529,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44589-2025</t>
+          <t>A 24940-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45917.42443287037</v>
+        <v>45085.54883101852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8509,7 +8549,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8546,14 +8586,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44597-2025</t>
+          <t>A 28960-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45917.4290625</v>
+        <v>45821.31986111111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8566,7 +8606,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8603,14 +8643,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 11883-2025</t>
+          <t>A 33921-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45728</v>
+        <v>45134.47034722222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8623,7 +8663,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8660,14 +8700,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44841-2025</t>
+          <t>A 29840-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45918.4284375</v>
+        <v>45826.29282407407</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8680,7 +8720,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8717,14 +8757,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 24560-2025</t>
+          <t>A 65120-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45798.45908564814</v>
+        <v>45287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8737,7 +8777,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.8</v>
+        <v>11.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8774,14 +8814,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 22631-2022</t>
+          <t>A 7590-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44714.44008101852</v>
+        <v>45348</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8794,7 +8834,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8831,14 +8871,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 24892-2025</t>
+          <t>A 6140-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45799.51231481481</v>
+        <v>45337</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8851,7 +8891,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.8</v>
+        <v>12.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8888,14 +8928,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 24940-2023</t>
+          <t>A 48494-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45085.54883101852</v>
+        <v>45592.75105324074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8908,7 +8948,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8945,14 +8985,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 24832-2025</t>
+          <t>A 30621-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45799.4587962963</v>
+        <v>45831.47098379629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8965,7 +9005,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9002,14 +9042,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 24882-2025</t>
+          <t>A 12853-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45799.49961805555</v>
+        <v>45001</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9022,7 +9062,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9059,14 +9099,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 24897-2025</t>
+          <t>A 21140-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45799.51752314815</v>
+        <v>45062.36817129629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9079,7 +9119,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9116,14 +9156,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 24549-2025</t>
+          <t>A 58704-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45798.44802083333</v>
+        <v>44489</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9136,7 +9176,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9173,14 +9213,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 7243-2025</t>
+          <t>A 20584-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45702.5430324074</v>
+        <v>45057</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9193,7 +9233,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9230,14 +9270,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 24567-2025</t>
+          <t>A 64606-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45798.46579861111</v>
+        <v>45281.5049537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9250,7 +9290,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9287,14 +9327,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 24894-2025</t>
+          <t>A 59745-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45799.51355324074</v>
+        <v>45639.5343287037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9307,7 +9347,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9344,14 +9384,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10444-2022</t>
+          <t>A 50939-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44623</v>
+        <v>45602.92913194445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9404,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9401,14 +9441,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 25575-2025</t>
+          <t>A 2146-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45803.47547453704</v>
+        <v>45672.69664351852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9420,13 +9460,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9463,14 +9498,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 6167-2024</t>
+          <t>A 6752-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45337</v>
+        <v>44966.87815972222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9483,7 +9518,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9520,14 +9555,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45537-2025</t>
+          <t>A 17172-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45922.61059027778</v>
+        <v>45034.65365740741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9540,7 +9575,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9577,14 +9612,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 26247-2025</t>
+          <t>A 32843-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45805</v>
+        <v>44784.4495949074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9597,7 +9632,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9634,14 +9669,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 45712-2025</t>
+          <t>A 28190-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45923.43152777778</v>
+        <v>44746.58916666666</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9654,7 +9689,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9691,14 +9726,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48034-2024</t>
+          <t>A 18937-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45589.49070601852</v>
+        <v>45427</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9711,7 +9746,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9748,14 +9783,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 9169-2023</t>
+          <t>A 39899-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44980.41365740741</v>
+        <v>45166</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9768,7 +9803,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>15.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9805,14 +9840,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 46514-2024</t>
+          <t>A 12910-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45582.62592592592</v>
+        <v>45001</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9825,7 +9860,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9862,14 +9897,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 46521-2024</t>
+          <t>A 6172-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45582.62986111111</v>
+        <v>45337</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9882,7 +9917,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9919,14 +9954,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56734-2023</t>
+          <t>A 32666-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45244.35234953704</v>
+        <v>45838</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9939,7 +9974,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9976,14 +10011,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 27031-2025</t>
+          <t>A 7605-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45811.5890625</v>
+        <v>44606</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9996,7 +10031,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10033,14 +10068,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 4736-2024</t>
+          <t>A 55794-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45328</v>
+        <v>45239.54755787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10052,13 +10087,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10095,14 +10125,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 51480-2024</t>
+          <t>A 33925-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45603</v>
+        <v>45134.48231481481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10115,7 +10145,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10152,14 +10182,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45950-2025</t>
+          <t>A 33915-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45924.34196759259</v>
+        <v>45134.43918981482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10172,7 +10202,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10209,14 +10239,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 24107-2024</t>
+          <t>A 18855-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45456</v>
+        <v>45764.42244212963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10229,7 +10259,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10266,14 +10296,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 11817-2025</t>
+          <t>A 43987-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45728.30768518519</v>
+        <v>44838.66666666666</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10286,7 +10316,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10323,14 +10353,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10515-2025</t>
+          <t>A 46523-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45721.423125</v>
+        <v>45582.6306712963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10343,7 +10373,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10380,14 +10410,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 27867-2025</t>
+          <t>A 28385-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45817.42643518518</v>
+        <v>44747.55924768518</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10400,7 +10430,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10437,14 +10467,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 46145-2025</t>
+          <t>A 17985-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45924.60802083334</v>
+        <v>44683</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10457,7 +10487,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10494,14 +10524,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 17861-2024</t>
+          <t>A 56829-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45419.43511574074</v>
+        <v>45244.46680555555</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10514,7 +10544,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10551,14 +10581,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 28264-2025</t>
+          <t>A 15067-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45818.55997685185</v>
+        <v>45743.76568287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10571,7 +10601,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10608,14 +10638,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 28265-2025</t>
+          <t>A 43817-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45818.56096064814</v>
+        <v>45187</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10628,7 +10658,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10665,14 +10695,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 28261-2025</t>
+          <t>A 7243-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45818.55596064815</v>
+        <v>45702.5430324074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10685,7 +10715,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10722,14 +10752,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 28263-2025</t>
+          <t>A 13698-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45818.55798611111</v>
+        <v>45390</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10742,7 +10772,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10779,14 +10809,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 28960-2025</t>
+          <t>A 36101-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45821.31986111111</v>
+        <v>45866.53873842592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10799,7 +10829,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10836,14 +10866,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 46986-2025</t>
+          <t>A 15458-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45929.5359375</v>
+        <v>45747.50989583333</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,7 +10886,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10893,14 +10923,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 1385-2025</t>
+          <t>A 23862-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45667.66609953704</v>
+        <v>44722.551875</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10913,7 +10943,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10950,14 +10980,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 21140-2023</t>
+          <t>A 40721-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45062.36817129629</v>
+        <v>44824.50174768519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +11000,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11007,14 +11037,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 47342-2025</t>
+          <t>A 9732-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45930.56956018518</v>
+        <v>44978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11027,7 +11057,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11064,14 +11094,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 29840-2025</t>
+          <t>A 17932-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45826.29282407407</v>
+        <v>45040</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11084,7 +11114,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11121,14 +11151,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 30621-2025</t>
+          <t>A 26025-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45831.47098379629</v>
+        <v>45804</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11141,7 +11171,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11178,14 +11208,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3884-2022</t>
+          <t>A 56029-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44587.46003472222</v>
+        <v>45624.31143518518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11198,7 +11228,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11235,14 +11265,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 20793-2023</t>
+          <t>A 59692-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45058.60979166667</v>
+        <v>45256</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11255,7 +11285,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11292,14 +11322,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61566-2024</t>
+          <t>A 7795-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45646.61444444444</v>
+        <v>44973</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11312,7 +11342,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11349,14 +11379,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 27232-2024</t>
+          <t>A 15309-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45471</v>
+        <v>44659</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11369,7 +11399,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11406,14 +11436,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47783-2025</t>
+          <t>A 11439-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45931.76866898148</v>
+        <v>44630.62471064815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11426,7 +11456,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>10.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11463,14 +11493,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 3880-2022</t>
+          <t>A 19133-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44587.45909722222</v>
+        <v>45764</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11483,7 +11513,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11520,14 +11550,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 48036-2025</t>
+          <t>A 38614-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45932</v>
+        <v>45884.54458333334</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11540,7 +11570,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11577,14 +11607,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 7590-2024</t>
+          <t>A 47630-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45348</v>
+        <v>44852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11597,7 +11627,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11634,14 +11664,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 63509-2023</t>
+          <t>A 18715-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45274</v>
+        <v>45043.65006944445</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11654,7 +11684,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11691,14 +11721,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 32843-2022</t>
+          <t>A 16452-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44784.4495949074</v>
+        <v>45751.51493055555</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11711,7 +11741,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11748,14 +11778,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 43987-2022</t>
+          <t>A 7420-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44838.66666666666</v>
+        <v>45345.62907407407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11768,7 +11798,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11805,14 +11835,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 7605-2022</t>
+          <t>A 12823-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44606</v>
+        <v>44642.42333333333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11825,7 +11855,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11862,14 +11892,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 32666-2025</t>
+          <t>A 57699-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45838</v>
+        <v>45246</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11882,7 +11912,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11919,14 +11949,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 49201-2025</t>
+          <t>A 27815-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45938.41451388889</v>
+        <v>45475.59787037037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11939,7 +11969,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11976,14 +12006,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 15067-2025</t>
+          <t>A 15099-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45743.76568287037</v>
+        <v>45399.66082175926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11996,7 +12026,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12033,14 +12063,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50192-2025</t>
+          <t>A 15107-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45943.63825231481</v>
+        <v>45399</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12053,7 +12083,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>15.8</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12090,14 +12120,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 50193-2025</t>
+          <t>A 22631-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45943.640625</v>
+        <v>44714.44008101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12110,7 +12140,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12147,14 +12177,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 50145-2025</t>
+          <t>A 32838-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45943.57131944445</v>
+        <v>44784.43820601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12167,7 +12197,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12204,14 +12234,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 15102-2024</t>
+          <t>A 505-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45399.66299768518</v>
+        <v>44930.35895833333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12224,7 +12254,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12261,14 +12291,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 15108-2024</t>
+          <t>A 19051-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45399.66778935185</v>
+        <v>45047</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12281,7 +12311,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12318,14 +12348,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 13698-2024</t>
+          <t>A 6270-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45390</v>
+        <v>44965.39467592593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12375,14 +12405,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 15458-2025</t>
+          <t>A 31051-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45747.50989583333</v>
+        <v>44769</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12395,7 +12425,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12432,14 +12462,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 36101-2025</t>
+          <t>A 63509-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45866.53873842592</v>
+        <v>45274</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12489,14 +12519,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 26025-2025</t>
+          <t>A 33033-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45804</v>
+        <v>45517</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12509,7 +12539,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12546,14 +12576,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 33921-2023</t>
+          <t>A 61731-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45134.47034722222</v>
+        <v>45649.34305555555</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12566,7 +12596,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12603,14 +12633,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 50901-2025</t>
+          <t>A 49131-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45946.64501157407</v>
+        <v>45594.68315972222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12623,7 +12653,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12660,14 +12690,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6140-2024</t>
+          <t>A 61409-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45337</v>
+        <v>44909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12680,7 +12710,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>12.8</v>
+        <v>5.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12717,14 +12747,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 50939-2024</t>
+          <t>A 56480-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45602.92913194445</v>
+        <v>45625.47077546296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12737,7 +12767,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12774,14 +12804,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58972-2024</t>
+          <t>A 48496-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45636.60099537037</v>
+        <v>45592.77157407408</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12824,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12831,14 +12861,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 27181-2023</t>
+          <t>A 1385-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45096.52827546297</v>
+        <v>45667.66609953704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,7 +12881,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12888,14 +12918,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 58704-2021</t>
+          <t>A 13334-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44489</v>
+        <v>44645.37586805555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,7 +12938,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12945,14 +12975,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 50884-2025</t>
+          <t>A 20280-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45946</v>
+        <v>45056</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12965,7 +12995,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13002,14 +13032,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 50891-2025</t>
+          <t>A 56725-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45946.63685185185</v>
+        <v>45244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13022,7 +13052,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13059,14 +13089,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 33925-2023</t>
+          <t>A 56739-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45134.48231481481</v>
+        <v>45244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13079,7 +13109,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13116,14 +13146,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 31051-2022</t>
+          <t>A 40553-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44769</v>
+        <v>45896.44429398148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13136,7 +13166,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13173,14 +13203,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 43798-2024</t>
+          <t>A 40538-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45571.59386574074</v>
+        <v>45896.41814814815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13193,7 +13223,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13230,14 +13260,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 48161-2024</t>
+          <t>A 40539-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45589</v>
+        <v>45896.41945601852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13250,7 +13280,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>42</v>
+        <v>4.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13287,14 +13317,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 16747-2023</t>
+          <t>A 40544-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45030</v>
+        <v>45896.43144675926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13307,7 +13337,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13344,14 +13374,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 53296-2025</t>
+          <t>A 40550-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45958.89180555556</v>
+        <v>45896.44113425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13364,7 +13394,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13401,14 +13431,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 2146-2025</t>
+          <t>A 17871-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45672.69664351852</v>
+        <v>45419.44590277778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13421,7 +13451,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13458,14 +13488,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 11439-2022</t>
+          <t>A 50002-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44630.62471064815</v>
+        <v>45215</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13478,7 +13508,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>10.6</v>
+        <v>4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13515,14 +13545,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 73226-2021</t>
+          <t>A 12385-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44550</v>
+        <v>45730.38883101852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13534,8 +13564,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13572,14 +13607,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 53869-2025</t>
+          <t>A 40844-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45961.38677083333</v>
+        <v>45897.53482638889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13591,13 +13626,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13634,14 +13664,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54244-2025</t>
+          <t>A 41795-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45964.63546296296</v>
+        <v>45902.60028935185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13654,7 +13684,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13691,14 +13721,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 54467-2025</t>
+          <t>A 42021-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45965.5700462963</v>
+        <v>45903.59125</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13711,7 +13741,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>13.4</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13748,14 +13778,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 54863-2025</t>
+          <t>A 42566-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45966.77891203704</v>
+        <v>45905.60494212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13768,7 +13798,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13805,14 +13835,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 17871-2024</t>
+          <t>A 369-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45419.44590277778</v>
+        <v>44929</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13855,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13862,14 +13892,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 55439-2025</t>
+          <t>A 519-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45971.48627314815</v>
+        <v>44930.40255787037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13882,7 +13912,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13919,14 +13949,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 47523-2025</t>
+          <t>A 43798-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45930</v>
+        <v>45571.59386574074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13939,7 +13969,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13976,14 +14006,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 55336-2025</t>
+          <t>A 23700-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45971.3446412037</v>
+        <v>45077.62905092593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13996,7 +14026,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14033,14 +14063,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 55331-2025</t>
+          <t>A 5009-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45971.34190972222</v>
+        <v>45691</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14053,7 +14083,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14090,14 +14120,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 15309-2022</t>
+          <t>A 17077-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44659</v>
+        <v>45034</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14110,7 +14140,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.2</v>
+        <v>5.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14147,14 +14177,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 46523-2024</t>
+          <t>A 44589-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45582.6306712963</v>
+        <v>45917.42443287037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14167,7 +14197,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14204,14 +14234,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 56886-2025</t>
+          <t>A 44841-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45975</v>
+        <v>45918.4284375</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14224,7 +14254,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14261,14 +14291,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56259-2025</t>
+          <t>A 44583-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45974</v>
+        <v>45917.40908564815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14281,7 +14311,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14318,14 +14348,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 56261-2025</t>
+          <t>A 44588-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45974</v>
+        <v>45917.4165625</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14338,7 +14368,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14375,14 +14405,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 5009-2025</t>
+          <t>A 44597-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45691</v>
+        <v>45917.4290625</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14395,7 +14425,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14432,14 +14462,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 56893-2025</t>
+          <t>A 44578-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45978.56734953704</v>
+        <v>45917.40295138889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14452,7 +14482,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14489,14 +14519,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 56922-2025</t>
+          <t>A 44584-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45978.59846064815</v>
+        <v>45917.41353009259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14509,7 +14539,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14546,14 +14576,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 65120-2023</t>
+          <t>A 44575-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45287</v>
+        <v>45917.40004629629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14566,7 +14596,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>11.4</v>
+        <v>2.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14603,14 +14633,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 56805-2025</t>
+          <t>A 45537-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45978.44703703704</v>
+        <v>45922.61059027778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14623,7 +14653,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>12.1</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14660,14 +14690,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 12910-2023</t>
+          <t>A 46145-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45001</v>
+        <v>45924.60802083334</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14717,14 +14747,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 23862-2022</t>
+          <t>A 45712-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44722.551875</v>
+        <v>45923.43152777778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14737,7 +14767,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14774,14 +14804,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 146-2026</t>
+          <t>A 45950-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46024.63701388889</v>
+        <v>45924.34196759259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14794,7 +14824,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14831,14 +14861,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 7795-2023</t>
+          <t>A 46986-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44973</v>
+        <v>45929.5359375</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14851,7 +14881,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14888,14 +14918,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 12610-2024</t>
+          <t>A 47342-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45382.87498842592</v>
+        <v>45930.56956018518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14908,7 +14938,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14945,14 +14975,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 6172-2024</t>
+          <t>A 40399-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45337</v>
+        <v>45555.44511574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14965,7 +14995,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15002,14 +15032,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 12853-2023</t>
+          <t>A 47783-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45001</v>
+        <v>45931.76866898148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15022,7 +15052,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15059,14 +15089,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 60095-2025</t>
+          <t>A 48036-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45993.7368287037</v>
+        <v>45932</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15079,7 +15109,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15116,14 +15146,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 59745-2024</t>
+          <t>A 3880-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45639.5343287037</v>
+        <v>44587.45909722222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15136,7 +15166,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15173,14 +15203,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 40223-2021</t>
+          <t>A 27232-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44419</v>
+        <v>45471</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,13 +15222,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15235,14 +15260,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 40226-2021</t>
+          <t>A 3884-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44419</v>
+        <v>44587.46003472222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15254,13 +15279,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15297,14 +15317,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 60328-2025</t>
+          <t>A 49201-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45994.74658564815</v>
+        <v>45938.41451388889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15317,7 +15337,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>8.9</v>
+        <v>5.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15354,14 +15374,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 64606-2023</t>
+          <t>A 22326-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45281.5049537037</v>
+        <v>45786.41207175926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15374,7 +15394,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>7.7</v>
+        <v>3.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15411,14 +15431,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 60325-2025</t>
+          <t>A 23060-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45994.74046296296</v>
+        <v>45790</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15431,7 +15451,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15468,14 +15488,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 2050-2026</t>
+          <t>A 29371-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46035.84706018519</v>
+        <v>44361</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15488,7 +15508,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15525,14 +15545,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 19133-2025</t>
+          <t>A 10525-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45764</v>
+        <v>45721.43710648148</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15545,7 +15565,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15582,14 +15602,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 18937-2024</t>
+          <t>A 50192-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45427</v>
+        <v>45943.63825231481</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15602,7 +15622,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.5</v>
+        <v>15.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15639,14 +15659,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 61120-2025</t>
+          <t>A 50193-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46000.46729166667</v>
+        <v>45943.640625</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15659,7 +15679,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15696,14 +15716,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 12823-2022</t>
+          <t>A 42605-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44642.42333333333</v>
+        <v>45565.72832175926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15716,7 +15736,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15753,14 +15773,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 4195-2026</t>
+          <t>A 50145-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46044.69524305555</v>
+        <v>45943.57131944445</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15773,7 +15793,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15810,14 +15830,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 16551-2024</t>
+          <t>A 50884-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45408</v>
+        <v>45946</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15830,7 +15850,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15867,14 +15887,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 27815-2024</t>
+          <t>A 50901-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45475.59787037037</v>
+        <v>45946.64501157407</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15907,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15924,14 +15944,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 18855-2025</t>
+          <t>A 50891-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45764.42244212963</v>
+        <v>45946.63685185185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15964,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15981,14 +16001,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 17172-2023</t>
+          <t>A 13666-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45034.65365740741</v>
+        <v>45736.8315162037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16021,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16038,14 +16058,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 4910-2026</t>
+          <t>A 13674-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>46045</v>
+        <v>45736.9021875</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16078,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16095,14 +16115,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 62439-2025</t>
+          <t>A 12760-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46007.46944444445</v>
+        <v>45733.57016203704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16152,14 +16172,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 18997-2024</t>
+          <t>A 13196-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45427.62200231481</v>
+        <v>45735.42291666667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16192,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16209,14 +16229,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 505-2023</t>
+          <t>A 14752-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44930.35895833333</v>
+        <v>45742.66047453704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16249,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16266,14 +16286,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 17932-2023</t>
+          <t>A 11883-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45040</v>
+        <v>45728</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16306,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16323,14 +16343,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 28190-2022</t>
+          <t>A 53296-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44746.58916666666</v>
+        <v>45958.89180555556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16363,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16380,14 +16400,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 12385-2025</t>
+          <t>A 24549-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45730.38883101852</v>
+        <v>45798.44802083333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,13 +16419,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16442,14 +16457,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 20536-2023</t>
+          <t>A 24567-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45057</v>
+        <v>45798.46579861111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16462,7 +16477,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16499,14 +16514,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 28385-2022</t>
+          <t>A 24560-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44747.55924768518</v>
+        <v>45798.45908564814</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16519,7 +16534,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16556,14 +16571,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 9732-2023</t>
+          <t>A 54244-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44978</v>
+        <v>45964.63546296296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16576,7 +16591,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16613,14 +16628,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 23441-2021</t>
+          <t>A 24894-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44333</v>
+        <v>45799.51355324074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16633,7 +16648,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16670,14 +16685,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 6356-2026</t>
+          <t>A 24882-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46055.61503472222</v>
+        <v>45799.49961805555</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16690,7 +16705,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16727,14 +16742,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 7640-2024</t>
+          <t>A 53869-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45348.64657407408</v>
+        <v>45961.38677083333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16746,8 +16761,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16784,14 +16804,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 17077-2023</t>
+          <t>A 24892-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45034</v>
+        <v>45799.51231481481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16804,7 +16824,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16841,14 +16861,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 46520-2024</t>
+          <t>A 54467-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45582</v>
+        <v>45965.5700462963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16861,7 +16881,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.3</v>
+        <v>13.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16898,14 +16918,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 6865-2026</t>
+          <t>A 24897-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46057.441875</v>
+        <v>45799.51752314815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16918,7 +16938,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16955,14 +16975,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 18715-2023</t>
+          <t>A 24832-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45043.65006944445</v>
+        <v>45799.4587962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16975,7 +16995,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17012,14 +17032,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 1920-2026</t>
+          <t>A 25575-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46035</v>
+        <v>45803.47547453704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,8 +17051,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17069,14 +17094,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 1925-2026</t>
+          <t>A 54863-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46035</v>
+        <v>45966.77891203704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17089,7 +17114,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17126,14 +17151,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 1933-2026</t>
+          <t>A 55331-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46035</v>
+        <v>45971.34190972222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17146,7 +17171,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17183,14 +17208,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 14798-2024</t>
+          <t>A 55336-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45397.90431712963</v>
+        <v>45971.3446412037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17202,13 +17227,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17241,38 +17261,18 @@
         <v>0</v>
       </c>
       <c r="R283" s="2" t="inlineStr"/>
-      <c r="U283">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="V283">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="W283">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="X283">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y283">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 1937-2026</t>
+          <t>A 55439-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>46035</v>
+        <v>45971.48627314815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17284,13 +17284,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G284" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17327,14 +17322,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 1930-2026</t>
+          <t>A 47523-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>46035</v>
+        <v>45930</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17342,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17384,14 +17379,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 19051-2023</t>
+          <t>A 56261-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45047</v>
+        <v>45974</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17399,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>6.6</v>
+        <v>0.7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17441,14 +17436,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 59692-2023</t>
+          <t>A 56259-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45256</v>
+        <v>45974</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17461,7 +17456,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17498,14 +17493,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 33915-2023</t>
+          <t>A 56922-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45134.43918981482</v>
+        <v>45978.59846064815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17518,7 +17513,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17555,14 +17550,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 49131-2024</t>
+          <t>A 56805-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45594.68315972222</v>
+        <v>45978.44703703704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17575,7 +17570,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.5</v>
+        <v>12.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17612,14 +17607,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 43621-2021</t>
+          <t>A 56886-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44433</v>
+        <v>45975</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17632,7 +17627,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17669,14 +17664,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 33942-2023</t>
+          <t>A 56893-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45134</v>
+        <v>45978.56734953704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17689,7 +17684,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17726,14 +17721,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 49481-2023</t>
+          <t>A 146-2026</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45211</v>
+        <v>46024.63701388889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17746,7 +17741,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17783,14 +17778,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 57699-2023</t>
+          <t>A 60325-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45246</v>
+        <v>45994.74046296296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17803,7 +17798,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17840,14 +17835,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 13334-2022</t>
+          <t>A 60095-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44645.37586805555</v>
+        <v>45993.7368287037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17860,7 +17855,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17897,14 +17892,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 39899-2023</t>
+          <t>A 60328-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45166</v>
+        <v>45994.74658564815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17917,7 +17912,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>15.6</v>
+        <v>8.9</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17954,14 +17949,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 16922-2024</t>
+          <t>A 2050-2026</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45411.65899305556</v>
+        <v>46035.84706018519</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17974,7 +17969,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18011,14 +18006,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 50002-2023</t>
+          <t>A 61120-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45215</v>
+        <v>46000.46729166667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18031,7 +18026,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18068,14 +18063,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 6179-2024</t>
+          <t>A 4195-2026</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45337</v>
+        <v>46044.69524305555</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18088,7 +18083,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18125,14 +18120,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 48163-2024</t>
+          <t>A 62439-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45589</v>
+        <v>46007.46944444445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18145,7 +18140,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>14.4</v>
+        <v>1.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18182,14 +18177,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 56829-2023</t>
+          <t>A 4910-2026</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45244.46680555555</v>
+        <v>46045</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18202,7 +18197,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18239,14 +18234,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 55794-2023</t>
+          <t>A 6356-2026</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45239.54755787037</v>
+        <v>46055.61503472222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18259,7 +18254,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18296,14 +18291,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 23700-2023</t>
+          <t>A 1930-2026</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45077.62905092593</v>
+        <v>46035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18316,7 +18311,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18353,14 +18348,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 6270-2023</t>
+          <t>A 1937-2026</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44965.39467592593</v>
+        <v>46035</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,8 +18367,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G303" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18410,14 +18410,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 1749-2024</t>
+          <t>A 1920-2026</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45307.45815972222</v>
+        <v>46035</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.8</v>
+        <v>5.9</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18467,14 +18467,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 20280-2023</t>
+          <t>A 1925-2026</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45056</v>
+        <v>46035</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18524,14 +18524,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 40939-2024</t>
+          <t>A 1933-2026</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45558.64363425926</v>
+        <v>46035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18581,14 +18581,14 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 56029-2024</t>
+          <t>A 6865-2026</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45624.31143518518</v>
+        <v>46057.441875</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>45238.82357638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44438</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45811.62898148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45373.61430555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45250</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>45040</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2174,14 +2174,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 29346-2022</t>
+          <t>A 54899-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44753.32848379629</v>
+        <v>44886</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 54899-2022</t>
+          <t>A 29346-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44886</v>
+        <v>44753.32848379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44349.40521990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3153,14 +3153,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 20138-2021</t>
+          <t>A 10-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44314.4852662037</v>
+        <v>44563.73993055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 58301-2021</t>
+          <t>A 20138-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44488</v>
+        <v>44314.4852662037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 14708-2021</t>
+          <t>A 58301-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44280</v>
+        <v>44488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 10-2022</t>
+          <t>A 14708-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44563.73993055556</v>
+        <v>44280</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44693.66460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44642.43065972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44642.44318287037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44628.42969907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44753.39418981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3966,14 +3966,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61042-2021</t>
+          <t>A 10977-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44497</v>
+        <v>44628.43050925926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4023,14 +4023,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 10977-2022</t>
+          <t>A 61042-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44628.43050925926</v>
+        <v>44497</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>44684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44693.6590625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44650</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44753</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,14 +4494,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34595-2021</t>
+          <t>A 11979-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44382</v>
+        <v>44635.66027777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4513,13 +4513,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4556,14 +4551,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11979-2022</t>
+          <t>A 34595-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44635.66027777778</v>
+        <v>44382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4575,8 +4570,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,14 +4784,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48494-2024</t>
+          <t>A 20584-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45592.75105324074</v>
+        <v>45057</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4841,14 +4841,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33033-2024</t>
+          <t>A 48494-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45517</v>
+        <v>45592.75105324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20584-2023</t>
+          <t>A 38360-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45057</v>
+        <v>45545.79484953704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4955,14 +4955,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38360-2024</t>
+          <t>A 17749-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45545.79484953704</v>
+        <v>45418.59761574074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>8.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5012,14 +5012,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17749-2024</t>
+          <t>A 17985-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45418.59761574074</v>
+        <v>44683</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>45751.51493055555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,14 +5126,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17985-2022</t>
+          <t>A 33033-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44683</v>
+        <v>45517</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5183,14 +5183,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 369-2023</t>
+          <t>A 43817-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44929</v>
+        <v>45187</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5240,14 +5240,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43817-2023</t>
+          <t>A 15099-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45187</v>
+        <v>45399.66082175926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5297,14 +5297,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15099-2024</t>
+          <t>A 15107-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45399.66082175926</v>
+        <v>45399</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5354,14 +5354,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15107-2024</t>
+          <t>A 369-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45399</v>
+        <v>44929</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5411,14 +5411,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 55618-2023</t>
+          <t>A 22326-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45238.825625</v>
+        <v>45786.41207175926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5475,7 +5475,7 @@
         <v>45345.62907407407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5525,14 +5525,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28263-2023</t>
+          <t>A 55618-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45099</v>
+        <v>45238.825625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5582,14 +5582,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2556-2024</t>
+          <t>A 29371-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45313.60317129629</v>
+        <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5639,14 +5639,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 47630-2022</t>
+          <t>A 10525-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44852</v>
+        <v>45721.43710648148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5696,14 +5696,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34183-2023</t>
+          <t>A 42605-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45138</v>
+        <v>45565.72832175926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5753,14 +5753,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11883-2025</t>
+          <t>A 12760-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45728</v>
+        <v>45733.57016203704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5810,14 +5810,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24560-2025</t>
+          <t>A 23060-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45798.45908564814</v>
+        <v>45790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5867,14 +5867,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 54006-2022</t>
+          <t>A 14752-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44881.40414351852</v>
+        <v>45742.66047453704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5924,14 +5924,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24892-2025</t>
+          <t>A 13196-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45799.51231481481</v>
+        <v>45735.42291666667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5988,7 +5988,7 @@
         <v>45884.54458333334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,14 +6038,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24832-2025</t>
+          <t>A 4195-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45799.4587962963</v>
+        <v>46044.69524305555</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6095,14 +6095,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24882-2025</t>
+          <t>A 13666-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45799.49961805555</v>
+        <v>45736.8315162037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6152,14 +6152,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24897-2025</t>
+          <t>A 13674-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45799.51752314815</v>
+        <v>45736.9021875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6209,14 +6209,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24549-2025</t>
+          <t>A 28263-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45798.44802083333</v>
+        <v>45099</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6266,14 +6266,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 24567-2025</t>
+          <t>A 47630-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45798.46579861111</v>
+        <v>44852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6323,14 +6323,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24894-2025</t>
+          <t>A 34183-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45799.51355324074</v>
+        <v>45138</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>5.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6380,14 +6380,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42698-2024</t>
+          <t>A 2556-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45566</v>
+        <v>45313.60317129629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6437,14 +6437,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25575-2025</t>
+          <t>A 56480-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45803.47547453704</v>
+        <v>45625.47077546296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,13 +6456,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6499,14 +6494,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61409-2022</t>
+          <t>A 11883-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44909</v>
+        <v>45728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6519,7 +6514,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6556,14 +6551,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 22402-2024</t>
+          <t>A 24560-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45446.6730787037</v>
+        <v>45798.45908564814</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6576,7 +6571,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6613,14 +6608,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 32838-2022</t>
+          <t>A 24892-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44784.43820601852</v>
+        <v>45799.51231481481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6633,7 +6628,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6670,14 +6665,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 40721-2022</t>
+          <t>A 24832-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44824.50174768519</v>
+        <v>45799.4587962963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6690,7 +6685,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6727,14 +6722,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 26247-2025</t>
+          <t>A 24882-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45805</v>
+        <v>45799.49961805555</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6747,7 +6742,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6784,14 +6779,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 48034-2024</t>
+          <t>A 24897-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45589.49070601852</v>
+        <v>45799.51752314815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6804,7 +6799,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6841,14 +6836,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43856-2024</t>
+          <t>A 24549-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45572.35760416667</v>
+        <v>45798.44802083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6861,7 +6856,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6898,14 +6893,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 46514-2024</t>
+          <t>A 24567-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45582.62592592592</v>
+        <v>45798.46579861111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6918,7 +6913,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6955,14 +6950,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46521-2024</t>
+          <t>A 24894-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45582.62986111111</v>
+        <v>45799.51355324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6975,7 +6970,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7012,14 +7007,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27031-2025</t>
+          <t>A 54006-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45811.5890625</v>
+        <v>44881.40414351852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7032,7 +7027,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7069,14 +7064,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4736-2024</t>
+          <t>A 25575-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45328</v>
+        <v>45803.47547453704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7090,11 +7085,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7131,14 +7126,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51480-2024</t>
+          <t>A 40844-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45603</v>
+        <v>45897.53482638889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7151,7 +7146,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7188,14 +7183,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 22631-2022</t>
+          <t>A 42698-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44714.44008101852</v>
+        <v>45566</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7208,7 +7203,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7245,14 +7240,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 24940-2023</t>
+          <t>A 40544-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45085.54883101852</v>
+        <v>45896.43144675926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7265,7 +7260,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7302,14 +7297,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56480-2024</t>
+          <t>A 40550-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45625.47077546296</v>
+        <v>45896.44113425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7322,7 +7317,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7359,14 +7354,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11817-2025</t>
+          <t>A 40553-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45728.30768518519</v>
+        <v>45896.44429398148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7379,7 +7374,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7416,14 +7411,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7243-2025</t>
+          <t>A 40538-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45702.5430324074</v>
+        <v>45896.41814814815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7436,7 +7431,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7473,14 +7468,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 10515-2025</t>
+          <t>A 40539-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45721.423125</v>
+        <v>45896.41945601852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7493,7 +7488,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7530,14 +7525,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 10444-2022</t>
+          <t>A 26247-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44623</v>
+        <v>45805</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7550,7 +7545,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7587,14 +7582,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27867-2025</t>
+          <t>A 48034-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45817.42643518518</v>
+        <v>45589.49070601852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7607,7 +7602,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7644,14 +7639,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 28264-2025</t>
+          <t>A 61409-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45818.55997685185</v>
+        <v>44909</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7664,7 +7659,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7701,14 +7696,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28265-2025</t>
+          <t>A 46514-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45818.56096064814</v>
+        <v>45582.62592592592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7721,7 +7716,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7758,14 +7753,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28261-2025</t>
+          <t>A 46521-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45818.55596064815</v>
+        <v>45582.62986111111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7778,7 +7773,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7815,14 +7810,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28263-2025</t>
+          <t>A 27031-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45818.55798611111</v>
+        <v>45811.5890625</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7835,7 +7830,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7872,14 +7867,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 6167-2024</t>
+          <t>A 4736-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45337</v>
+        <v>45328</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7891,8 +7886,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7929,14 +7929,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28960-2025</t>
+          <t>A 51480-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45821.31986111111</v>
+        <v>45603</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7986,14 +7986,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9169-2023</t>
+          <t>A 22402-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44980.41365740741</v>
+        <v>45446.6730787037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8043,14 +8043,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56734-2023</t>
+          <t>A 32838-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45244.35234953704</v>
+        <v>44784.43820601852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8100,14 +8100,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 29840-2025</t>
+          <t>A 40721-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45826.29282407407</v>
+        <v>44824.50174768519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8157,14 +8157,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 30621-2025</t>
+          <t>A 42021-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45831.47098379629</v>
+        <v>45903.59125</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8214,14 +8214,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 24107-2024</t>
+          <t>A 11817-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45456</v>
+        <v>45728.30768518519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8271,14 +8271,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17861-2024</t>
+          <t>A 10515-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45419.43511574074</v>
+        <v>45721.423125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8328,14 +8328,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40844-2025</t>
+          <t>A 43856-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45897.53482638889</v>
+        <v>45572.35760416667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8385,14 +8385,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40544-2025</t>
+          <t>A 41795-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45896.43144675926</v>
+        <v>45902.60028935185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8442,14 +8442,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 40550-2025</t>
+          <t>A 27867-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45896.44113425926</v>
+        <v>45817.42643518518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8499,14 +8499,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 40553-2025</t>
+          <t>A 28264-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45896.44429398148</v>
+        <v>45818.55997685185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8556,14 +8556,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40538-2025</t>
+          <t>A 28265-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45896.41814814815</v>
+        <v>45818.56096064814</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8613,14 +8613,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40539-2025</t>
+          <t>A 28261-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45896.41945601852</v>
+        <v>45818.55596064815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8670,14 +8670,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 1385-2025</t>
+          <t>A 28263-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45667.66609953704</v>
+        <v>45818.55798611111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8727,14 +8727,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 21140-2023</t>
+          <t>A 42566-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45062.36817129629</v>
+        <v>45905.60494212963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8784,14 +8784,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 7605-2022</t>
+          <t>A 4910-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44606</v>
+        <v>46045</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8841,14 +8841,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32666-2025</t>
+          <t>A 22631-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45838</v>
+        <v>44714.44008101852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.4</v>
+        <v>7.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8898,14 +8898,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 42021-2025</t>
+          <t>A 24940-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45903.59125</v>
+        <v>45085.54883101852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8955,14 +8955,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 20793-2023</t>
+          <t>A 7243-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45058.60979166667</v>
+        <v>45702.5430324074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9012,14 +9012,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61566-2024</t>
+          <t>A 28960-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45646.61444444444</v>
+        <v>45821.31986111111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9069,14 +9069,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41795-2025</t>
+          <t>A 10444-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45902.60028935185</v>
+        <v>44623</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9126,14 +9126,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 15067-2025</t>
+          <t>A 62439-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45743.76568287037</v>
+        <v>46007.46944444445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9183,14 +9183,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 42566-2025</t>
+          <t>A 6167-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45905.60494212963</v>
+        <v>45337</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9240,14 +9240,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 7590-2024</t>
+          <t>A 29840-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45348</v>
+        <v>45826.29282407407</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9297,14 +9297,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 15458-2025</t>
+          <t>A 44588-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45747.50989583333</v>
+        <v>45917.4165625</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9354,14 +9354,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36101-2025</t>
+          <t>A 44575-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45866.53873842592</v>
+        <v>45917.40004629629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9411,14 +9411,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 63509-2023</t>
+          <t>A 44578-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45274</v>
+        <v>45917.40295138889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9468,14 +9468,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 32843-2022</t>
+          <t>A 44584-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44784.4495949074</v>
+        <v>45917.41353009259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9525,14 +9525,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 43987-2022</t>
+          <t>A 30621-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44838.66666666666</v>
+        <v>45831.47098379629</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9582,14 +9582,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 26025-2025</t>
+          <t>A 9169-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45804</v>
+        <v>44980.41365740741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9639,14 +9639,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 31051-2022</t>
+          <t>A 44583-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44769</v>
+        <v>45917.40908564815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9696,14 +9696,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 15102-2024</t>
+          <t>A 44589-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45399.66299768518</v>
+        <v>45917.42443287037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9753,14 +9753,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 15108-2024</t>
+          <t>A 44597-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45399.66778935185</v>
+        <v>45917.4290625</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9810,14 +9810,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 13698-2024</t>
+          <t>A 56734-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45390</v>
+        <v>45244.35234953704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9867,14 +9867,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 44588-2025</t>
+          <t>A 44841-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45917.4165625</v>
+        <v>45918.4284375</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9924,14 +9924,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 44575-2025</t>
+          <t>A 45537-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45917.40004629629</v>
+        <v>45922.61059027778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9981,14 +9981,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 44578-2025</t>
+          <t>A 24107-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45917.40295138889</v>
+        <v>45456</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10038,14 +10038,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 44584-2025</t>
+          <t>A 45712-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45917.41353009259</v>
+        <v>45923.43152777778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10095,14 +10095,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 44583-2025</t>
+          <t>A 45950-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45917.40908564815</v>
+        <v>45924.34196759259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10152,14 +10152,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 44589-2025</t>
+          <t>A 17861-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45917.42443287037</v>
+        <v>45419.43511574074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10209,14 +10209,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 44597-2025</t>
+          <t>A 46145-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45917.4290625</v>
+        <v>45924.60802083334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10266,14 +10266,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33921-2023</t>
+          <t>A 46986-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45134.47034722222</v>
+        <v>45929.5359375</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10323,14 +10323,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 44841-2025</t>
+          <t>A 7605-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45918.4284375</v>
+        <v>44606</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10380,14 +10380,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61731-2024</t>
+          <t>A 47342-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45649.34305555555</v>
+        <v>45930.56956018518</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10437,14 +10437,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 6140-2024</t>
+          <t>A 32666-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45337</v>
+        <v>45838</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>12.8</v>
+        <v>0.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10494,14 +10494,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50939-2024</t>
+          <t>A 1385-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45602.92913194445</v>
+        <v>45667.66609953704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10551,14 +10551,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58972-2024</t>
+          <t>A 21140-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45636.60099537037</v>
+        <v>45062.36817129629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10608,14 +10608,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 27181-2023</t>
+          <t>A 3884-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45096.52827546297</v>
+        <v>44587.46003472222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10665,14 +10665,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 45537-2025</t>
+          <t>A 27232-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45922.61059027778</v>
+        <v>45471</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10722,14 +10722,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 58704-2021</t>
+          <t>A 47783-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44489</v>
+        <v>45931.76866898148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10779,14 +10779,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 45712-2025</t>
+          <t>A 3880-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45923.43152777778</v>
+        <v>44587.45909722222</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10836,14 +10836,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 45950-2025</t>
+          <t>A 48036-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45924.34196759259</v>
+        <v>45932</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10893,14 +10893,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 33925-2023</t>
+          <t>A 15067-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45134.48231481481</v>
+        <v>45743.76568287037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10950,14 +10950,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 46145-2025</t>
+          <t>A 15458-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45924.60802083334</v>
+        <v>45747.50989583333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.9</v>
+        <v>4.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11007,14 +11007,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 46986-2025</t>
+          <t>A 36101-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45929.5359375</v>
+        <v>45866.53873842592</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11064,14 +11064,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 47342-2025</t>
+          <t>A 20793-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45930.56956018518</v>
+        <v>45058.60979166667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11121,14 +11121,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 43798-2024</t>
+          <t>A 61566-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45571.59386574074</v>
+        <v>45646.61444444444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11178,14 +11178,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 48161-2024</t>
+          <t>A 49201-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45589</v>
+        <v>45938.41451388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>42</v>
+        <v>5.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11235,14 +11235,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 16747-2023</t>
+          <t>A 50192-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45030</v>
+        <v>45943.63825231481</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.2</v>
+        <v>15.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11292,14 +11292,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 3884-2022</t>
+          <t>A 50193-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44587.46003472222</v>
+        <v>45943.640625</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11349,14 +11349,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 27232-2024</t>
+          <t>A 50145-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45471</v>
+        <v>45943.57131944445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11406,14 +11406,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47783-2025</t>
+          <t>A 26025-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45931.76866898148</v>
+        <v>45804</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11463,14 +11463,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 3880-2022</t>
+          <t>A 7590-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44587.45909722222</v>
+        <v>45348</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11520,14 +11520,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 48036-2025</t>
+          <t>A 6356-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45932</v>
+        <v>46055.61503472222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11577,14 +11577,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 2146-2025</t>
+          <t>A 50901-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45672.69664351852</v>
+        <v>45946.64501157407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11634,14 +11634,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 49201-2025</t>
+          <t>A 63509-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45938.41451388889</v>
+        <v>45274</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11691,14 +11691,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11439-2022</t>
+          <t>A 50884-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44630.62471064815</v>
+        <v>45946</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>10.6</v>
+        <v>4.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11748,14 +11748,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 73226-2021</t>
+          <t>A 50891-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44550</v>
+        <v>45946.63685185185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11805,14 +11805,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 50192-2025</t>
+          <t>A 6865-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45943.63825231481</v>
+        <v>46057.441875</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>15.8</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11862,14 +11862,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 50193-2025</t>
+          <t>A 1920-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45943.640625</v>
+        <v>46035</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11919,14 +11919,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 50145-2025</t>
+          <t>A 1925-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45943.57131944445</v>
+        <v>46035</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11976,14 +11976,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 17871-2024</t>
+          <t>A 1933-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45419.44590277778</v>
+        <v>46035</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12033,14 +12033,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50901-2025</t>
+          <t>A 32843-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45946.64501157407</v>
+        <v>44784.4495949074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12090,14 +12090,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 50884-2025</t>
+          <t>A 43987-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45946</v>
+        <v>44838.66666666666</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12147,14 +12147,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 15309-2022</t>
+          <t>A 31051-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44659</v>
+        <v>44769</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12204,14 +12204,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 50891-2025</t>
+          <t>A 1937-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45946.63685185185</v>
+        <v>46035</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12223,8 +12223,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12261,14 +12266,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46523-2024</t>
+          <t>A 1930-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45582.6306712963</v>
+        <v>46035</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12281,7 +12286,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12318,14 +12323,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 5009-2025</t>
+          <t>A 53296-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45691</v>
+        <v>45958.89180555556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12338,7 +12343,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12375,14 +12380,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 65120-2023</t>
+          <t>A 61731-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45287</v>
+        <v>45649.34305555555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12395,7 +12400,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>11.4</v>
+        <v>2.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12432,14 +12437,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 12910-2023</t>
+          <t>A 53869-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45001</v>
+        <v>45961.38677083333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12451,8 +12456,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>6.9</v>
+        <v>3.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12489,14 +12499,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 23862-2022</t>
+          <t>A 54244-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44722.551875</v>
+        <v>45964.63546296296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12509,7 +12519,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12546,14 +12556,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 7795-2023</t>
+          <t>A 54467-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44973</v>
+        <v>45965.5700462963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12566,7 +12576,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.5</v>
+        <v>13.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12603,14 +12613,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 12610-2024</t>
+          <t>A 54863-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45382.87498842592</v>
+        <v>45966.77891203704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12623,7 +12633,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12660,14 +12670,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6172-2024</t>
+          <t>A 15102-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45337</v>
+        <v>45399.66299768518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12680,7 +12690,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12717,14 +12727,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 53296-2025</t>
+          <t>A 15108-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45958.89180555556</v>
+        <v>45399.66778935185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12737,7 +12747,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12774,14 +12784,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12853-2023</t>
+          <t>A 13698-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45001</v>
+        <v>45390</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,7 +12804,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12831,14 +12841,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 53869-2025</t>
+          <t>A 55439-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45961.38677083333</v>
+        <v>45971.48627314815</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12850,13 +12860,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12893,14 +12898,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 54244-2025</t>
+          <t>A 47523-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45964.63546296296</v>
+        <v>45930</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12913,7 +12918,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12950,14 +12955,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 59745-2024</t>
+          <t>A 55336-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45639.5343287037</v>
+        <v>45971.3446412037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12970,7 +12975,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13007,14 +13012,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 54467-2025</t>
+          <t>A 55331-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45965.5700462963</v>
+        <v>45971.34190972222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13032,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>13.4</v>
+        <v>4.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13064,14 +13069,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 40223-2021</t>
+          <t>A 56886-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44419</v>
+        <v>45975</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13083,13 +13088,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13126,14 +13126,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 40226-2021</t>
+          <t>A 56259-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44419</v>
+        <v>45974</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13145,13 +13145,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13188,14 +13183,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 64606-2023</t>
+          <t>A 33921-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45281.5049537037</v>
+        <v>45134.47034722222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13208,7 +13203,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>7.7</v>
+        <v>2.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13245,14 +13240,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 54863-2025</t>
+          <t>A 56261-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45966.77891203704</v>
+        <v>45974</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13265,7 +13260,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13302,14 +13297,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 55439-2025</t>
+          <t>A 56893-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45971.48627314815</v>
+        <v>45978.56734953704</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13322,7 +13317,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13359,14 +13354,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 47523-2025</t>
+          <t>A 56922-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45930</v>
+        <v>45978.59846064815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13379,7 +13374,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13416,14 +13411,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 55336-2025</t>
+          <t>A 6140-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45971.3446412037</v>
+        <v>45337</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13436,7 +13431,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.1</v>
+        <v>12.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13473,14 +13468,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 55331-2025</t>
+          <t>A 50939-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45971.34190972222</v>
+        <v>45602.92913194445</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,7 +13488,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13530,14 +13525,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 19133-2025</t>
+          <t>A 56805-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45764</v>
+        <v>45978.44703703704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13550,7 +13545,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>12.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13587,14 +13582,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 56886-2025</t>
+          <t>A 58972-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45975</v>
+        <v>45636.60099537037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13607,7 +13602,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13644,14 +13639,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 56259-2025</t>
+          <t>A 27181-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45974</v>
+        <v>45096.52827546297</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13664,7 +13659,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13701,14 +13696,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 56261-2025</t>
+          <t>A 58704-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45974</v>
+        <v>44489</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13721,7 +13716,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13758,14 +13753,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 18937-2024</t>
+          <t>A 33925-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45427</v>
+        <v>45134.48231481481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13778,7 +13773,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13815,14 +13810,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 56893-2025</t>
+          <t>A 43798-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45978.56734953704</v>
+        <v>45571.59386574074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13835,7 +13830,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13872,14 +13867,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56922-2025</t>
+          <t>A 48161-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45978.59846064815</v>
+        <v>45589</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13892,7 +13887,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.3</v>
+        <v>42</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13929,14 +13924,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 12823-2022</t>
+          <t>A 16747-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44642.42333333333</v>
+        <v>45030</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13949,7 +13944,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13986,14 +13981,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 56805-2025</t>
+          <t>A 146-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45978.44703703704</v>
+        <v>46024.63701388889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14006,7 +14001,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>12.1</v>
+        <v>1.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14043,14 +14038,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 16551-2024</t>
+          <t>A 60095-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45408</v>
+        <v>45993.7368287037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14063,7 +14058,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14100,14 +14095,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 27815-2024</t>
+          <t>A 2146-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45475.59787037037</v>
+        <v>45672.69664351852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14157,14 +14152,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 18855-2025</t>
+          <t>A 60328-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45764.42244212963</v>
+        <v>45994.74658564815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14177,7 +14172,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.8</v>
+        <v>8.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14214,14 +14209,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 146-2026</t>
+          <t>A 11439-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46024.63701388889</v>
+        <v>44630.62471064815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14234,7 +14229,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.6</v>
+        <v>10.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14271,14 +14266,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 17172-2023</t>
+          <t>A 73226-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45034.65365740741</v>
+        <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14291,7 +14286,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14328,14 +14323,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 18997-2024</t>
+          <t>A 60325-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45427.62200231481</v>
+        <v>45994.74046296296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14348,7 +14343,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.9</v>
+        <v>11.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14385,14 +14380,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 505-2023</t>
+          <t>A 17871-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44930.35895833333</v>
+        <v>45419.44590277778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14405,7 +14400,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14442,14 +14437,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 17932-2023</t>
+          <t>A 2050-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45040</v>
+        <v>46035.84706018519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14462,7 +14457,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14499,14 +14494,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 60095-2025</t>
+          <t>A 15309-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45993.7368287037</v>
+        <v>44659</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14519,7 +14514,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14556,14 +14551,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 28190-2022</t>
+          <t>A 46523-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44746.58916666666</v>
+        <v>45582.6306712963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14576,7 +14571,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14613,14 +14608,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 12385-2025</t>
+          <t>A 5009-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45730.38883101852</v>
+        <v>45691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14632,13 +14627,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14675,14 +14665,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 20536-2023</t>
+          <t>A 65120-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45057</v>
+        <v>45287</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14695,7 +14685,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.6</v>
+        <v>11.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14732,14 +14722,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 28385-2022</t>
+          <t>A 61120-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44747.55924768518</v>
+        <v>46000.46729166667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14752,7 +14742,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14789,14 +14779,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 9732-2023</t>
+          <t>A 12910-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44978</v>
+        <v>45001</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14809,7 +14799,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.8</v>
+        <v>6.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14846,14 +14836,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 60328-2025</t>
+          <t>A 23862-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45994.74658564815</v>
+        <v>44722.551875</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14866,7 +14856,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>8.9</v>
+        <v>2.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14903,14 +14893,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 23441-2021</t>
+          <t>A 7795-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44333</v>
+        <v>44973</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14923,7 +14913,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14960,14 +14950,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 7640-2024</t>
+          <t>A 12610-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45348.64657407408</v>
+        <v>45382.87498842592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14980,7 +14970,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15017,14 +15007,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 17077-2023</t>
+          <t>A 6172-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45034</v>
+        <v>45337</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15037,7 +15027,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15074,14 +15064,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 60325-2025</t>
+          <t>A 12853-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45994.74046296296</v>
+        <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15094,7 +15084,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15131,14 +15121,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 46520-2024</t>
+          <t>A 59745-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45582</v>
+        <v>45639.5343287037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15151,7 +15141,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15188,14 +15178,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 18715-2023</t>
+          <t>A 40223-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45043.65006944445</v>
+        <v>44419</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15207,8 +15197,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15245,1355 +15240,1360 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
+          <t>A 40226-2021</t>
+        </is>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>44419</v>
+      </c>
+      <c r="C249" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" s="2" t="inlineStr"/>
+    </row>
+    <row r="250" ht="15" customHeight="1">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>A 64606-2023</t>
+        </is>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>45281.5049537037</v>
+      </c>
+      <c r="C250" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" s="2" t="inlineStr"/>
+    </row>
+    <row r="251" ht="15" customHeight="1">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>A 19133-2025</t>
+        </is>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>45764</v>
+      </c>
+      <c r="C251" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" s="2" t="inlineStr"/>
+    </row>
+    <row r="252" ht="15" customHeight="1">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>A 18937-2024</t>
+        </is>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>45427</v>
+      </c>
+      <c r="C252" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" s="2" t="inlineStr"/>
+    </row>
+    <row r="253" ht="15" customHeight="1">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>A 12823-2022</t>
+        </is>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>44642.42333333333</v>
+      </c>
+      <c r="C253" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" s="2" t="inlineStr"/>
+    </row>
+    <row r="254" ht="15" customHeight="1">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>A 16551-2024</t>
+        </is>
+      </c>
+      <c r="B254" s="1" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C254" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" s="2" t="inlineStr"/>
+    </row>
+    <row r="255" ht="15" customHeight="1">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>A 27815-2024</t>
+        </is>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>45475.59787037037</v>
+      </c>
+      <c r="C255" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" s="2" t="inlineStr"/>
+    </row>
+    <row r="256" ht="15" customHeight="1">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>A 18855-2025</t>
+        </is>
+      </c>
+      <c r="B256" s="1" t="n">
+        <v>45764.42244212963</v>
+      </c>
+      <c r="C256" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" s="2" t="inlineStr"/>
+    </row>
+    <row r="257" ht="15" customHeight="1">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>A 17172-2023</t>
+        </is>
+      </c>
+      <c r="B257" s="1" t="n">
+        <v>45034.65365740741</v>
+      </c>
+      <c r="C257" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" s="2" t="inlineStr"/>
+    </row>
+    <row r="258" ht="15" customHeight="1">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>A 18997-2024</t>
+        </is>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>45427.62200231481</v>
+      </c>
+      <c r="C258" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" s="2" t="inlineStr"/>
+    </row>
+    <row r="259" ht="15" customHeight="1">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>A 505-2023</t>
+        </is>
+      </c>
+      <c r="B259" s="1" t="n">
+        <v>44930.35895833333</v>
+      </c>
+      <c r="C259" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" s="2" t="inlineStr"/>
+    </row>
+    <row r="260" ht="15" customHeight="1">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>A 17932-2023</t>
+        </is>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>45040</v>
+      </c>
+      <c r="C260" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" s="2" t="inlineStr"/>
+    </row>
+    <row r="261" ht="15" customHeight="1">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>A 28190-2022</t>
+        </is>
+      </c>
+      <c r="B261" s="1" t="n">
+        <v>44746.58916666666</v>
+      </c>
+      <c r="C261" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" s="2" t="inlineStr"/>
+    </row>
+    <row r="262" ht="15" customHeight="1">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>A 12385-2025</t>
+        </is>
+      </c>
+      <c r="B262" s="1" t="n">
+        <v>45730.38883101852</v>
+      </c>
+      <c r="C262" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>2</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" s="2" t="inlineStr"/>
+    </row>
+    <row r="263" ht="15" customHeight="1">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>A 20536-2023</t>
+        </is>
+      </c>
+      <c r="B263" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C263" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" s="2" t="inlineStr"/>
+    </row>
+    <row r="264" ht="15" customHeight="1">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>A 28385-2022</t>
+        </is>
+      </c>
+      <c r="B264" s="1" t="n">
+        <v>44747.55924768518</v>
+      </c>
+      <c r="C264" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" s="2" t="inlineStr"/>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>A 9732-2023</t>
+        </is>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" s="2" t="inlineStr"/>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>A 23441-2021</t>
+        </is>
+      </c>
+      <c r="B266" s="1" t="n">
+        <v>44333</v>
+      </c>
+      <c r="C266" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" s="2" t="inlineStr"/>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>A 7640-2024</t>
+        </is>
+      </c>
+      <c r="B267" s="1" t="n">
+        <v>45348.64657407408</v>
+      </c>
+      <c r="C267" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>5</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" s="2" t="inlineStr"/>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>A 17077-2023</t>
+        </is>
+      </c>
+      <c r="B268" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="C268" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" s="2" t="inlineStr"/>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>A 46520-2024</t>
+        </is>
+      </c>
+      <c r="B269" s="1" t="n">
+        <v>45582</v>
+      </c>
+      <c r="C269" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" s="2" t="inlineStr"/>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>A 18715-2023</t>
+        </is>
+      </c>
+      <c r="B270" s="1" t="n">
+        <v>45043.65006944445</v>
+      </c>
+      <c r="C270" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" s="2" t="inlineStr"/>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="A271" t="inlineStr">
+        <is>
           <t>A 14798-2024</t>
         </is>
       </c>
-      <c r="B249" s="1" t="n">
+      <c r="B271" s="1" t="n">
         <v>45397.90431712963</v>
       </c>
-      <c r="C249" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
+      <c r="C271" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G249" t="n">
+      <c r="G271" t="n">
         <v>2.8</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="n">
-        <v>0</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0</v>
-      </c>
-      <c r="L249" t="n">
-        <v>0</v>
-      </c>
-      <c r="M249" t="n">
-        <v>0</v>
-      </c>
-      <c r="N249" t="n">
-        <v>0</v>
-      </c>
-      <c r="O249" t="n">
-        <v>0</v>
-      </c>
-      <c r="P249" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q249" t="n">
-        <v>0</v>
-      </c>
-      <c r="R249" s="2" t="inlineStr"/>
-      <c r="U249">
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" s="2" t="inlineStr"/>
+      <c r="U271">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
         <v/>
       </c>
-      <c r="V249">
+      <c r="V271">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
         <v/>
       </c>
-      <c r="W249">
+      <c r="W271">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
         <v/>
       </c>
-      <c r="X249">
+      <c r="X271">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
         <v/>
       </c>
-      <c r="Y249">
+      <c r="Y271">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="250" ht="15" customHeight="1">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>A 2050-2026</t>
-        </is>
-      </c>
-      <c r="B250" s="1" t="n">
-        <v>46035.84706018519</v>
-      </c>
-      <c r="C250" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G250" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="n">
-        <v>0</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0</v>
-      </c>
-      <c r="L250" t="n">
-        <v>0</v>
-      </c>
-      <c r="M250" t="n">
-        <v>0</v>
-      </c>
-      <c r="N250" t="n">
-        <v>0</v>
-      </c>
-      <c r="O250" t="n">
-        <v>0</v>
-      </c>
-      <c r="P250" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q250" t="n">
-        <v>0</v>
-      </c>
-      <c r="R250" s="2" t="inlineStr"/>
-    </row>
-    <row r="251" ht="15" customHeight="1">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>A 61120-2025</t>
-        </is>
-      </c>
-      <c r="B251" s="1" t="n">
-        <v>46000.46729166667</v>
-      </c>
-      <c r="C251" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G251" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="n">
-        <v>0</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0</v>
-      </c>
-      <c r="L251" t="n">
-        <v>0</v>
-      </c>
-      <c r="M251" t="n">
-        <v>0</v>
-      </c>
-      <c r="N251" t="n">
-        <v>0</v>
-      </c>
-      <c r="O251" t="n">
-        <v>0</v>
-      </c>
-      <c r="P251" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q251" t="n">
-        <v>0</v>
-      </c>
-      <c r="R251" s="2" t="inlineStr"/>
-    </row>
-    <row r="252" ht="15" customHeight="1">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>A 4195-2026</t>
-        </is>
-      </c>
-      <c r="B252" s="1" t="n">
-        <v>46044.69524305555</v>
-      </c>
-      <c r="C252" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G252" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="n">
-        <v>0</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0</v>
-      </c>
-      <c r="L252" t="n">
-        <v>0</v>
-      </c>
-      <c r="M252" t="n">
-        <v>0</v>
-      </c>
-      <c r="N252" t="n">
-        <v>0</v>
-      </c>
-      <c r="O252" t="n">
-        <v>0</v>
-      </c>
-      <c r="P252" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q252" t="n">
-        <v>0</v>
-      </c>
-      <c r="R252" s="2" t="inlineStr"/>
-    </row>
-    <row r="253" ht="15" customHeight="1">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>A 19051-2023</t>
-        </is>
-      </c>
-      <c r="B253" s="1" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C253" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G253" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="n">
-        <v>0</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0</v>
-      </c>
-      <c r="L253" t="n">
-        <v>0</v>
-      </c>
-      <c r="M253" t="n">
-        <v>0</v>
-      </c>
-      <c r="N253" t="n">
-        <v>0</v>
-      </c>
-      <c r="O253" t="n">
-        <v>0</v>
-      </c>
-      <c r="P253" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q253" t="n">
-        <v>0</v>
-      </c>
-      <c r="R253" s="2" t="inlineStr"/>
-    </row>
-    <row r="254" ht="15" customHeight="1">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>A 4910-2026</t>
-        </is>
-      </c>
-      <c r="B254" s="1" t="n">
-        <v>46045</v>
-      </c>
-      <c r="C254" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G254" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="n">
-        <v>0</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0</v>
-      </c>
-      <c r="L254" t="n">
-        <v>0</v>
-      </c>
-      <c r="M254" t="n">
-        <v>0</v>
-      </c>
-      <c r="N254" t="n">
-        <v>0</v>
-      </c>
-      <c r="O254" t="n">
-        <v>0</v>
-      </c>
-      <c r="P254" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q254" t="n">
-        <v>0</v>
-      </c>
-      <c r="R254" s="2" t="inlineStr"/>
-    </row>
-    <row r="255" ht="15" customHeight="1">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>A 59692-2023</t>
-        </is>
-      </c>
-      <c r="B255" s="1" t="n">
-        <v>45256</v>
-      </c>
-      <c r="C255" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G255" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="n">
-        <v>0</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0</v>
-      </c>
-      <c r="L255" t="n">
-        <v>0</v>
-      </c>
-      <c r="M255" t="n">
-        <v>0</v>
-      </c>
-      <c r="N255" t="n">
-        <v>0</v>
-      </c>
-      <c r="O255" t="n">
-        <v>0</v>
-      </c>
-      <c r="P255" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q255" t="n">
-        <v>0</v>
-      </c>
-      <c r="R255" s="2" t="inlineStr"/>
-    </row>
-    <row r="256" ht="15" customHeight="1">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>A 62439-2025</t>
-        </is>
-      </c>
-      <c r="B256" s="1" t="n">
-        <v>46007.46944444445</v>
-      </c>
-      <c r="C256" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G256" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="n">
-        <v>0</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0</v>
-      </c>
-      <c r="L256" t="n">
-        <v>0</v>
-      </c>
-      <c r="M256" t="n">
-        <v>0</v>
-      </c>
-      <c r="N256" t="n">
-        <v>0</v>
-      </c>
-      <c r="O256" t="n">
-        <v>0</v>
-      </c>
-      <c r="P256" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q256" t="n">
-        <v>0</v>
-      </c>
-      <c r="R256" s="2" t="inlineStr"/>
-    </row>
-    <row r="257" ht="15" customHeight="1">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>A 33915-2023</t>
-        </is>
-      </c>
-      <c r="B257" s="1" t="n">
-        <v>45134.43918981482</v>
-      </c>
-      <c r="C257" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G257" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="n">
-        <v>0</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0</v>
-      </c>
-      <c r="L257" t="n">
-        <v>0</v>
-      </c>
-      <c r="M257" t="n">
-        <v>0</v>
-      </c>
-      <c r="N257" t="n">
-        <v>0</v>
-      </c>
-      <c r="O257" t="n">
-        <v>0</v>
-      </c>
-      <c r="P257" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q257" t="n">
-        <v>0</v>
-      </c>
-      <c r="R257" s="2" t="inlineStr"/>
-    </row>
-    <row r="258" ht="15" customHeight="1">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>A 49131-2024</t>
-        </is>
-      </c>
-      <c r="B258" s="1" t="n">
-        <v>45594.68315972222</v>
-      </c>
-      <c r="C258" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G258" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="n">
-        <v>0</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0</v>
-      </c>
-      <c r="L258" t="n">
-        <v>0</v>
-      </c>
-      <c r="M258" t="n">
-        <v>0</v>
-      </c>
-      <c r="N258" t="n">
-        <v>0</v>
-      </c>
-      <c r="O258" t="n">
-        <v>0</v>
-      </c>
-      <c r="P258" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q258" t="n">
-        <v>0</v>
-      </c>
-      <c r="R258" s="2" t="inlineStr"/>
-    </row>
-    <row r="259" ht="15" customHeight="1">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>A 43621-2021</t>
-        </is>
-      </c>
-      <c r="B259" s="1" t="n">
-        <v>44433</v>
-      </c>
-      <c r="C259" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G259" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
-        <v>0</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0</v>
-      </c>
-      <c r="L259" t="n">
-        <v>0</v>
-      </c>
-      <c r="M259" t="n">
-        <v>0</v>
-      </c>
-      <c r="N259" t="n">
-        <v>0</v>
-      </c>
-      <c r="O259" t="n">
-        <v>0</v>
-      </c>
-      <c r="P259" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q259" t="n">
-        <v>0</v>
-      </c>
-      <c r="R259" s="2" t="inlineStr"/>
-    </row>
-    <row r="260" ht="15" customHeight="1">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>A 33942-2023</t>
-        </is>
-      </c>
-      <c r="B260" s="1" t="n">
-        <v>45134</v>
-      </c>
-      <c r="C260" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G260" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="n">
-        <v>0</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0</v>
-      </c>
-      <c r="L260" t="n">
-        <v>0</v>
-      </c>
-      <c r="M260" t="n">
-        <v>0</v>
-      </c>
-      <c r="N260" t="n">
-        <v>0</v>
-      </c>
-      <c r="O260" t="n">
-        <v>0</v>
-      </c>
-      <c r="P260" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q260" t="n">
-        <v>0</v>
-      </c>
-      <c r="R260" s="2" t="inlineStr"/>
-    </row>
-    <row r="261" ht="15" customHeight="1">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>A 6356-2026</t>
-        </is>
-      </c>
-      <c r="B261" s="1" t="n">
-        <v>46055.61503472222</v>
-      </c>
-      <c r="C261" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G261" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="n">
-        <v>0</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0</v>
-      </c>
-      <c r="L261" t="n">
-        <v>0</v>
-      </c>
-      <c r="M261" t="n">
-        <v>0</v>
-      </c>
-      <c r="N261" t="n">
-        <v>0</v>
-      </c>
-      <c r="O261" t="n">
-        <v>0</v>
-      </c>
-      <c r="P261" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q261" t="n">
-        <v>0</v>
-      </c>
-      <c r="R261" s="2" t="inlineStr"/>
-    </row>
-    <row r="262" ht="15" customHeight="1">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>A 6865-2026</t>
-        </is>
-      </c>
-      <c r="B262" s="1" t="n">
-        <v>46057.441875</v>
-      </c>
-      <c r="C262" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G262" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
-        <v>0</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0</v>
-      </c>
-      <c r="L262" t="n">
-        <v>0</v>
-      </c>
-      <c r="M262" t="n">
-        <v>0</v>
-      </c>
-      <c r="N262" t="n">
-        <v>0</v>
-      </c>
-      <c r="O262" t="n">
-        <v>0</v>
-      </c>
-      <c r="P262" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q262" t="n">
-        <v>0</v>
-      </c>
-      <c r="R262" s="2" t="inlineStr"/>
-    </row>
-    <row r="263" ht="15" customHeight="1">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>A 1920-2026</t>
-        </is>
-      </c>
-      <c r="B263" s="1" t="n">
-        <v>46035</v>
-      </c>
-      <c r="C263" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G263" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
-        <v>0</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0</v>
-      </c>
-      <c r="L263" t="n">
-        <v>0</v>
-      </c>
-      <c r="M263" t="n">
-        <v>0</v>
-      </c>
-      <c r="N263" t="n">
-        <v>0</v>
-      </c>
-      <c r="O263" t="n">
-        <v>0</v>
-      </c>
-      <c r="P263" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q263" t="n">
-        <v>0</v>
-      </c>
-      <c r="R263" s="2" t="inlineStr"/>
-    </row>
-    <row r="264" ht="15" customHeight="1">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>A 1925-2026</t>
-        </is>
-      </c>
-      <c r="B264" s="1" t="n">
-        <v>46035</v>
-      </c>
-      <c r="C264" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G264" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
-        <v>0</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0</v>
-      </c>
-      <c r="L264" t="n">
-        <v>0</v>
-      </c>
-      <c r="M264" t="n">
-        <v>0</v>
-      </c>
-      <c r="N264" t="n">
-        <v>0</v>
-      </c>
-      <c r="O264" t="n">
-        <v>0</v>
-      </c>
-      <c r="P264" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q264" t="n">
-        <v>0</v>
-      </c>
-      <c r="R264" s="2" t="inlineStr"/>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>A 1933-2026</t>
-        </is>
-      </c>
-      <c r="B265" s="1" t="n">
-        <v>46035</v>
-      </c>
-      <c r="C265" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G265" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>0</v>
-      </c>
-      <c r="K265" t="n">
-        <v>0</v>
-      </c>
-      <c r="L265" t="n">
-        <v>0</v>
-      </c>
-      <c r="M265" t="n">
-        <v>0</v>
-      </c>
-      <c r="N265" t="n">
-        <v>0</v>
-      </c>
-      <c r="O265" t="n">
-        <v>0</v>
-      </c>
-      <c r="P265" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q265" t="n">
-        <v>0</v>
-      </c>
-      <c r="R265" s="2" t="inlineStr"/>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>A 49481-2023</t>
-        </is>
-      </c>
-      <c r="B266" s="1" t="n">
-        <v>45211</v>
-      </c>
-      <c r="C266" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G266" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>0</v>
-      </c>
-      <c r="K266" t="n">
-        <v>0</v>
-      </c>
-      <c r="L266" t="n">
-        <v>0</v>
-      </c>
-      <c r="M266" t="n">
-        <v>0</v>
-      </c>
-      <c r="N266" t="n">
-        <v>0</v>
-      </c>
-      <c r="O266" t="n">
-        <v>0</v>
-      </c>
-      <c r="P266" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q266" t="n">
-        <v>0</v>
-      </c>
-      <c r="R266" s="2" t="inlineStr"/>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>A 1937-2026</t>
-        </is>
-      </c>
-      <c r="B267" s="1" t="n">
-        <v>46035</v>
-      </c>
-      <c r="C267" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G267" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>0</v>
-      </c>
-      <c r="K267" t="n">
-        <v>0</v>
-      </c>
-      <c r="L267" t="n">
-        <v>0</v>
-      </c>
-      <c r="M267" t="n">
-        <v>0</v>
-      </c>
-      <c r="N267" t="n">
-        <v>0</v>
-      </c>
-      <c r="O267" t="n">
-        <v>0</v>
-      </c>
-      <c r="P267" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q267" t="n">
-        <v>0</v>
-      </c>
-      <c r="R267" s="2" t="inlineStr"/>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>A 1930-2026</t>
-        </is>
-      </c>
-      <c r="B268" s="1" t="n">
-        <v>46035</v>
-      </c>
-      <c r="C268" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G268" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>0</v>
-      </c>
-      <c r="K268" t="n">
-        <v>0</v>
-      </c>
-      <c r="L268" t="n">
-        <v>0</v>
-      </c>
-      <c r="M268" t="n">
-        <v>0</v>
-      </c>
-      <c r="N268" t="n">
-        <v>0</v>
-      </c>
-      <c r="O268" t="n">
-        <v>0</v>
-      </c>
-      <c r="P268" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q268" t="n">
-        <v>0</v>
-      </c>
-      <c r="R268" s="2" t="inlineStr"/>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>A 57699-2023</t>
-        </is>
-      </c>
-      <c r="B269" s="1" t="n">
-        <v>45246</v>
-      </c>
-      <c r="C269" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G269" t="n">
-        <v>4</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="n">
-        <v>0</v>
-      </c>
-      <c r="K269" t="n">
-        <v>0</v>
-      </c>
-      <c r="L269" t="n">
-        <v>0</v>
-      </c>
-      <c r="M269" t="n">
-        <v>0</v>
-      </c>
-      <c r="N269" t="n">
-        <v>0</v>
-      </c>
-      <c r="O269" t="n">
-        <v>0</v>
-      </c>
-      <c r="P269" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q269" t="n">
-        <v>0</v>
-      </c>
-      <c r="R269" s="2" t="inlineStr"/>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>A 13334-2022</t>
-        </is>
-      </c>
-      <c r="B270" s="1" t="n">
-        <v>44645.37586805555</v>
-      </c>
-      <c r="C270" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G270" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
-        <v>0</v>
-      </c>
-      <c r="K270" t="n">
-        <v>0</v>
-      </c>
-      <c r="L270" t="n">
-        <v>0</v>
-      </c>
-      <c r="M270" t="n">
-        <v>0</v>
-      </c>
-      <c r="N270" t="n">
-        <v>0</v>
-      </c>
-      <c r="O270" t="n">
-        <v>0</v>
-      </c>
-      <c r="P270" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q270" t="n">
-        <v>0</v>
-      </c>
-      <c r="R270" s="2" t="inlineStr"/>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>A 39899-2023</t>
-        </is>
-      </c>
-      <c r="B271" s="1" t="n">
-        <v>45166</v>
-      </c>
-      <c r="C271" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G271" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="n">
-        <v>0</v>
-      </c>
-      <c r="K271" t="n">
-        <v>0</v>
-      </c>
-      <c r="L271" t="n">
-        <v>0</v>
-      </c>
-      <c r="M271" t="n">
-        <v>0</v>
-      </c>
-      <c r="N271" t="n">
-        <v>0</v>
-      </c>
-      <c r="O271" t="n">
-        <v>0</v>
-      </c>
-      <c r="P271" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q271" t="n">
-        <v>0</v>
-      </c>
-      <c r="R271" s="2" t="inlineStr"/>
-    </row>
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 16922-2024</t>
+          <t>A 19051-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45411.65899305556</v>
+        <v>45047</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16643,14 +16643,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 50002-2023</t>
+          <t>A 59692-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45215</v>
+        <v>45256</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16700,14 +16700,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 6179-2024</t>
+          <t>A 33915-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45337</v>
+        <v>45134.43918981482</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16757,14 +16757,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 48163-2024</t>
+          <t>A 49131-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45589</v>
+        <v>45594.68315972222</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>14.4</v>
+        <v>0.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16814,14 +16814,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 56829-2023</t>
+          <t>A 43621-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45244.46680555555</v>
+        <v>44433</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16871,14 +16871,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 55794-2023</t>
+          <t>A 33942-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45239.54755787037</v>
+        <v>45134</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16928,14 +16928,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 23700-2023</t>
+          <t>A 49481-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45077.62905092593</v>
+        <v>45211</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16985,14 +16985,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 6270-2023</t>
+          <t>A 57699-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44965.39467592593</v>
+        <v>45246</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17042,14 +17042,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 1749-2024</t>
+          <t>A 13334-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45307.45815972222</v>
+        <v>44645.37586805555</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17099,14 +17099,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 20280-2023</t>
+          <t>A 39899-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45056</v>
+        <v>45166</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>15.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17156,14 +17156,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 40939-2024</t>
+          <t>A 16922-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45558.64363425926</v>
+        <v>45411.65899305556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17213,14 +17213,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 56029-2024</t>
+          <t>A 50002-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45624.31143518518</v>
+        <v>45215</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17270,14 +17270,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 519-2023</t>
+          <t>A 6179-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44930.40255787037</v>
+        <v>45337</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17327,14 +17327,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 61825-2021</t>
+          <t>A 48163-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44501.79969907407</v>
+        <v>45589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>14.4</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17384,14 +17384,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 61826-2021</t>
+          <t>A 56829-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44501</v>
+        <v>45244.46680555555</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17441,14 +17441,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 120-2024</t>
+          <t>A 55794-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45294.3707175926</v>
+        <v>45239.54755787037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17498,14 +17498,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 33476-2022</t>
+          <t>A 23700-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44788</v>
+        <v>45077.62905092593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17555,14 +17555,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 46320-2024</t>
+          <t>A 6270-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45581.80997685185</v>
+        <v>44965.39467592593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17612,14 +17612,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 6752-2023</t>
+          <t>A 1749-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44966.87815972222</v>
+        <v>45307.45815972222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17669,14 +17669,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 14722-2023</t>
+          <t>A 20280-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45014</v>
+        <v>45056</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17726,14 +17726,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 56725-2023</t>
+          <t>A 40939-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45244</v>
+        <v>45558.64363425926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17783,14 +17783,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 56739-2023</t>
+          <t>A 56029-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45244</v>
+        <v>45624.31143518518</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17840,14 +17840,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 43799-2024</t>
+          <t>A 519-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45571.62708333333</v>
+        <v>44930.40255787037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17897,14 +17897,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 33912-2023</t>
+          <t>A 61825-2021</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45134.41664351852</v>
+        <v>44501.79969907407</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17954,14 +17954,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 48496-2024</t>
+          <t>A 61826-2021</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45592.77157407408</v>
+        <v>44501</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18011,14 +18011,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 40399-2024</t>
+          <t>A 120-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45555.44511574074</v>
+        <v>45294.3707175926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18068,14 +18068,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 22326-2025</t>
+          <t>A 33476-2022</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45786.41207175926</v>
+        <v>44788</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18125,14 +18125,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 29371-2021</t>
+          <t>A 46320-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44361</v>
+        <v>45581.80997685185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18182,14 +18182,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 10525-2025</t>
+          <t>A 6752-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45721.43710648148</v>
+        <v>44966.87815972222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18239,14 +18239,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 42605-2024</t>
+          <t>A 14722-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45565.72832175926</v>
+        <v>45014</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18296,14 +18296,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 12760-2025</t>
+          <t>A 56725-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45733.57016203704</v>
+        <v>45244</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18353,14 +18353,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 23060-2025</t>
+          <t>A 56739-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45790</v>
+        <v>45244</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18410,14 +18410,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 14752-2025</t>
+          <t>A 43799-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45742.66047453704</v>
+        <v>45571.62708333333</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18467,14 +18467,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 13196-2025</t>
+          <t>A 33912-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45735.42291666667</v>
+        <v>45134.41664351852</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18524,14 +18524,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 13666-2025</t>
+          <t>A 48496-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45736.8315162037</v>
+        <v>45592.77157407408</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18581,14 +18581,14 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 13674-2025</t>
+          <t>A 40399-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45736.9021875</v>
+        <v>45555.44511574074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z307"/>
+  <dimension ref="A1:Z308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>45238.82357638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44438</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45811.62898148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45373.61430555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45250</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>45040</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44886</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44753.32848379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,14 +2687,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 29368-2022</t>
+          <t>A 46424-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44753</v>
+        <v>44442</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2706,13 +2706,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2749,14 +2744,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 46424-2021</t>
+          <t>A 29368-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44442</v>
+        <v>44753</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2768,8 +2763,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44349.40521990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44563.73993055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44314.4852662037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44280</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44693.66460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44642.43065972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44642.44318287037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44628.42969907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44753.39418981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3966,14 +3966,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10977-2022</t>
+          <t>A 61042-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44628.43050925926</v>
+        <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4023,14 +4023,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61042-2021</t>
+          <t>A 10977-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44497</v>
+        <v>44628.43050925926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>44684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44693.6590625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44650</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44753</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4494,14 +4494,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11979-2022</t>
+          <t>A 34595-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44635.66027777778</v>
+        <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4513,8 +4513,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4551,14 +4556,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34595-2021</t>
+          <t>A 11979-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44382</v>
+        <v>44635.66027777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4570,13 +4575,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,14 +4784,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20584-2023</t>
+          <t>A 48494-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45057</v>
+        <v>45592.75105324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4841,14 +4841,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 48494-2024</t>
+          <t>A 33033-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45592.75105324074</v>
+        <v>45517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38360-2024</t>
+          <t>A 20584-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45545.79484953704</v>
+        <v>45057</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4955,14 +4955,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17749-2024</t>
+          <t>A 38360-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45418.59761574074</v>
+        <v>45545.79484953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.4</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5012,14 +5012,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17985-2022</t>
+          <t>A 17749-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44683</v>
+        <v>45418.59761574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5076,7 +5076,7 @@
         <v>45751.51493055555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5126,14 +5126,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33033-2024</t>
+          <t>A 17985-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45517</v>
+        <v>44683</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5183,14 +5183,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43817-2023</t>
+          <t>A 55331-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45187</v>
+        <v>45971.34190972222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5240,14 +5240,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15099-2024</t>
+          <t>A 22326-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45399.66082175926</v>
+        <v>45786.41207175926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5297,14 +5297,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15107-2024</t>
+          <t>A 38614-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45399</v>
+        <v>45884.54458333334</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5354,14 +5354,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 369-2023</t>
+          <t>A 43817-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44929</v>
+        <v>45187</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5411,14 +5411,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 22326-2025</t>
+          <t>A 15099-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45786.41207175926</v>
+        <v>45399.66082175926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5468,14 +5468,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7420-2024</t>
+          <t>A 15107-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45345.62907407407</v>
+        <v>45399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5525,14 +5525,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55618-2023</t>
+          <t>A 369-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45238.825625</v>
+        <v>44929</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>45721.43710648148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>45565.72832175926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45733.57016203704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45790</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45742.66047453704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>45735.42291666667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,14 +5981,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38614-2025</t>
+          <t>A 13666-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45884.54458333334</v>
+        <v>45736.8315162037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6038,14 +6038,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4195-2026</t>
+          <t>A 13674-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46044.69524305555</v>
+        <v>45736.9021875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6095,14 +6095,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 13666-2025</t>
+          <t>A 7420-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45736.8315162037</v>
+        <v>45345.62907407407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6152,14 +6152,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13674-2025</t>
+          <t>A 56480-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45736.9021875</v>
+        <v>45625.47077546296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6209,14 +6209,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28263-2023</t>
+          <t>A 55618-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45099</v>
+        <v>45238.825625</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6266,14 +6266,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47630-2022</t>
+          <t>A 56886-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44852</v>
+        <v>45975</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6323,14 +6323,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 34183-2023</t>
+          <t>A 28263-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45138</v>
+        <v>45099</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6380,14 +6380,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 2556-2024</t>
+          <t>A 11883-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45313.60317129629</v>
+        <v>45728</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6437,14 +6437,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 56480-2024</t>
+          <t>A 56259-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45625.47077546296</v>
+        <v>45974</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6494,14 +6494,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 11883-2025</t>
+          <t>A 56261-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45728</v>
+        <v>45974</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6551,14 +6551,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 24560-2025</t>
+          <t>A 47630-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45798.45908564814</v>
+        <v>44852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6608,14 +6608,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24892-2025</t>
+          <t>A 34183-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45799.51231481481</v>
+        <v>45138</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6665,14 +6665,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24832-2025</t>
+          <t>A 24560-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45799.4587962963</v>
+        <v>45798.45908564814</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6722,14 +6722,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 24882-2025</t>
+          <t>A 2556-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45799.49961805555</v>
+        <v>45313.60317129629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6779,14 +6779,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24897-2025</t>
+          <t>A 24892-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45799.51752314815</v>
+        <v>45799.51231481481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6836,14 +6836,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 24549-2025</t>
+          <t>A 56893-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45798.44802083333</v>
+        <v>45978.56734953704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6893,14 +6893,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 24567-2025</t>
+          <t>A 56922-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45798.46579861111</v>
+        <v>45978.59846064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6950,14 +6950,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24894-2025</t>
+          <t>A 24832-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45799.51355324074</v>
+        <v>45799.4587962963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7007,14 +7007,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 54006-2022</t>
+          <t>A 40844-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44881.40414351852</v>
+        <v>45897.53482638889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7064,14 +7064,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25575-2025</t>
+          <t>A 24882-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45803.47547453704</v>
+        <v>45799.49961805555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7083,13 +7083,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7126,14 +7121,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40844-2025</t>
+          <t>A 24897-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45897.53482638889</v>
+        <v>45799.51752314815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7146,7 +7141,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7183,14 +7178,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42698-2024</t>
+          <t>A 24549-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45566</v>
+        <v>45798.44802083333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7203,7 +7198,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7240,14 +7235,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40544-2025</t>
+          <t>A 24567-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45896.43144675926</v>
+        <v>45798.46579861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7260,7 +7255,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7297,14 +7292,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40550-2025</t>
+          <t>A 24894-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45896.44113425926</v>
+        <v>45799.51355324074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7317,7 +7312,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7354,14 +7349,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40553-2025</t>
+          <t>A 40544-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45896.44429398148</v>
+        <v>45896.43144675926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7374,7 +7369,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7411,14 +7406,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40538-2025</t>
+          <t>A 40550-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45896.41814814815</v>
+        <v>45896.44113425926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7431,7 +7426,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7468,14 +7463,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40539-2025</t>
+          <t>A 40553-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45896.41945601852</v>
+        <v>45896.44429398148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7488,7 +7483,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7525,14 +7520,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26247-2025</t>
+          <t>A 40538-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45805</v>
+        <v>45896.41814814815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7545,7 +7540,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7582,14 +7577,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48034-2024</t>
+          <t>A 40539-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45589.49070601852</v>
+        <v>45896.41945601852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7602,7 +7597,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7639,14 +7634,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 61409-2022</t>
+          <t>A 56805-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44909</v>
+        <v>45978.44703703704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7659,7 +7654,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.5</v>
+        <v>12.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7696,14 +7691,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46514-2024</t>
+          <t>A 25575-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45582.62592592592</v>
+        <v>45803.47547453704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7715,8 +7710,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7753,14 +7753,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46521-2024</t>
+          <t>A 54006-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45582.62986111111</v>
+        <v>44881.40414351852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7810,14 +7810,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27031-2025</t>
+          <t>A 26247-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45811.5890625</v>
+        <v>45805</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7867,14 +7867,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 4736-2024</t>
+          <t>A 42021-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45328</v>
+        <v>45903.59125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7886,13 +7886,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7929,14 +7924,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 51480-2024</t>
+          <t>A 41795-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45603</v>
+        <v>45902.60028935185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7949,7 +7944,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7986,14 +7981,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 22402-2024</t>
+          <t>A 48034-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45446.6730787037</v>
+        <v>45589.49070601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8006,7 +8001,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8043,14 +8038,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 32838-2022</t>
+          <t>A 42698-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44784.43820601852</v>
+        <v>45566</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8063,7 +8058,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8100,14 +8095,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 40721-2022</t>
+          <t>A 46514-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44824.50174768519</v>
+        <v>45582.62592592592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8120,7 +8115,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8157,14 +8152,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42021-2025</t>
+          <t>A 46521-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45903.59125</v>
+        <v>45582.62986111111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8177,7 +8172,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8214,14 +8209,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 11817-2025</t>
+          <t>A 42566-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45728.30768518519</v>
+        <v>45905.60494212963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8234,7 +8229,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8271,14 +8266,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 10515-2025</t>
+          <t>A 27031-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45721.423125</v>
+        <v>45811.5890625</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8291,7 +8286,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8328,14 +8323,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43856-2024</t>
+          <t>A 4736-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45572.35760416667</v>
+        <v>45328</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8347,8 +8342,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8385,14 +8385,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 41795-2025</t>
+          <t>A 51480-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45902.60028935185</v>
+        <v>45603</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8442,14 +8442,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 27867-2025</t>
+          <t>A 61409-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45817.42643518518</v>
+        <v>44909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8499,14 +8499,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 28264-2025</t>
+          <t>A 22402-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45818.55997685185</v>
+        <v>45446.6730787037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8556,14 +8556,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28265-2025</t>
+          <t>A 32838-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45818.56096064814</v>
+        <v>44784.43820601852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8613,14 +8613,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 28261-2025</t>
+          <t>A 40721-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45818.55596064815</v>
+        <v>44824.50174768519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8670,14 +8670,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 28263-2025</t>
+          <t>A 11817-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45818.55798611111</v>
+        <v>45728.30768518519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8727,14 +8727,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 42566-2025</t>
+          <t>A 10515-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45905.60494212963</v>
+        <v>45721.423125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8784,14 +8784,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4910-2026</t>
+          <t>A 27867-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46045</v>
+        <v>45817.42643518518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8841,14 +8841,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 22631-2022</t>
+          <t>A 43856-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44714.44008101852</v>
+        <v>45572.35760416667</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8898,14 +8898,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 24940-2023</t>
+          <t>A 28264-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45085.54883101852</v>
+        <v>45818.55997685185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8955,14 +8955,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 7243-2025</t>
+          <t>A 28265-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45702.5430324074</v>
+        <v>45818.56096064814</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9012,14 +9012,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 28960-2025</t>
+          <t>A 28261-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45821.31986111111</v>
+        <v>45818.55596064815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9069,14 +9069,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 10444-2022</t>
+          <t>A 28263-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44623</v>
+        <v>45818.55798611111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9126,14 +9126,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 62439-2025</t>
+          <t>A 44588-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46007.46944444445</v>
+        <v>45917.4165625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9183,14 +9183,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6167-2024</t>
+          <t>A 44575-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45337</v>
+        <v>45917.40004629629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9240,14 +9240,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 29840-2025</t>
+          <t>A 44578-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45826.29282407407</v>
+        <v>45917.40295138889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9297,14 +9297,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 44588-2025</t>
+          <t>A 44584-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45917.4165625</v>
+        <v>45917.41353009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9354,14 +9354,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 44575-2025</t>
+          <t>A 44583-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45917.40004629629</v>
+        <v>45917.40908564815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9411,14 +9411,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 44578-2025</t>
+          <t>A 44589-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45917.40295138889</v>
+        <v>45917.42443287037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9468,14 +9468,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 44584-2025</t>
+          <t>A 44597-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45917.41353009259</v>
+        <v>45917.4290625</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9525,14 +9525,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 30621-2025</t>
+          <t>A 22631-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45831.47098379629</v>
+        <v>44714.44008101852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9582,14 +9582,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 9169-2023</t>
+          <t>A 28960-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44980.41365740741</v>
+        <v>45821.31986111111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9639,14 +9639,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 44583-2025</t>
+          <t>A 24940-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45917.40908564815</v>
+        <v>45085.54883101852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9696,14 +9696,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 44589-2025</t>
+          <t>A 44841-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45917.42443287037</v>
+        <v>45918.4284375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9753,14 +9753,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 44597-2025</t>
+          <t>A 7243-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45917.4290625</v>
+        <v>45702.5430324074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9810,14 +9810,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56734-2023</t>
+          <t>A 10444-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45244.35234953704</v>
+        <v>44623</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9867,14 +9867,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 44841-2025</t>
+          <t>A 45537-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45918.4284375</v>
+        <v>45922.61059027778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9924,14 +9924,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45537-2025</t>
+          <t>A 45712-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45922.61059027778</v>
+        <v>45923.43152777778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9981,14 +9981,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 24107-2024</t>
+          <t>A 45950-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45456</v>
+        <v>45924.34196759259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10038,14 +10038,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 45712-2025</t>
+          <t>A 6167-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45923.43152777778</v>
+        <v>45337</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10095,14 +10095,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 45950-2025</t>
+          <t>A 29840-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45924.34196759259</v>
+        <v>45826.29282407407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10152,14 +10152,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 17861-2024</t>
+          <t>A 46145-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45419.43511574074</v>
+        <v>45924.60802083334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10209,14 +10209,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 46145-2025</t>
+          <t>A 30621-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45924.60802083334</v>
+        <v>45831.47098379629</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10266,14 +10266,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46986-2025</t>
+          <t>A 9169-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45929.5359375</v>
+        <v>44980.41365740741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10323,14 +10323,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 7605-2022</t>
+          <t>A 46986-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44606</v>
+        <v>45929.5359375</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>7.1</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10380,14 +10380,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 47342-2025</t>
+          <t>A 56734-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45930.56956018518</v>
+        <v>45244.35234953704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10437,14 +10437,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32666-2025</t>
+          <t>A 47342-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45838</v>
+        <v>45930.56956018518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10494,14 +10494,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 1385-2025</t>
+          <t>A 3884-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45667.66609953704</v>
+        <v>44587.46003472222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10551,14 +10551,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 21140-2023</t>
+          <t>A 24107-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45062.36817129629</v>
+        <v>45456</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10608,14 +10608,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3884-2022</t>
+          <t>A 27232-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44587.46003472222</v>
+        <v>45471</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10665,14 +10665,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 27232-2024</t>
+          <t>A 47783-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45471</v>
+        <v>45931.76866898148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10722,14 +10722,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 47783-2025</t>
+          <t>A 3880-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45931.76866898148</v>
+        <v>44587.45909722222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10779,14 +10779,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 3880-2022</t>
+          <t>A 48036-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44587.45909722222</v>
+        <v>45932</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10836,14 +10836,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48036-2025</t>
+          <t>A 17861-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45932</v>
+        <v>45419.43511574074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10893,14 +10893,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 15067-2025</t>
+          <t>A 1385-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45743.76568287037</v>
+        <v>45667.66609953704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10950,14 +10950,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 15458-2025</t>
+          <t>A 49201-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45747.50989583333</v>
+        <v>45938.41451388889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11007,14 +11007,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 36101-2025</t>
+          <t>A 7605-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45866.53873842592</v>
+        <v>44606</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.4</v>
+        <v>7.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11064,14 +11064,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 20793-2023</t>
+          <t>A 21140-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45058.60979166667</v>
+        <v>45062.36817129629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11121,14 +11121,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 61566-2024</t>
+          <t>A 32666-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45646.61444444444</v>
+        <v>45838</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11178,14 +11178,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 49201-2025</t>
+          <t>A 50192-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45938.41451388889</v>
+        <v>45943.63825231481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.3</v>
+        <v>15.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11235,14 +11235,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 50192-2025</t>
+          <t>A 50193-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45943.63825231481</v>
+        <v>45943.640625</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>15.8</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11292,14 +11292,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 50193-2025</t>
+          <t>A 50145-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45943.640625</v>
+        <v>45943.57131944445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11349,14 +11349,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 50145-2025</t>
+          <t>A 50901-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45943.57131944445</v>
+        <v>45946.64501157407</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11406,14 +11406,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 26025-2025</t>
+          <t>A 50884-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45804</v>
+        <v>45946</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11463,14 +11463,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 7590-2024</t>
+          <t>A 50891-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45348</v>
+        <v>45946.63685185185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11520,14 +11520,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6356-2026</t>
+          <t>A 20793-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46055.61503472222</v>
+        <v>45058.60979166667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11577,14 +11577,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 50901-2025</t>
+          <t>A 61566-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45946.64501157407</v>
+        <v>45646.61444444444</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11634,14 +11634,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 63509-2023</t>
+          <t>A 15067-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45274</v>
+        <v>45743.76568287037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11691,14 +11691,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 50884-2025</t>
+          <t>A 15458-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45946</v>
+        <v>45747.50989583333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11748,14 +11748,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 50891-2025</t>
+          <t>A 7590-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45946.63685185185</v>
+        <v>45348</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11805,14 +11805,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 6865-2026</t>
+          <t>A 36101-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46057.441875</v>
+        <v>45866.53873842592</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11862,14 +11862,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 1920-2026</t>
+          <t>A 63509-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46035</v>
+        <v>45274</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11919,14 +11919,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1925-2026</t>
+          <t>A 32843-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46035</v>
+        <v>44784.4495949074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11976,14 +11976,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 1933-2026</t>
+          <t>A 43987-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46035</v>
+        <v>44838.66666666666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12033,14 +12033,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 32843-2022</t>
+          <t>A 26025-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44784.4495949074</v>
+        <v>45804</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12090,14 +12090,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 43987-2022</t>
+          <t>A 53296-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44838.66666666666</v>
+        <v>45958.89180555556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12147,14 +12147,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 31051-2022</t>
+          <t>A 53869-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44769</v>
+        <v>45961.38677083333</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12166,8 +12166,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12204,14 +12209,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 1937-2026</t>
+          <t>A 54244-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46035</v>
+        <v>45964.63546296296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12223,13 +12228,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12266,14 +12266,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 1930-2026</t>
+          <t>A 54467-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46035</v>
+        <v>45965.5700462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>13.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12323,14 +12323,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 53296-2025</t>
+          <t>A 54863-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45958.89180555556</v>
+        <v>45966.77891203704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12380,14 +12380,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 61731-2024</t>
+          <t>A 55439-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45649.34305555555</v>
+        <v>45971.48627314815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12437,14 +12437,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53869-2025</t>
+          <t>A 31051-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45961.38677083333</v>
+        <v>44769</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12456,13 +12456,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12499,14 +12494,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 54244-2025</t>
+          <t>A 47523-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45964.63546296296</v>
+        <v>45930</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12519,7 +12514,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12556,14 +12551,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 54467-2025</t>
+          <t>A 55336-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45965.5700462963</v>
+        <v>45971.3446412037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12576,7 +12571,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>13.4</v>
+        <v>4.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12613,14 +12608,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 54863-2025</t>
+          <t>A 15102-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45966.77891203704</v>
+        <v>45399.66299768518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12633,7 +12628,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12670,14 +12665,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 15102-2024</t>
+          <t>A 15108-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45399.66299768518</v>
+        <v>45399.66778935185</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12690,7 +12685,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12727,14 +12722,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 15108-2024</t>
+          <t>A 13698-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45399.66778935185</v>
+        <v>45390</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12747,7 +12742,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12784,14 +12779,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13698-2024</t>
+          <t>A 60095-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45390</v>
+        <v>45993.7368287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12804,7 +12799,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12841,14 +12836,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 55439-2025</t>
+          <t>A 60328-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45971.48627314815</v>
+        <v>45994.74658564815</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12861,7 +12856,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>8.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12898,14 +12893,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 47523-2025</t>
+          <t>A 33921-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45930</v>
+        <v>45134.47034722222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12918,7 +12913,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12955,14 +12950,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 55336-2025</t>
+          <t>A 6140-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45971.3446412037</v>
+        <v>45337</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12975,7 +12970,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.1</v>
+        <v>12.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13012,14 +13007,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 55331-2025</t>
+          <t>A 50939-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45971.34190972222</v>
+        <v>45602.92913194445</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13032,7 +13027,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13069,14 +13064,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 56886-2025</t>
+          <t>A 58972-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45975</v>
+        <v>45636.60099537037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13089,7 +13084,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13126,14 +13121,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56259-2025</t>
+          <t>A 27181-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45974</v>
+        <v>45096.52827546297</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13146,7 +13141,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13183,14 +13178,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 33921-2023</t>
+          <t>A 58704-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45134.47034722222</v>
+        <v>44489</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13203,7 +13198,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13240,14 +13235,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56261-2025</t>
+          <t>A 61731-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45974</v>
+        <v>45649.34305555555</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13260,7 +13255,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13297,14 +13292,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56893-2025</t>
+          <t>A 60325-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45978.56734953704</v>
+        <v>45994.74046296296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13317,7 +13312,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.8</v>
+        <v>11.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13354,14 +13349,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 56922-2025</t>
+          <t>A 33925-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45978.59846064815</v>
+        <v>45134.48231481481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13374,7 +13369,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13411,14 +13406,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6140-2024</t>
+          <t>A 2050-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45337</v>
+        <v>46035.84706018519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13431,7 +13426,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>12.8</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13468,14 +13463,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 50939-2024</t>
+          <t>A 43798-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45602.92913194445</v>
+        <v>45571.59386574074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13488,7 +13483,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13525,14 +13520,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 56805-2025</t>
+          <t>A 48161-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45978.44703703704</v>
+        <v>45589</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13545,7 +13540,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>12.1</v>
+        <v>42</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13582,14 +13577,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 58972-2024</t>
+          <t>A 16747-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45636.60099537037</v>
+        <v>45030</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13602,7 +13597,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13639,14 +13634,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 27181-2023</t>
+          <t>A 61120-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45096.52827546297</v>
+        <v>46000.46729166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13659,7 +13654,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13696,14 +13691,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 58704-2021</t>
+          <t>A 4195-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44489</v>
+        <v>46044.69524305555</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13716,7 +13711,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13753,14 +13748,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 33925-2023</t>
+          <t>A 2146-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45134.48231481481</v>
+        <v>45672.69664351852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13773,7 +13768,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13810,14 +13805,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 43798-2024</t>
+          <t>A 4910-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45571.59386574074</v>
+        <v>46045</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13830,7 +13825,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13867,14 +13862,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 48161-2024</t>
+          <t>A 11439-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45589</v>
+        <v>44630.62471064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13887,7 +13882,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>42</v>
+        <v>10.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13924,14 +13919,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 16747-2023</t>
+          <t>A 73226-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45030</v>
+        <v>44550</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13944,7 +13939,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13981,14 +13976,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 146-2026</t>
+          <t>A 62439-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46024.63701388889</v>
+        <v>46007.46944444445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14001,7 +13996,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14038,14 +14033,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 60095-2025</t>
+          <t>A 17871-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45993.7368287037</v>
+        <v>45419.44590277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14058,7 +14053,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14095,14 +14090,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 2146-2025</t>
+          <t>A 15309-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45672.69664351852</v>
+        <v>44659</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14115,7 +14110,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14152,14 +14147,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 60328-2025</t>
+          <t>A 46523-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45994.74658564815</v>
+        <v>45582.6306712963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14172,7 +14167,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>8.9</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14209,14 +14204,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 11439-2022</t>
+          <t>A 5009-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44630.62471064815</v>
+        <v>45691</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14229,7 +14224,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>10.6</v>
+        <v>1.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14266,14 +14261,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 73226-2021</t>
+          <t>A 65120-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44550</v>
+        <v>45287</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14286,7 +14281,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.1</v>
+        <v>11.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14323,14 +14318,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 60325-2025</t>
+          <t>A 6356-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45994.74046296296</v>
+        <v>46055.61503472222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14343,7 +14338,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>11.5</v>
+        <v>0.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14380,14 +14375,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 17871-2024</t>
+          <t>A 12910-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45419.44590277778</v>
+        <v>45001</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14400,7 +14395,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>6.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14437,14 +14432,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 2050-2026</t>
+          <t>A 23862-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46035.84706018519</v>
+        <v>44722.551875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14457,7 +14452,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14494,14 +14489,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 15309-2022</t>
+          <t>A 6865-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44659</v>
+        <v>46057.441875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14514,7 +14509,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14551,14 +14546,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 46523-2024</t>
+          <t>A 1920-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45582.6306712963</v>
+        <v>46035</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14571,7 +14566,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14608,14 +14603,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 5009-2025</t>
+          <t>A 1925-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45691</v>
+        <v>46035</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14628,7 +14623,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14665,14 +14660,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 65120-2023</t>
+          <t>A 1933-2026</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45287</v>
+        <v>46035</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14685,7 +14680,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>11.4</v>
+        <v>2.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14722,14 +14717,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 61120-2025</t>
+          <t>A 1937-2026</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46000.46729166667</v>
+        <v>46035</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14741,8 +14736,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14779,14 +14779,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 12910-2023</t>
+          <t>A 1930-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45001</v>
+        <v>46035</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>6.9</v>
+        <v>2.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14836,14 +14836,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 23862-2022</t>
+          <t>A 7795-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44722.551875</v>
+        <v>44973</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14893,14 +14893,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 7795-2023</t>
+          <t>A 12610-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44973</v>
+        <v>45382.87498842592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14950,14 +14950,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 12610-2024</t>
+          <t>A 6172-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45382.87498842592</v>
+        <v>45337</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15007,14 +15007,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 6172-2024</t>
+          <t>A 12853-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45337</v>
+        <v>45001</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15064,14 +15064,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 12853-2023</t>
+          <t>A 59745-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45001</v>
+        <v>45639.5343287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15121,14 +15121,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 59745-2024</t>
+          <t>A 40223-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45639.5343287037</v>
+        <v>44419</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15140,8 +15140,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15178,14 +15183,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 40223-2021</t>
+          <t>A 40226-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
         <v>44419</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15203,7 +15208,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15240,14 +15245,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 40226-2021</t>
+          <t>A 64606-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44419</v>
+        <v>45281.5049537037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15259,13 +15264,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15302,14 +15302,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 64606-2023</t>
+          <t>A 146-2026</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45281.5049537037</v>
+        <v>46024.63701388889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15366,7 +15366,7 @@
         <v>45764</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45427</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15473,14 +15473,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 12823-2022</t>
+          <t>A 9289-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44642.42333333333</v>
+        <v>46070.5877662037</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15492,8 +15492,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15530,14 +15535,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 16551-2024</t>
+          <t>A 12823-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45408</v>
+        <v>44642.42333333333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15550,7 +15555,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15587,14 +15592,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 27815-2024</t>
+          <t>A 16551-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45475.59787037037</v>
+        <v>45408</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15607,7 +15612,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15644,14 +15649,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 18855-2025</t>
+          <t>A 27815-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45764.42244212963</v>
+        <v>45475.59787037037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15664,7 +15669,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15701,14 +15706,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 17172-2023</t>
+          <t>A 18855-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45034.65365740741</v>
+        <v>45764.42244212963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15721,7 +15726,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15758,14 +15763,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 18997-2024</t>
+          <t>A 17172-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45427.62200231481</v>
+        <v>45034.65365740741</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15778,7 +15783,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15815,14 +15820,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 505-2023</t>
+          <t>A 18997-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44930.35895833333</v>
+        <v>45427.62200231481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15835,7 +15840,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15872,14 +15877,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 17932-2023</t>
+          <t>A 505-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45040</v>
+        <v>44930.35895833333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15892,7 +15897,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15929,14 +15934,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 28190-2022</t>
+          <t>A 17932-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44746.58916666666</v>
+        <v>45040</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15949,7 +15954,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15986,14 +15991,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 12385-2025</t>
+          <t>A 28190-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45730.38883101852</v>
+        <v>44746.58916666666</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16005,13 +16010,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16048,14 +16048,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 20536-2023</t>
+          <t>A 12385-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45057</v>
+        <v>45730.38883101852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,8 +16067,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16105,14 +16110,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 28385-2022</t>
+          <t>A 20536-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44747.55924768518</v>
+        <v>45057</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16125,7 +16130,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16162,14 +16167,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 9732-2023</t>
+          <t>A 28385-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44978</v>
+        <v>44747.55924768518</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16182,7 +16187,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16219,14 +16224,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 23441-2021</t>
+          <t>A 9732-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44333</v>
+        <v>44978</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16239,7 +16244,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16276,14 +16281,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 7640-2024</t>
+          <t>A 23441-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45348.64657407408</v>
+        <v>44333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16296,7 +16301,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16333,14 +16338,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 17077-2023</t>
+          <t>A 7640-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45034</v>
+        <v>45348.64657407408</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16353,7 +16358,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16390,14 +16395,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 46520-2024</t>
+          <t>A 17077-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45582</v>
+        <v>45034</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16410,7 +16415,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16447,14 +16452,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 18715-2023</t>
+          <t>A 46520-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45043.65006944445</v>
+        <v>45582</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16467,7 +16472,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16504,153 +16509,153 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
+          <t>A 18715-2023</t>
+        </is>
+      </c>
+      <c r="B271" s="1" t="n">
+        <v>45043.65006944445</v>
+      </c>
+      <c r="C271" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" s="2" t="inlineStr"/>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="A272" t="inlineStr">
+        <is>
           <t>A 14798-2024</t>
         </is>
       </c>
-      <c r="B271" s="1" t="n">
+      <c r="B272" s="1" t="n">
         <v>45397.90431712963</v>
       </c>
-      <c r="C271" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
+      <c r="C272" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G271" t="n">
+      <c r="G272" t="n">
         <v>2.8</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="n">
-        <v>0</v>
-      </c>
-      <c r="K271" t="n">
-        <v>0</v>
-      </c>
-      <c r="L271" t="n">
-        <v>0</v>
-      </c>
-      <c r="M271" t="n">
-        <v>0</v>
-      </c>
-      <c r="N271" t="n">
-        <v>0</v>
-      </c>
-      <c r="O271" t="n">
-        <v>0</v>
-      </c>
-      <c r="P271" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q271" t="n">
-        <v>0</v>
-      </c>
-      <c r="R271" s="2" t="inlineStr"/>
-      <c r="U271">
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" s="2" t="inlineStr"/>
+      <c r="U272">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
         <v/>
       </c>
-      <c r="V271">
+      <c r="V272">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
         <v/>
       </c>
-      <c r="W271">
+      <c r="W272">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
         <v/>
       </c>
-      <c r="X271">
+      <c r="X272">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
         <v/>
       </c>
-      <c r="Y271">
+      <c r="Y272">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>A 19051-2023</t>
-        </is>
-      </c>
-      <c r="B272" s="1" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C272" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G272" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="n">
-        <v>0</v>
-      </c>
-      <c r="K272" t="n">
-        <v>0</v>
-      </c>
-      <c r="L272" t="n">
-        <v>0</v>
-      </c>
-      <c r="M272" t="n">
-        <v>0</v>
-      </c>
-      <c r="N272" t="n">
-        <v>0</v>
-      </c>
-      <c r="O272" t="n">
-        <v>0</v>
-      </c>
-      <c r="P272" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q272" t="n">
-        <v>0</v>
-      </c>
-      <c r="R272" s="2" t="inlineStr"/>
-    </row>
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 59692-2023</t>
+          <t>A 19051-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45256</v>
+        <v>45047</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16663,7 +16668,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16700,14 +16705,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 33915-2023</t>
+          <t>A 59692-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45134.43918981482</v>
+        <v>45256</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16720,7 +16725,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16757,14 +16762,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 49131-2024</t>
+          <t>A 33915-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45594.68315972222</v>
+        <v>45134.43918981482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16777,7 +16782,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16814,14 +16819,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 43621-2021</t>
+          <t>A 49131-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44433</v>
+        <v>45594.68315972222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16834,7 +16839,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16871,14 +16876,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 33942-2023</t>
+          <t>A 43621-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45134</v>
+        <v>44433</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16891,7 +16896,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16928,14 +16933,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 49481-2023</t>
+          <t>A 33942-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45211</v>
+        <v>45134</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16948,7 +16953,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16985,14 +16990,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 57699-2023</t>
+          <t>A 49481-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45246</v>
+        <v>45211</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17005,7 +17010,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17042,14 +17047,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 13334-2022</t>
+          <t>A 57699-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44645.37586805555</v>
+        <v>45246</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17062,7 +17067,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17099,14 +17104,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 39899-2023</t>
+          <t>A 13334-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45166</v>
+        <v>44645.37586805555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17119,7 +17124,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>15.6</v>
+        <v>1.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17156,14 +17161,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 16922-2024</t>
+          <t>A 39899-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45411.65899305556</v>
+        <v>45166</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17176,7 +17181,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.3</v>
+        <v>15.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17213,14 +17218,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 50002-2023</t>
+          <t>A 16922-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45215</v>
+        <v>45411.65899305556</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17233,7 +17238,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17270,14 +17275,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 6179-2024</t>
+          <t>A 50002-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45337</v>
+        <v>45215</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17290,7 +17295,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17327,14 +17332,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 48163-2024</t>
+          <t>A 6179-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45589</v>
+        <v>45337</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17347,7 +17352,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>14.4</v>
+        <v>0.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17384,14 +17389,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 56829-2023</t>
+          <t>A 48163-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45244.46680555555</v>
+        <v>45589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17404,7 +17409,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.6</v>
+        <v>14.4</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17441,14 +17446,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 55794-2023</t>
+          <t>A 56829-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45239.54755787037</v>
+        <v>45244.46680555555</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17461,7 +17466,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17498,14 +17503,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 23700-2023</t>
+          <t>A 55794-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45077.62905092593</v>
+        <v>45239.54755787037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17518,7 +17523,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17555,14 +17560,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 6270-2023</t>
+          <t>A 23700-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44965.39467592593</v>
+        <v>45077.62905092593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17575,7 +17580,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17612,14 +17617,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 1749-2024</t>
+          <t>A 6270-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45307.45815972222</v>
+        <v>44965.39467592593</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17632,7 +17637,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17669,14 +17674,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 20280-2023</t>
+          <t>A 1749-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45056</v>
+        <v>45307.45815972222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17689,7 +17694,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17726,14 +17731,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 40939-2024</t>
+          <t>A 20280-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45558.64363425926</v>
+        <v>45056</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17746,7 +17751,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17783,14 +17788,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 56029-2024</t>
+          <t>A 40939-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45624.31143518518</v>
+        <v>45558.64363425926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17803,7 +17808,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17840,14 +17845,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 519-2023</t>
+          <t>A 56029-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44930.40255787037</v>
+        <v>45624.31143518518</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17860,7 +17865,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17897,14 +17902,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 61825-2021</t>
+          <t>A 519-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44501.79969907407</v>
+        <v>44930.40255787037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17917,7 +17922,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17954,14 +17959,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 61826-2021</t>
+          <t>A 61825-2021</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44501</v>
+        <v>44501.79969907407</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17974,7 +17979,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18011,14 +18016,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 120-2024</t>
+          <t>A 61826-2021</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45294.3707175926</v>
+        <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18031,7 +18036,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18068,14 +18073,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 33476-2022</t>
+          <t>A 120-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44788</v>
+        <v>45294.3707175926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18088,7 +18093,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18125,14 +18130,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 46320-2024</t>
+          <t>A 33476-2022</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45581.80997685185</v>
+        <v>44788</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18145,7 +18150,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18182,14 +18187,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 6752-2023</t>
+          <t>A 46320-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44966.87815972222</v>
+        <v>45581.80997685185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18202,7 +18207,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18239,14 +18244,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 14722-2023</t>
+          <t>A 6752-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45014</v>
+        <v>44966.87815972222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18259,7 +18264,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18296,14 +18301,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 56725-2023</t>
+          <t>A 14722-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45244</v>
+        <v>45014</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18316,7 +18321,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18353,14 +18358,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 56739-2023</t>
+          <t>A 56725-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
         <v>45244</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18373,7 +18378,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18410,14 +18415,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 43799-2024</t>
+          <t>A 56739-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45571.62708333333</v>
+        <v>45244</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18430,7 +18435,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18467,14 +18472,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 33912-2023</t>
+          <t>A 43799-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45134.41664351852</v>
+        <v>45571.62708333333</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18487,7 +18492,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18524,116 +18529,173 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
+          <t>A 33912-2023</t>
+        </is>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>45134.41664351852</v>
+      </c>
+      <c r="C306" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" s="2" t="inlineStr"/>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="A307" t="inlineStr">
+        <is>
           <t>A 48496-2024</t>
         </is>
       </c>
-      <c r="B306" s="1" t="n">
+      <c r="B307" s="1" t="n">
         <v>45592.77157407408</v>
       </c>
-      <c r="C306" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G306" t="n">
+      <c r="C307" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
         <v>0.9</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="n">
-        <v>0</v>
-      </c>
-      <c r="K306" t="n">
-        <v>0</v>
-      </c>
-      <c r="L306" t="n">
-        <v>0</v>
-      </c>
-      <c r="M306" t="n">
-        <v>0</v>
-      </c>
-      <c r="N306" t="n">
-        <v>0</v>
-      </c>
-      <c r="O306" t="n">
-        <v>0</v>
-      </c>
-      <c r="P306" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q306" t="n">
-        <v>0</v>
-      </c>
-      <c r="R306" s="2" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0</v>
+      </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" s="2" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
         <is>
           <t>A 40399-2024</t>
         </is>
       </c>
-      <c r="B307" s="1" t="n">
+      <c r="B308" s="1" t="n">
         <v>45555.44511574074</v>
       </c>
-      <c r="C307" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G307" t="n">
+      <c r="C308" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
         <v>4</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="n">
-        <v>0</v>
-      </c>
-      <c r="K307" t="n">
-        <v>0</v>
-      </c>
-      <c r="L307" t="n">
-        <v>0</v>
-      </c>
-      <c r="M307" t="n">
-        <v>0</v>
-      </c>
-      <c r="N307" t="n">
-        <v>0</v>
-      </c>
-      <c r="O307" t="n">
-        <v>0</v>
-      </c>
-      <c r="P307" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q307" t="n">
-        <v>0</v>
-      </c>
-      <c r="R307" s="2" t="inlineStr"/>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55617-2023</t>
+          <t>A 44736-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45238.82357638889</v>
+        <v>44438</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,459 +1542,459 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 44736-2021 artfynd.xlsx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 44736-2021 karta.png", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 44736-2021 FSC-klagomål.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 44736-2021 FSC-klagomål mail.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 44736-2021 tillsynsbegäran.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 44736-2021 tillsynsbegäran mail.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 27055-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45811.62898148148</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 27055-2025 artfynd.xlsx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 27055-2025 karta.png", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 27055-2025 FSC-klagomål.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 27055-2025 FSC-klagomål mail.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 27055-2025 tillsynsbegäran.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 27055-2025 tillsynsbegäran mail.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 58292-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45250</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>19</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 58292-2023 artfynd.xlsx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 58292-2023 karta.png", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 58292-2023 FSC-klagomål.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 58292-2023 FSC-klagomål mail.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 58292-2023 tillsynsbegäran.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 58292-2023 tillsynsbegäran mail.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 17920-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45040</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 17920-2023 artfynd.xlsx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 17920-2023 karta.png", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 17920-2023 FSC-klagomål.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 17920-2023 FSC-klagomål mail.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 17920-2023 tillsynsbegäran.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 17920-2023 tillsynsbegäran mail.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 11709-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45373.61430555556</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Gullklöver</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 11709-2024 artfynd.xlsx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 11709-2024 karta.png", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 11709-2024 FSC-klagomål.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 11709-2024 FSC-klagomål mail.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 11709-2024 tillsynsbegäran.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 11709-2024 tillsynsbegäran mail.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 55617-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45238.82357638889</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 55617-2023 artfynd.xlsx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 55617-2023 karta.png", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 55617-2023 FSC-klagomål.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 55617-2023 FSC-klagomål mail.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 55617-2023 tillsynsbegäran.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 55617-2023 tillsynsbegäran mail.docx", "A 55617-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 44736-2021</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44438</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Barkticka</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 44736-2021 artfynd.xlsx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 44736-2021 karta.png", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 44736-2021 FSC-klagomål.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 44736-2021 FSC-klagomål mail.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 44736-2021 tillsynsbegäran.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 44736-2021 tillsynsbegäran mail.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 27055-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45811.62898148148</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Barkticka</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 27055-2025 artfynd.xlsx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 27055-2025 karta.png", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 27055-2025 FSC-klagomål.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 27055-2025 FSC-klagomål mail.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 27055-2025 tillsynsbegäran.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 27055-2025 tillsynsbegäran mail.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 11709-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45373.61430555556</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gullklöver</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 11709-2024 artfynd.xlsx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 11709-2024 karta.png", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 11709-2024 FSC-klagomål.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 11709-2024 FSC-klagomål mail.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 11709-2024 tillsynsbegäran.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 11709-2024 tillsynsbegäran mail.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 58292-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45250</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>19</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ask</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 58292-2023 artfynd.xlsx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 58292-2023 karta.png", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 58292-2023 FSC-klagomål.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 58292-2023 FSC-klagomål mail.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 58292-2023 tillsynsbegäran.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 58292-2023 tillsynsbegäran mail.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 17920-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45040</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 17920-2023 artfynd.xlsx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 17920-2023 karta.png", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 17920-2023 FSC-klagomål.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 17920-2023 FSC-klagomål mail.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 17920-2023 tillsynsbegäran.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 17920-2023 tillsynsbegäran mail.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44886</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44753.32848379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,14 +2687,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 46424-2021</t>
+          <t>A 29368-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44442</v>
+        <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2706,8 +2706,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2744,14 +2749,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 29368-2022</t>
+          <t>A 46424-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44753</v>
+        <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2763,13 +2768,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44349.40521990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44563.73993055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44314.4852662037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44280</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44693.66460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44642.43065972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44642.44318287037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44628.42969907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44753.39418981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44628.43050925926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44693.6590625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44650</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44753</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44635.66027777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,14 +4784,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48494-2024</t>
+          <t>A 33476-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45592.75105324074</v>
+        <v>44788</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4841,14 +4841,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33033-2024</t>
+          <t>A 17077-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45517</v>
+        <v>45034</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20584-2023</t>
+          <t>A 47783-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45057</v>
+        <v>45931.76866898148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4955,14 +4955,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38360-2024</t>
+          <t>A 48036-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45545.79484953704</v>
+        <v>45932</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5012,14 +5012,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17749-2024</t>
+          <t>A 3880-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45418.59761574074</v>
+        <v>44587.45909722222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.4</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5069,14 +5069,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16452-2025</t>
+          <t>A 27232-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45751.51493055555</v>
+        <v>45471</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5126,14 +5126,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17985-2022</t>
+          <t>A 3884-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44683</v>
+        <v>44587.46003472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5183,14 +5183,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55331-2025</t>
+          <t>A 17861-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45971.34190972222</v>
+        <v>45419.43511574074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5240,14 +5240,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 22326-2025</t>
+          <t>A 31051-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45786.41207175926</v>
+        <v>44769</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5297,14 +5297,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38614-2025</t>
+          <t>A 49201-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45884.54458333334</v>
+        <v>45938.41451388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5354,14 +5354,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43817-2023</t>
+          <t>A 61731-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45187</v>
+        <v>45649.34305555555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5411,14 +5411,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15099-2024</t>
+          <t>A 24107-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45399.66082175926</v>
+        <v>45456</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5468,14 +5468,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 15107-2024</t>
+          <t>A 40399-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45399</v>
+        <v>45555.44511574074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5525,14 +5525,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 369-2023</t>
+          <t>A 56480-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44929</v>
+        <v>45625.47077546296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5582,14 +5582,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29371-2021</t>
+          <t>A 14798-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44361</v>
+        <v>45397.90431712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5601,8 +5601,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5635,18 +5640,38 @@
         <v>0</v>
       </c>
       <c r="R80" s="2" t="inlineStr"/>
+      <c r="U80">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="V80">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="W80">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="X80">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y80">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10525-2025</t>
+          <t>A 12610-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45721.43710648148</v>
+        <v>45382.87498842592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5696,14 +5721,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42605-2024</t>
+          <t>A 43621-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45565.72832175926</v>
+        <v>44433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5716,7 +5741,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5753,14 +5778,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 12760-2025</t>
+          <t>A 40553-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45733.57016203704</v>
+        <v>45896.44429398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5773,7 +5798,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5810,14 +5835,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23060-2025</t>
+          <t>A 40538-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45790</v>
+        <v>45896.41814814815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5830,7 +5855,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5867,14 +5892,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14752-2025</t>
+          <t>A 40539-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45742.66047453704</v>
+        <v>45896.41945601852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5887,7 +5912,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5924,14 +5949,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13196-2025</t>
+          <t>A 2556-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45735.42291666667</v>
+        <v>45313.60317129629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5944,7 +5969,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5981,14 +6006,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13666-2025</t>
+          <t>A 40544-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45736.8315162037</v>
+        <v>45896.43144675926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6001,7 +6026,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6038,14 +6063,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 13674-2025</t>
+          <t>A 40550-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45736.9021875</v>
+        <v>45896.44113425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6058,7 +6083,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6095,14 +6120,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7420-2024</t>
+          <t>A 17749-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45345.62907407407</v>
+        <v>45418.59761574074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6115,7 +6140,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6152,14 +6177,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 56480-2024</t>
+          <t>A 22326-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45625.47077546296</v>
+        <v>45786.41207175926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6172,7 +6197,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6209,14 +6234,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55618-2023</t>
+          <t>A 23060-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45238.825625</v>
+        <v>45790</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6229,7 +6254,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6266,14 +6291,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56886-2025</t>
+          <t>A 40844-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45975</v>
+        <v>45897.53482638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6286,7 +6311,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6323,14 +6348,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28263-2023</t>
+          <t>A 29371-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45099</v>
+        <v>44361</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6343,7 +6368,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6380,14 +6405,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11883-2025</t>
+          <t>A 10525-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45728</v>
+        <v>45721.43710648148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6400,7 +6425,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6437,14 +6462,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 56259-2025</t>
+          <t>A 23441-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45974</v>
+        <v>44333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6457,7 +6482,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6494,14 +6519,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 56261-2025</t>
+          <t>A 42605-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45974</v>
+        <v>45565.72832175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6514,7 +6539,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6551,14 +6576,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 47630-2022</t>
+          <t>A 16551-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44852</v>
+        <v>45408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6571,7 +6596,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6608,14 +6633,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 34183-2023</t>
+          <t>A 13666-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45138</v>
+        <v>45736.8315162037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6628,7 +6653,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6665,14 +6690,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24560-2025</t>
+          <t>A 13674-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45798.45908564814</v>
+        <v>45736.9021875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6685,7 +6710,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6722,14 +6747,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 2556-2024</t>
+          <t>A 12760-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45313.60317129629</v>
+        <v>45733.57016203704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6742,7 +6767,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6779,14 +6804,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24892-2025</t>
+          <t>A 13196-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45799.51231481481</v>
+        <v>45735.42291666667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6799,7 +6824,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6836,14 +6861,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56893-2025</t>
+          <t>A 41795-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45978.56734953704</v>
+        <v>45902.60028935185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6856,7 +6881,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6893,14 +6918,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56922-2025</t>
+          <t>A 22402-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45978.59846064815</v>
+        <v>45446.6730787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6913,7 +6938,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6950,14 +6975,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24832-2025</t>
+          <t>A 14752-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45799.4587962963</v>
+        <v>45742.66047453704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6970,7 +6995,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7007,14 +7032,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40844-2025</t>
+          <t>A 50192-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45897.53482638889</v>
+        <v>45943.63825231481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7027,7 +7052,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>15.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7064,14 +7089,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 24882-2025</t>
+          <t>A 50193-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45799.49961805555</v>
+        <v>45943.640625</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7084,7 +7109,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7121,14 +7146,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24897-2025</t>
+          <t>A 42021-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45799.51752314815</v>
+        <v>45903.59125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7141,7 +7166,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7178,14 +7203,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 24549-2025</t>
+          <t>A 50145-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45798.44802083333</v>
+        <v>45943.57131944445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7198,7 +7223,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7235,14 +7260,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 24567-2025</t>
+          <t>A 50884-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45798.46579861111</v>
+        <v>45946</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7255,7 +7280,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7292,14 +7317,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 24894-2025</t>
+          <t>A 50901-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45799.51355324074</v>
+        <v>45946.64501157407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7337,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7349,14 +7374,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40544-2025</t>
+          <t>A 50891-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45896.43144675926</v>
+        <v>45946.63685185185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7394,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7406,14 +7431,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40550-2025</t>
+          <t>A 11883-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45896.44113425926</v>
+        <v>45728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7426,7 +7451,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7463,14 +7488,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40553-2025</t>
+          <t>A 42566-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45896.44429398148</v>
+        <v>45905.60494212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7483,7 +7508,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7520,14 +7545,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40538-2025</t>
+          <t>A 120-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45896.41814814815</v>
+        <v>45294.3707175926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7540,7 +7565,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7577,14 +7602,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 40539-2025</t>
+          <t>A 24549-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45896.41945601852</v>
+        <v>45798.44802083333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7597,7 +7622,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7634,14 +7659,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56805-2025</t>
+          <t>A 24567-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45978.44703703704</v>
+        <v>45798.46579861111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7654,7 +7679,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>12.1</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7691,14 +7716,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25575-2025</t>
+          <t>A 18997-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45803.47547453704</v>
+        <v>45427.62200231481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7710,13 +7735,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7753,14 +7773,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 54006-2022</t>
+          <t>A 24560-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44881.40414351852</v>
+        <v>45798.45908564814</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7773,7 +7793,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7810,14 +7830,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 26247-2025</t>
+          <t>A 6167-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45805</v>
+        <v>45337</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7830,7 +7850,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7867,14 +7887,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42021-2025</t>
+          <t>A 24894-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45903.59125</v>
+        <v>45799.51355324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7887,7 +7907,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7924,14 +7944,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 41795-2025</t>
+          <t>A 53296-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45902.60028935185</v>
+        <v>45958.89180555556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7944,7 +7964,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7981,14 +8001,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48034-2024</t>
+          <t>A 40223-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45589.49070601852</v>
+        <v>44419</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8000,8 +8020,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8038,14 +8063,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 42698-2024</t>
+          <t>A 40226-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45566</v>
+        <v>44419</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8057,8 +8082,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8095,14 +8125,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 46514-2024</t>
+          <t>A 24882-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45582.62592592592</v>
+        <v>45799.49961805555</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8115,7 +8145,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8152,14 +8182,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46521-2024</t>
+          <t>A 24892-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45582.62986111111</v>
+        <v>45799.51231481481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8202,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8209,14 +8239,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42566-2025</t>
+          <t>A 54244-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45905.60494212963</v>
+        <v>45964.63546296296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8259,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8266,14 +8296,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27031-2025</t>
+          <t>A 24897-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45811.5890625</v>
+        <v>45799.51752314815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8316,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8323,14 +8353,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 4736-2024</t>
+          <t>A 24832-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45328</v>
+        <v>45799.4587962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8342,13 +8372,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8385,14 +8410,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 51480-2024</t>
+          <t>A 53869-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45603</v>
+        <v>45961.38677083333</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8404,8 +8429,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8442,14 +8472,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61409-2022</t>
+          <t>A 54467-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44909</v>
+        <v>45965.5700462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8462,7 +8492,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5.5</v>
+        <v>13.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8499,14 +8529,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 22402-2024</t>
+          <t>A 25575-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45446.6730787037</v>
+        <v>45803.47547453704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8518,8 +8548,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8556,14 +8591,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 32838-2022</t>
+          <t>A 26247-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44784.43820601852</v>
+        <v>45805</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8576,7 +8611,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8613,14 +8648,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40721-2022</t>
+          <t>A 44589-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44824.50174768519</v>
+        <v>45917.42443287037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8633,7 +8668,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8670,14 +8705,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 11817-2025</t>
+          <t>A 44841-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45728.30768518519</v>
+        <v>45918.4284375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8690,7 +8725,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8727,14 +8762,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10515-2025</t>
+          <t>A 44583-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45721.423125</v>
+        <v>45917.40908564815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8747,7 +8782,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8784,14 +8819,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 27867-2025</t>
+          <t>A 54863-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45817.42643518518</v>
+        <v>45966.77891203704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8804,7 +8839,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8841,14 +8876,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 43856-2024</t>
+          <t>A 44588-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45572.35760416667</v>
+        <v>45917.4165625</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8861,7 +8896,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8898,14 +8933,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 28264-2025</t>
+          <t>A 55331-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45818.55997685185</v>
+        <v>45971.34190972222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8918,7 +8953,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8955,14 +8990,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 28265-2025</t>
+          <t>A 55336-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45818.56096064814</v>
+        <v>45971.3446412037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8975,7 +9010,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9012,14 +9047,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 28261-2025</t>
+          <t>A 55439-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45818.55596064815</v>
+        <v>45971.48627314815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9032,7 +9067,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9069,14 +9104,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28263-2025</t>
+          <t>A 44597-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45818.55798611111</v>
+        <v>45917.4290625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9124,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9126,14 +9161,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 44588-2025</t>
+          <t>A 44578-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45917.4165625</v>
+        <v>45917.40295138889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9181,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9183,14 +9218,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 44575-2025</t>
+          <t>A 44584-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45917.40004629629</v>
+        <v>45917.41353009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9203,7 +9238,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9240,14 +9275,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 44578-2025</t>
+          <t>A 58972-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45917.40295138889</v>
+        <v>45636.60099537037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9260,7 +9295,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9297,14 +9332,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 44584-2025</t>
+          <t>A 61566-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45917.41353009259</v>
+        <v>45646.61444444444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9317,7 +9352,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9354,14 +9389,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 44583-2025</t>
+          <t>A 44575-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45917.40908564815</v>
+        <v>45917.40004629629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9374,7 +9409,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9411,14 +9446,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 44589-2025</t>
+          <t>A 54006-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45917.42443287037</v>
+        <v>44881.40414351852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9431,7 +9466,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9468,14 +9503,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 44597-2025</t>
+          <t>A 47523-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45917.4290625</v>
+        <v>45930</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9488,7 +9523,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9525,14 +9560,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 22631-2022</t>
+          <t>A 45537-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44714.44008101852</v>
+        <v>45922.61059027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9545,7 +9580,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9582,14 +9617,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 28960-2025</t>
+          <t>A 46514-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45821.31986111111</v>
+        <v>45582.62592592592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9602,7 +9637,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9639,14 +9674,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 24940-2023</t>
+          <t>A 46521-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45085.54883101852</v>
+        <v>45582.62986111111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9659,7 +9694,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9696,14 +9731,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 44841-2025</t>
+          <t>A 56261-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45918.4284375</v>
+        <v>45974</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9716,7 +9751,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9753,14 +9788,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 7243-2025</t>
+          <t>A 48034-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45702.5430324074</v>
+        <v>45589.49070601852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9773,7 +9808,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9810,14 +9845,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 10444-2022</t>
+          <t>A 51480-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44623</v>
+        <v>45603</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9830,7 +9865,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9867,14 +9902,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 45537-2025</t>
+          <t>A 4736-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45922.61059027778</v>
+        <v>45328</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,8 +9921,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9924,14 +9964,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45712-2025</t>
+          <t>A 46145-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45923.43152777778</v>
+        <v>45924.60802083334</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9944,7 +9984,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9981,14 +10021,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45950-2025</t>
+          <t>A 27031-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45924.34196759259</v>
+        <v>45811.5890625</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10001,7 +10041,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10038,14 +10078,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 6167-2024</t>
+          <t>A 56259-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45337</v>
+        <v>45974</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10058,7 +10098,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6.5</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10095,14 +10135,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 29840-2025</t>
+          <t>A 45712-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45826.29282407407</v>
+        <v>45923.43152777778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10115,7 +10155,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10152,14 +10192,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 46145-2025</t>
+          <t>A 45950-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45924.60802083334</v>
+        <v>45924.34196759259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10172,7 +10212,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10209,14 +10249,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 30621-2025</t>
+          <t>A 11817-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45831.47098379629</v>
+        <v>45728.30768518519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10229,7 +10269,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10266,14 +10306,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 9169-2023</t>
+          <t>A 10515-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44980.41365740741</v>
+        <v>45721.423125</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10286,7 +10326,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10323,14 +10363,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 46986-2025</t>
+          <t>A 28264-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45929.5359375</v>
+        <v>45818.55997685185</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10343,7 +10383,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10380,14 +10420,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56734-2023</t>
+          <t>A 28265-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45244.35234953704</v>
+        <v>45818.56096064814</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10400,7 +10440,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10437,14 +10477,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 47342-2025</t>
+          <t>A 28261-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45930.56956018518</v>
+        <v>45818.55596064815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10457,7 +10497,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10494,14 +10534,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 3884-2022</t>
+          <t>A 28263-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44587.46003472222</v>
+        <v>45818.55798611111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10514,7 +10554,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10551,14 +10591,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 24107-2024</t>
+          <t>A 46986-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45456</v>
+        <v>45929.5359375</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10571,7 +10611,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10608,14 +10648,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 27232-2024</t>
+          <t>A 27867-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45471</v>
+        <v>45817.42643518518</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10628,7 +10668,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10665,14 +10705,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 47783-2025</t>
+          <t>A 47342-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45931.76866898148</v>
+        <v>45930.56956018518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10685,7 +10725,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10722,14 +10762,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 3880-2022</t>
+          <t>A 56922-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44587.45909722222</v>
+        <v>45978.59846064815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10742,7 +10782,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10779,14 +10819,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 48036-2025</t>
+          <t>A 14722-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45932</v>
+        <v>45014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10799,7 +10839,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10836,14 +10876,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 17861-2024</t>
+          <t>A 10444-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45419.43511574074</v>
+        <v>44623</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,7 +10896,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10893,14 +10933,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 1385-2025</t>
+          <t>A 43799-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45667.66609953704</v>
+        <v>45571.62708333333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10913,7 +10953,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10950,14 +10990,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 49201-2025</t>
+          <t>A 28960-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45938.41451388889</v>
+        <v>45821.31986111111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +11010,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11007,14 +11047,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 7605-2022</t>
+          <t>A 43856-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44606</v>
+        <v>45572.35760416667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11027,7 +11067,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11064,14 +11104,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 21140-2023</t>
+          <t>A 56805-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45062.36817129629</v>
+        <v>45978.44703703704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11084,7 +11124,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.4</v>
+        <v>12.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11121,14 +11161,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 32666-2025</t>
+          <t>A 16747-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45838</v>
+        <v>45030</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11141,7 +11181,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11178,14 +11218,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 50192-2025</t>
+          <t>A 56886-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45943.63825231481</v>
+        <v>45975</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11198,7 +11238,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>15.8</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11235,14 +11275,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 50193-2025</t>
+          <t>A 29840-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45943.640625</v>
+        <v>45826.29282407407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11255,7 +11295,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11292,14 +11332,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 50145-2025</t>
+          <t>A 56893-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45943.57131944445</v>
+        <v>45978.56734953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11312,7 +11352,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11349,14 +11389,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 50901-2025</t>
+          <t>A 42698-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45946.64501157407</v>
+        <v>45566</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11369,7 +11409,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11406,14 +11446,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 50884-2025</t>
+          <t>A 30621-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45946</v>
+        <v>45831.47098379629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11463,14 +11503,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 50891-2025</t>
+          <t>A 49481-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45946.63685185185</v>
+        <v>45211</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11483,7 +11523,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11520,14 +11560,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 20793-2023</t>
+          <t>A 46520-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45058.60979166667</v>
+        <v>45582</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11540,7 +11580,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11577,14 +11617,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61566-2024</t>
+          <t>A 20536-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45646.61444444444</v>
+        <v>45057</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11597,7 +11637,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11634,14 +11674,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 15067-2025</t>
+          <t>A 15102-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45743.76568287037</v>
+        <v>45399.66299768518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11654,7 +11694,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11691,14 +11731,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15458-2025</t>
+          <t>A 55618-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45747.50989583333</v>
+        <v>45238.825625</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11711,7 +11751,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11748,14 +11788,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 7590-2024</t>
+          <t>A 48161-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45348</v>
+        <v>45589</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11768,7 +11808,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.9</v>
+        <v>42</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11805,14 +11845,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 36101-2025</t>
+          <t>A 15108-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45866.53873842592</v>
+        <v>45399.66778935185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11825,7 +11865,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11862,14 +11902,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 63509-2023</t>
+          <t>A 40939-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45274</v>
+        <v>45558.64363425926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11882,7 +11922,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11919,14 +11959,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 32843-2022</t>
+          <t>A 48163-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44784.4495949074</v>
+        <v>45589</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11939,7 +11979,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.2</v>
+        <v>14.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11976,14 +12016,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 43987-2022</t>
+          <t>A 32666-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44838.66666666666</v>
+        <v>45838</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11996,7 +12036,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12033,14 +12073,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 26025-2025</t>
+          <t>A 7605-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45804</v>
+        <v>44606</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12053,7 +12093,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.1</v>
+        <v>7.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12090,14 +12130,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53296-2025</t>
+          <t>A 65120-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45958.89180555556</v>
+        <v>45287</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12110,7 +12150,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>11.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12147,14 +12187,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53869-2025</t>
+          <t>A 7590-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45961.38677083333</v>
+        <v>45348</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12166,13 +12206,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12209,14 +12244,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 54244-2025</t>
+          <t>A 60325-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45964.63546296296</v>
+        <v>45994.74046296296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12229,7 +12264,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5.1</v>
+        <v>11.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12266,14 +12301,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 54467-2025</t>
+          <t>A 60095-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45965.5700462963</v>
+        <v>45993.7368287037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12286,7 +12321,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>13.4</v>
+        <v>3.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12323,14 +12358,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 54863-2025</t>
+          <t>A 15067-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45966.77891203704</v>
+        <v>45743.76568287037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12343,7 +12378,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12380,14 +12415,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 55439-2025</t>
+          <t>A 36101-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45971.48627314815</v>
+        <v>45866.53873842592</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12400,7 +12435,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12437,14 +12472,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 31051-2022</t>
+          <t>A 15458-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44769</v>
+        <v>45747.50989583333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12457,7 +12492,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12494,14 +12529,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 47523-2025</t>
+          <t>A 58704-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45930</v>
+        <v>44489</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12514,7 +12549,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12551,14 +12586,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 55336-2025</t>
+          <t>A 60328-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45971.3446412037</v>
+        <v>45994.74658564815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12571,7 +12606,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.1</v>
+        <v>8.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12608,14 +12643,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 15102-2024</t>
+          <t>A 20584-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45399.66299768518</v>
+        <v>45057</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12628,7 +12663,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12665,14 +12700,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 15108-2024</t>
+          <t>A 59745-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45399.66778935185</v>
+        <v>45639.5343287037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12685,7 +12720,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12722,14 +12757,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13698-2024</t>
+          <t>A 2050-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45390</v>
+        <v>46035.84706018519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12779,14 +12814,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 60095-2025</t>
+          <t>A 2146-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45993.7368287037</v>
+        <v>45672.69664351852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12799,7 +12834,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12836,14 +12871,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60328-2025</t>
+          <t>A 26025-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45994.74658564815</v>
+        <v>45804</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12856,7 +12891,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>8.9</v>
+        <v>3.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12893,14 +12928,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 33921-2023</t>
+          <t>A 46523-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45134.47034722222</v>
+        <v>45582.6306712963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12913,7 +12948,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12950,14 +12985,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 6140-2024</t>
+          <t>A 28385-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45337</v>
+        <v>44747.55924768518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12970,7 +13005,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>12.8</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13007,14 +13042,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 50939-2024</t>
+          <t>A 61120-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45602.92913194445</v>
+        <v>46000.46729166667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13062,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13064,14 +13099,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 58972-2024</t>
+          <t>A 38614-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45636.60099537037</v>
+        <v>45884.54458333334</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13119,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13121,14 +13156,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 27181-2023</t>
+          <t>A 9732-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45096.52827546297</v>
+        <v>44978</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13176,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13178,14 +13213,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 58704-2021</t>
+          <t>A 17932-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44489</v>
+        <v>45040</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13233,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13235,14 +13270,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 61731-2024</t>
+          <t>A 4195-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45649.34305555555</v>
+        <v>46044.69524305555</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13255,7 +13290,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13292,14 +13327,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 60325-2025</t>
+          <t>A 19133-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45994.74046296296</v>
+        <v>45764</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13312,7 +13347,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>11.5</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13349,14 +13384,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 33925-2023</t>
+          <t>A 62439-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45134.48231481481</v>
+        <v>46007.46944444445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13369,7 +13404,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13406,14 +13441,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 2050-2026</t>
+          <t>A 4910-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46035.84706018519</v>
+        <v>46045</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13426,7 +13461,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13463,14 +13498,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 43798-2024</t>
+          <t>A 18715-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45571.59386574074</v>
+        <v>45043.65006944445</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13483,7 +13518,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13520,14 +13555,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 48161-2024</t>
+          <t>A 16452-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45589</v>
+        <v>45751.51493055555</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13540,7 +13575,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>42</v>
+        <v>0.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13577,14 +13612,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 16747-2023</t>
+          <t>A 12823-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45030</v>
+        <v>44642.42333333333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13597,7 +13632,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13634,14 +13669,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 61120-2025</t>
+          <t>A 57699-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46000.46729166667</v>
+        <v>45246</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13654,7 +13689,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13691,14 +13726,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 4195-2026</t>
+          <t>A 27815-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46044.69524305555</v>
+        <v>45475.59787037037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13711,7 +13746,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13748,14 +13783,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 2146-2025</t>
+          <t>A 22631-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45672.69664351852</v>
+        <v>44714.44008101852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13768,7 +13803,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13805,14 +13840,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 4910-2026</t>
+          <t>A 6356-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46045</v>
+        <v>46055.61503472222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13860,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13862,14 +13897,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 11439-2022</t>
+          <t>A 1930-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44630.62471064815</v>
+        <v>46035</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13882,7 +13917,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>10.6</v>
+        <v>2.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13919,14 +13954,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 73226-2021</t>
+          <t>A 1937-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44550</v>
+        <v>46035</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13938,8 +13973,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13976,14 +14016,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 62439-2025</t>
+          <t>A 1920-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46007.46944444445</v>
+        <v>46035</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13996,7 +14036,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14033,14 +14073,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 17871-2024</t>
+          <t>A 1925-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45419.44590277778</v>
+        <v>46035</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14053,7 +14093,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14090,14 +14130,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 15309-2022</t>
+          <t>A 1933-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44659</v>
+        <v>46035</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14110,7 +14150,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14147,14 +14187,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 46523-2024</t>
+          <t>A 6865-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45582.6306712963</v>
+        <v>46057.441875</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14167,7 +14207,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14204,14 +14244,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 5009-2025</t>
+          <t>A 20793-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45691</v>
+        <v>45058.60979166667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14224,7 +14264,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14261,14 +14301,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 65120-2023</t>
+          <t>A 28263-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45287</v>
+        <v>45099</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14281,7 +14321,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>11.4</v>
+        <v>0.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14318,14 +14358,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 6356-2026</t>
+          <t>A 6179-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46055.61503472222</v>
+        <v>45337</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14338,7 +14378,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14375,14 +14415,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 12910-2023</t>
+          <t>A 146-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45001</v>
+        <v>46024.63701388889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14395,7 +14435,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14432,14 +14472,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 23862-2022</t>
+          <t>A 61825-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44722.551875</v>
+        <v>44501.79969907407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14452,7 +14492,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14489,14 +14529,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 6865-2026</t>
+          <t>A 61826-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46057.441875</v>
+        <v>44501</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14509,7 +14549,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14546,14 +14586,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 1920-2026</t>
+          <t>A 73226-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46035</v>
+        <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14566,7 +14606,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14603,14 +14643,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 1925-2026</t>
+          <t>A 1749-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46035</v>
+        <v>45307.45815972222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14623,7 +14663,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14660,14 +14700,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 1933-2026</t>
+          <t>A 38360-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46035</v>
+        <v>45545.79484953704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14680,7 +14720,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14717,14 +14757,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 1937-2026</t>
+          <t>A 27181-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46035</v>
+        <v>45096.52827546297</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14736,13 +14776,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14779,14 +14814,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 1930-2026</t>
+          <t>A 46320-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46035</v>
+        <v>45581.80997685185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14799,7 +14834,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14836,14 +14871,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 7795-2023</t>
+          <t>A 9169-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44973</v>
+        <v>44980.41365740741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14856,7 +14891,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14893,14 +14928,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 12610-2024</t>
+          <t>A 33912-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45382.87498842592</v>
+        <v>45134.41664351852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14913,7 +14948,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14950,14 +14985,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 6172-2024</t>
+          <t>A 7640-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45337</v>
+        <v>45348.64657407408</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14970,7 +15005,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15007,14 +15042,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 12853-2023</t>
+          <t>A 56734-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45001</v>
+        <v>45244.35234953704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15027,7 +15062,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15064,14 +15099,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 59745-2024</t>
+          <t>A 9289-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45639.5343287037</v>
+        <v>46070</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15083,8 +15118,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15121,14 +15161,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 40223-2021</t>
+          <t>A 33942-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44419</v>
+        <v>45134</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15140,13 +15180,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15183,14 +15218,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 40226-2021</t>
+          <t>A 34183-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44419</v>
+        <v>45138</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15202,13 +15237,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15245,14 +15275,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 64606-2023</t>
+          <t>A 16922-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45281.5049537037</v>
+        <v>45411.65899305556</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15265,7 +15295,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15302,14 +15332,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 146-2026</t>
+          <t>A 6140-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46024.63701388889</v>
+        <v>45337</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15322,7 +15352,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.6</v>
+        <v>12.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15359,14 +15389,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 19133-2025</t>
+          <t>A 64606-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45764</v>
+        <v>45281.5049537037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15379,7 +15409,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15416,14 +15446,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 18937-2024</t>
+          <t>A 50939-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45427</v>
+        <v>45602.92913194445</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15436,7 +15466,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15473,14 +15503,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 9289-2026</t>
+          <t>A 18937-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46070.5877662037</v>
+        <v>45427</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15492,13 +15522,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15535,14 +15560,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 12823-2022</t>
+          <t>A 55794-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44642.42333333333</v>
+        <v>45239.54755787037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15592,14 +15617,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 16551-2024</t>
+          <t>A 33915-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45408</v>
+        <v>45134.43918981482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15612,7 +15637,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15649,14 +15674,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 27815-2024</t>
+          <t>A 43987-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45475.59787037037</v>
+        <v>44838.66666666666</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15669,7 +15694,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15706,14 +15731,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 18855-2025</t>
+          <t>A 17985-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45764.42244212963</v>
+        <v>44683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15726,7 +15751,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15763,14 +15788,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 17172-2023</t>
+          <t>A 56829-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45034.65365740741</v>
+        <v>45244.46680555555</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15783,7 +15808,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15820,14 +15845,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 18997-2024</t>
+          <t>A 43817-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45427.62200231481</v>
+        <v>45187</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15840,7 +15865,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15877,14 +15902,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 505-2023</t>
+          <t>A 7243-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44930.35895833333</v>
+        <v>45702.5430324074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15897,7 +15922,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15934,14 +15959,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 17932-2023</t>
+          <t>A 13698-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45040</v>
+        <v>45390</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15954,7 +15979,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15991,14 +16016,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 28190-2022</t>
+          <t>A 23862-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44746.58916666666</v>
+        <v>44722.551875</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16011,7 +16036,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16048,14 +16073,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 12385-2025</t>
+          <t>A 40721-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45730.38883101852</v>
+        <v>44824.50174768519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16067,13 +16092,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16110,14 +16130,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 20536-2023</t>
+          <t>A 56029-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45057</v>
+        <v>45624.31143518518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16130,7 +16150,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16167,14 +16187,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 28385-2022</t>
+          <t>A 59692-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44747.55924768518</v>
+        <v>45256</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16224,14 +16244,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 9732-2023</t>
+          <t>A 7795-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16244,7 +16264,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16281,14 +16301,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 23441-2021</t>
+          <t>A 47630-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44333</v>
+        <v>44852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16301,7 +16321,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16338,14 +16358,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 7640-2024</t>
+          <t>A 7420-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45348.64657407408</v>
+        <v>45345.62907407407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16358,7 +16378,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16395,14 +16415,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 17077-2023</t>
+          <t>A 15099-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45034</v>
+        <v>45399.66082175926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16415,7 +16435,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16452,14 +16472,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 46520-2024</t>
+          <t>A 15107-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45582</v>
+        <v>45399</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16509,14 +16529,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 18715-2023</t>
+          <t>A 32838-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45043.65006944445</v>
+        <v>44784.43820601852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16529,7 +16549,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16566,14 +16586,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 14798-2024</t>
+          <t>A 505-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45397.90431712963</v>
+        <v>44930.35895833333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16585,13 +16605,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16624,26 +16639,6 @@
         <v>0</v>
       </c>
       <c r="R272" s="2" t="inlineStr"/>
-      <c r="U272">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="V272">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="W272">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="X272">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y272">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
@@ -16655,7 +16650,7 @@
         <v>45047</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16705,14 +16700,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 59692-2023</t>
+          <t>A 6270-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45256</v>
+        <v>44965.39467592593</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16725,7 +16720,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16762,14 +16757,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 33915-2023</t>
+          <t>A 63509-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45134.43918981482</v>
+        <v>45274</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16782,7 +16777,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16819,14 +16814,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 49131-2024</t>
+          <t>A 13334-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45594.68315972222</v>
+        <v>44645.37586805555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16839,7 +16834,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16876,14 +16871,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 43621-2021</t>
+          <t>A 20280-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44433</v>
+        <v>45056</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16896,7 +16891,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16933,14 +16928,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 33942-2023</t>
+          <t>A 24940-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45134</v>
+        <v>45085.54883101852</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16948,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16990,14 +16985,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 49481-2023</t>
+          <t>A 33921-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45211</v>
+        <v>45134.47034722222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17005,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17047,14 +17042,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 57699-2023</t>
+          <t>A 48494-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45246</v>
+        <v>45592.75105324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17062,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17104,14 +17099,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 13334-2022</t>
+          <t>A 12853-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44645.37586805555</v>
+        <v>45001</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17119,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17161,14 +17156,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 39899-2023</t>
+          <t>A 21140-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45166</v>
+        <v>45062.36817129629</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17176,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>15.6</v>
+        <v>0.4</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17218,14 +17213,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 16922-2024</t>
+          <t>A 6752-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45411.65899305556</v>
+        <v>44966.87815972222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17233,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17275,14 +17270,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 50002-2023</t>
+          <t>A 17172-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45215</v>
+        <v>45034.65365740741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17290,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17332,14 +17327,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 6179-2024</t>
+          <t>A 32843-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45337</v>
+        <v>44784.4495949074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17347,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17389,14 +17384,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 48163-2024</t>
+          <t>A 28190-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45589</v>
+        <v>44746.58916666666</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17404,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>14.4</v>
+        <v>1.7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17446,14 +17441,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 56829-2023</t>
+          <t>A 39899-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45244.46680555555</v>
+        <v>45166</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17461,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.6</v>
+        <v>15.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17503,14 +17498,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 55794-2023</t>
+          <t>A 12910-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45239.54755787037</v>
+        <v>45001</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17518,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17560,14 +17555,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 23700-2023</t>
+          <t>A 6172-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45077.62905092593</v>
+        <v>45337</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17575,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17617,14 +17612,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 6270-2023</t>
+          <t>A 33925-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44965.39467592593</v>
+        <v>45134.48231481481</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17632,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17674,14 +17669,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 1749-2024</t>
+          <t>A 18855-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45307.45815972222</v>
+        <v>45764.42244212963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17731,14 +17726,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 20280-2023</t>
+          <t>A 15309-2022</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45056</v>
+        <v>44659</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17746,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17788,14 +17783,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 40939-2024</t>
+          <t>A 11439-2022</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45558.64363425926</v>
+        <v>44630.62471064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17803,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.2</v>
+        <v>10.6</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17845,14 +17840,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 56029-2024</t>
+          <t>A 33033-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45624.31143518518</v>
+        <v>45517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17860,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17902,14 +17897,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 519-2023</t>
+          <t>A 49131-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44930.40255787037</v>
+        <v>45594.68315972222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17917,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17959,14 +17954,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 61825-2021</t>
+          <t>A 61409-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44501.79969907407</v>
+        <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17974,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18016,14 +18011,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 61826-2021</t>
+          <t>A 48496-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44501</v>
+        <v>45592.77157407408</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18031,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18073,14 +18068,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 120-2024</t>
+          <t>A 1385-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45294.3707175926</v>
+        <v>45667.66609953704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18088,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18130,14 +18125,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 33476-2022</t>
+          <t>A 56725-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44788</v>
+        <v>45244</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18145,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18187,14 +18182,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 46320-2024</t>
+          <t>A 56739-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45581.80997685185</v>
+        <v>45244</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18202,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18244,14 +18239,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 6752-2023</t>
+          <t>A 17871-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44966.87815972222</v>
+        <v>45419.44590277778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18259,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18301,14 +18296,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 14722-2023</t>
+          <t>A 50002-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45014</v>
+        <v>45215</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18316,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18358,14 +18353,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 56725-2023</t>
+          <t>A 12385-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45244</v>
+        <v>45730.38883101852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18377,8 +18372,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G303" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18415,14 +18415,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 56739-2023</t>
+          <t>A 369-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45244</v>
+        <v>44929</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18472,14 +18472,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 43799-2024</t>
+          <t>A 519-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45571.62708333333</v>
+        <v>44930.40255787037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18529,14 +18529,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 33912-2023</t>
+          <t>A 43798-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45134.41664351852</v>
+        <v>45571.59386574074</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18586,14 +18586,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 48496-2024</t>
+          <t>A 23700-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45592.77157407408</v>
+        <v>45077.62905092593</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18643,14 +18643,14 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 40399-2024</t>
+          <t>A 5009-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45555.44511574074</v>
+        <v>45691</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>45238.82357638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44438</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45811.62898148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45373.61430555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45250</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>45040</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44886</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44753.32848379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44349.40521990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44563.73993055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44314.4852662037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44280</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44693.66460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44642.43065972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44642.44318287037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44628.42969907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44753.39418981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44628.43050925926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44693.6590625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44650</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44753</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44635.66027777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45592.75105324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>45517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45057</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>45545.79484953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>45418.59761574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>45751.51493055555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>44683</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>44929</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>45187</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>45399.66082175926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45399</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>45345.62907407407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>45099</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>45238.825625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>45313.60317129629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44881.40414351852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45566</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44909</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>45446.6730787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44784.43820601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44824.50174768519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>45572.35760416667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44714.44008101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>45085.54883101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>45702.5430324074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>45818.55997685185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>45818.56096064814</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>45337</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>45818.55596064815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45818.55798611111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45884.54458333334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44980.41365740741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>45244.35234953704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>45821.31986111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>45625.47077546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>45456</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>45419.43511574074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45826.29282407407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45831.47098379629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45897.53482638889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45896.43144675926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45896.44113425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45896.44429398148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>45896.41814814815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>45896.41945601852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45667.66609953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45062.36817129629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>45903.59125</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>45902.60028935185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>45905.60494212963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>45058.60979166667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45646.61444444444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>45348</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>45917.4165625</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>45917.40004629629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45917.40295138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>45917.41353009259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>45274</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>45917.40908564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44784.4495949074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45917.42443287037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45917.4290625</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44838.66666666666</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45918.4284375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>45922.61059027778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>45743.76568287037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>45923.43152777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>45747.50989583333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>45924.34196759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>45866.53873842592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>45924.60802083334</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>45929.5359375</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>45930.56956018518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44587.46003472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45399.66299768518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45399.66778935185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45390</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>45471</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>45931.76866898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44587.45909722222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>45932</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44769</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45134.47034722222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>45337</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45602.92913194445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45938.41451388889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>45636.60099537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>45096.52827546297</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45943.63825231481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>45943.640625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45943.57131944445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>45649.34305555555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>45134.48231481481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>45946.64501157407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>45946</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>45946.63685185185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>45571.59386574074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>45589</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>45030</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>45958.89180555556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>45672.69664351852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>44630.62471064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44550</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45961.38677083333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>45964.63546296296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>45965.5700462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>45966.77891203704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>45419.44590277778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>45971.48627314815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>45930</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>45971.3446412037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44659</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>45971.34190972222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>45582.6306712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45287</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45975</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45974</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45978.56734953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>45978.59846064815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>45001</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45978.44703703704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44722.551875</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44973</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45382.87498842592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45337</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45001</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45639.5343287037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44419</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44419</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45993.7368287037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45281.5049537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45994.74658564815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45994.74046296296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>46035.84706018519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45764</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45427</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>46000.46729166667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44642.42333333333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>46044.69524305555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45475.59787037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45764.42244212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>46045</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45034.65365740741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>46007.46944444445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45427.62200231481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44930.35895833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>46055.61503472222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44746.58916666666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45730.38883101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44747.55924768518</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>46057.441875</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>46035</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>46035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>46035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>46035</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45348.64657407408</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>46035</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45034</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45043.65006944445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45397.90431712963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45047</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>46024.63701388889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45256</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45134.43918981482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45594.68315972222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44433</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45134</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>46070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45211</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>45246</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44645.37586805555</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>45411.65899305556</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45215</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45337</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45589</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45244.46680555555</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45239.54755787037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45077.62905092593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>44965.39467592593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45307.45815972222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45056</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45558.64363425926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45624.31143518518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>44930.40255787037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>44501.79969907407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>44501</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>45294.3707175926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>44788</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>45581.80997685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>44966.87815972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>45014</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>45244</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>45244</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>45571.62708333333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>45134.41664351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>45592.77157407408</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45555.44511574074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45786.41207175926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>44361</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45721.43710648148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45565.72832175926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45733.57016203704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>45790</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>45742.66047453704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>45735.42291666667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         <v>45736.8315162037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>45736.9021875</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>45728</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45798.45908564814</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45799.51231481481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45799.4587962963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45799.49961805555</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45799.51752314815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45798.44802083333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45798.46579861111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45799.51355324074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>45803.47547453704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45805</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>45589.49070601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45582.62592592592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45582.62986111111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45811.5890625</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45328</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45603</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45728.30768518519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45721.423125</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45817.42643518518</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>45238.82357638889</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44438</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45811.62898148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45373.61430555556</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45250</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>45040</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44886</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44753.32848379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44349.40521990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44563.73993055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44314.4852662037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44488</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44280</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44693.66460648148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44642.43065972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44642.44318287037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44628.42969907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44753.39418981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44628.43050925926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44693.6590625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44650</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44753</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44635.66027777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>45592.75105324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>45517</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45057</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>45545.79484953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>45418.59761574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>45751.51493055555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>44683</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>44929</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>45187</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>45399.66082175926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45399</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>45345.62907407407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>45099</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>45238.825625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>45313.60317129629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44881.40414351852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45566</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44909</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>45446.6730787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44784.43820601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44824.50174768519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>45572.35760416667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>44714.44008101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>45085.54883101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>45702.5430324074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>45818.55997685185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>45818.56096064814</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>45337</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44623</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>45818.55596064815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>45818.55798611111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45884.54458333334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44980.41365740741</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>45244.35234953704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>45821.31986111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>45625.47077546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>45456</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>45419.43511574074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45826.29282407407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45831.47098379629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45897.53482638889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45896.43144675926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45896.44113425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45896.44429398148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>45896.41814814815</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>45896.41945601852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>45667.66609953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45062.36817129629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>45903.59125</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>45902.60028935185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>45905.60494212963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>45058.60979166667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>45646.61444444444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>44606</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>45348</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>45917.4165625</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>45917.40004629629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45917.40295138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>45917.41353009259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>45274</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>45917.40908564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>44784.4495949074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45917.42443287037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>45917.4290625</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44838.66666666666</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>45918.4284375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>45922.61059027778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>45743.76568287037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>45923.43152777778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>45747.50989583333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>45924.34196759259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>45866.53873842592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>45924.60802083334</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>45929.5359375</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>45930.56956018518</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44587.46003472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45399.66299768518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45399.66778935185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45390</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>45471</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>45931.76866898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44587.45909722222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>45932</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44769</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45134.47034722222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>45337</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45602.92913194445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45938.41451388889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>45636.60099537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>45096.52827546297</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45943.63825231481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>45943.640625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45943.57131944445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>45649.34305555555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>45134.48231481481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>45946.64501157407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>45946</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>45946.63685185185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>45571.59386574074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>45589</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>45030</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>45958.89180555556</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>45672.69664351852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>44630.62471064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44550</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45961.38677083333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>45964.63546296296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>45965.5700462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>45966.77891203704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>45419.44590277778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>45971.48627314815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>45930</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>45971.3446412037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44659</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>45971.34190972222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>45582.6306712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45287</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45975</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45974</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45978.56734953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>45978.59846064815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>45001</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45978.44703703704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44722.551875</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44973</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45382.87498842592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45337</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45001</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45639.5343287037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44419</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44419</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45993.7368287037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45281.5049537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45994.74658564815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45994.74046296296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>46035.84706018519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45764</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45427</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>46000.46729166667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44642.42333333333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>46044.69524305555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45475.59787037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45764.42244212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>46045</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45034.65365740741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>46007.46944444445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45427.62200231481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>44930.35895833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45040</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>46055.61503472222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44746.58916666666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>45730.38883101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44747.55924768518</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>46057.441875</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>44978</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>46035</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>46035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>46035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>44333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>46035</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45348.64657407408</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>46035</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45034</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45043.65006944445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45397.90431712963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45047</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>46024.63701388889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45256</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45134.43918981482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45594.68315972222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44433</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45134</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>46070</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45211</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>45246</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44645.37586805555</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>45411.65899305556</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45215</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45337</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45589</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45244.46680555555</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45239.54755787037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45077.62905092593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>44965.39467592593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45307.45815972222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45056</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>45558.64363425926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>45624.31143518518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>44930.40255787037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>44501.79969907407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>44501</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>45294.3707175926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>44788</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>45581.80997685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>44966.87815972222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>45014</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>45244</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>45244</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>45571.62708333333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>45134.41664351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>45592.77157407408</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45555.44511574074</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45786.41207175926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>44361</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45721.43710648148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45565.72832175926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45733.57016203704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>45790</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>45742.66047453704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>45735.42291666667</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         <v>45736.8315162037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17500,7 +17500,7 @@
         <v>45736.9021875</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17557,7 +17557,7 @@
         <v>45728</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>45798.45908564814</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>45799.51231481481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>45799.4587962963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45799.49961805555</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>45799.51752314815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>45798.44802083333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         <v>45798.46579861111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
         <v>45799.51355324074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18070,7 +18070,7 @@
         <v>45803.47547453704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45805</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>45589.49070601852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45582.62592592592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45582.62986111111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45811.5890625</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45328</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45603</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45728.30768518519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>45721.423125</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45817.42643518518</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55617-2023</t>
+          <t>A 58292-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45238.82357638889</v>
+        <v>45250</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,23 +1508,23 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
@@ -1532,469 +1532,469 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 58292-2023 artfynd.xlsx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 58292-2023 karta.png", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 58292-2023 FSC-klagomål.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 58292-2023 FSC-klagomål mail.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 58292-2023 tillsynsbegäran.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 58292-2023 tillsynsbegäran mail.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 17920-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45040</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 17920-2023 artfynd.xlsx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 17920-2023 karta.png", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 17920-2023 FSC-klagomål.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 17920-2023 FSC-klagomål mail.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 17920-2023 tillsynsbegäran.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 17920-2023 tillsynsbegäran mail.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 11709-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45373.61430555556</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Gullklöver</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 11709-2024 artfynd.xlsx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 11709-2024 karta.png", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 11709-2024 FSC-klagomål.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 11709-2024 FSC-klagomål mail.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 11709-2024 tillsynsbegäran.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 11709-2024 tillsynsbegäran mail.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 44736-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44438</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 44736-2021 artfynd.xlsx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 44736-2021 karta.png", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 44736-2021 FSC-klagomål.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 44736-2021 FSC-klagomål mail.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 44736-2021 tillsynsbegäran.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 44736-2021 tillsynsbegäran mail.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 27055-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45811.62898148148</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 27055-2025 artfynd.xlsx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 27055-2025 karta.png", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 27055-2025 FSC-klagomål.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 27055-2025 FSC-klagomål mail.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 27055-2025 tillsynsbegäran.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 27055-2025 tillsynsbegäran mail.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 55617-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45238.82357638889</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 55617-2023 artfynd.xlsx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 55617-2023 karta.png", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 55617-2023 FSC-klagomål.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 55617-2023 FSC-klagomål mail.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 55617-2023 tillsynsbegäran.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 55617-2023 tillsynsbegäran mail.docx", "A 55617-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 44736-2021</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44438</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Barkticka</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 44736-2021 artfynd.xlsx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 44736-2021 karta.png", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 44736-2021 FSC-klagomål.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 44736-2021 FSC-klagomål mail.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 44736-2021 tillsynsbegäran.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 44736-2021 tillsynsbegäran mail.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 27055-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45811.62898148148</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Barkticka</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 27055-2025 artfynd.xlsx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 27055-2025 karta.png", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 27055-2025 FSC-klagomål.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 27055-2025 FSC-klagomål mail.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 27055-2025 tillsynsbegäran.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 27055-2025 tillsynsbegäran mail.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 11709-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45373.61430555556</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gullklöver</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 11709-2024 artfynd.xlsx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 11709-2024 karta.png", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 11709-2024 FSC-klagomål.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 11709-2024 FSC-klagomål mail.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 11709-2024 tillsynsbegäran.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 11709-2024 tillsynsbegäran mail.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 58292-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45250</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>19</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ask</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 58292-2023 artfynd.xlsx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 58292-2023 karta.png", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 58292-2023 FSC-klagomål.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 58292-2023 FSC-klagomål mail.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 58292-2023 tillsynsbegäran.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 58292-2023 tillsynsbegäran mail.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 17920-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45040</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 17920-2023 artfynd.xlsx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 17920-2023 karta.png", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 17920-2023 FSC-klagomål.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 17920-2023 FSC-klagomål mail.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 17920-2023 tillsynsbegäran.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 17920-2023 tillsynsbegäran mail.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44886</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44753.32848379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2345,14 +2345,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 416-2022</t>
+          <t>A 46722-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44565.84197916667</v>
+        <v>44851.40767361111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2402,14 +2402,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 10333-2021</t>
+          <t>A 416-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44257</v>
+        <v>44565.84197916667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,14 +2516,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 46722-2022</t>
+          <t>A 10333-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44851.40767361111</v>
+        <v>44257</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,14 +2630,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 34383-2022</t>
+          <t>A 29368-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44792</v>
+        <v>44753</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2649,8 +2649,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2687,14 +2692,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 29368-2022</t>
+          <t>A 46424-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44753</v>
+        <v>44442</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2706,13 +2711,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2749,14 +2749,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 46424-2021</t>
+          <t>A 48115-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44442</v>
+        <v>44857</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>23.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2806,14 +2806,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 48115-2022</t>
+          <t>A 29383-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44857</v>
+        <v>44361.47685185185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>23.4</v>
+        <v>0.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2863,14 +2863,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 29383-2021</t>
+          <t>A 29352-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44361.47685185185</v>
+        <v>44753.35193287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2920,14 +2920,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 29352-2022</t>
+          <t>A 58301-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44753.35193287037</v>
+        <v>44488</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2977,14 +2977,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 29755-2021</t>
+          <t>A 14708-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3034,14 +3034,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26740-2021</t>
+          <t>A 29755-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44349.40521990741</v>
+        <v>44362</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.3</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3098,7 +3098,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44563.73993055556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3210,14 +3210,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20138-2021</t>
+          <t>A 3465-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44314.4852662037</v>
+        <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 58301-2021</t>
+          <t>A 26740-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44488</v>
+        <v>44349.40521990741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>10.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14708-2021</t>
+          <t>A 20138-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44280</v>
+        <v>44314.4852662037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3381,14 +3381,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3465-2022</t>
+          <t>A 19561-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44585</v>
+        <v>44693.66460648148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3495,14 +3495,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19561-2022</t>
+          <t>A 12828-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44693.66460648148</v>
+        <v>44642.43065972222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3552,14 +3552,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12828-2022</t>
+          <t>A 12836-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44642.43065972222</v>
+        <v>44642.44318287037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3609,14 +3609,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12836-2022</t>
+          <t>A 34592-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44642.44318287037</v>
+        <v>44382</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3628,8 +3628,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.2</v>
+        <v>12.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3666,14 +3671,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34592-2021</t>
+          <t>A 34593-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3691,7 +3696,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>12.5</v>
+        <v>6.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3728,14 +3733,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 34593-2021</t>
+          <t>A 29371-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44382</v>
+        <v>44753.39418981481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3753,7 +3758,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3790,14 +3795,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10976-2022</t>
+          <t>A 60987-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44628.42969907408</v>
+        <v>44497</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3810,7 +3815,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3847,14 +3852,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29371-2022</t>
+          <t>A 61042-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44753.39418981481</v>
+        <v>44497</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,13 +3871,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3909,14 +3909,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61042-2021</t>
+          <t>A 10977-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44497</v>
+        <v>44628.43050925926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3966,14 +3966,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60987-2021</t>
+          <t>A 34383-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44497</v>
+        <v>44792</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4023,14 +4023,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 10977-2022</t>
+          <t>A 10976-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44628.43050925926</v>
+        <v>44628.42969907408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4080,14 +4080,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 18157-2022</t>
+          <t>A 13923-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44684</v>
+        <v>44650</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4099,8 +4099,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>6.3</v>
+        <v>0.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4137,14 +4142,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19559-2022</t>
+          <t>A 34598-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44693.6590625</v>
+        <v>44382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4156,8 +4161,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4194,14 +4204,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2377-2022</t>
+          <t>A 29373-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44579</v>
+        <v>44753</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4213,8 +4223,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>12.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4251,14 +4266,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13923-2022</t>
+          <t>A 22557-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44650</v>
+        <v>44322</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4270,13 +4285,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4313,14 +4323,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 34598-2021</t>
+          <t>A 18157-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44382</v>
+        <v>44684</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4332,13 +4342,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4375,14 +4380,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 29373-2022</t>
+          <t>A 34595-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44753</v>
+        <v>44382</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4400,7 +4405,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4437,14 +4442,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22557-2021</t>
+          <t>A 19559-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44322</v>
+        <v>44693.6590625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4457,7 +4462,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4494,14 +4499,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34595-2021</t>
+          <t>A 2377-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44382</v>
+        <v>44579</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4513,13 +4518,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>44635.66027777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4784,14 +4784,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48494-2024</t>
+          <t>A 58704-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45592.75105324074</v>
+        <v>44489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4841,14 +4841,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33033-2024</t>
+          <t>A 20584-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45517</v>
+        <v>45057</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20584-2023</t>
+          <t>A 33476-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45057</v>
+        <v>44788</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4955,14 +4955,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38360-2024</t>
+          <t>A 59745-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45545.79484953704</v>
+        <v>45639.5343287037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5012,14 +5012,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17749-2024</t>
+          <t>A 14798-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45418.59761574074</v>
+        <v>45397.90431712963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5031,8 +5031,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>8.4</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5065,18 +5070,38 @@
         <v>0</v>
       </c>
       <c r="R70" s="2" t="inlineStr"/>
+      <c r="U70">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="V70">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="W70">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="X70">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y70">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16452-2025</t>
+          <t>A 12610-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45751.51493055555</v>
+        <v>45382.87498842592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5089,7 +5114,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5126,14 +5151,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17985-2022</t>
+          <t>A 2146-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44683</v>
+        <v>45672.69664351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5146,7 +5171,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5183,14 +5208,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 369-2023</t>
+          <t>A 14722-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44929</v>
+        <v>45014</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5203,7 +5228,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5240,14 +5265,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43817-2023</t>
+          <t>A 10444-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45187</v>
+        <v>44623</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5260,7 +5285,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5297,14 +5322,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15099-2024</t>
+          <t>A 43799-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45399.66082175926</v>
+        <v>45571.62708333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5317,7 +5342,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5354,14 +5379,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15107-2024</t>
+          <t>A 43856-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45399</v>
+        <v>45572.35760416667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5374,7 +5399,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5411,14 +5436,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 7420-2024</t>
+          <t>A 16747-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45345.62907407407</v>
+        <v>45030</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5456,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5468,14 +5493,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28263-2023</t>
+          <t>A 43621-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45099</v>
+        <v>44433</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5488,7 +5513,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5525,14 +5550,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55618-2023</t>
+          <t>A 17861-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45238.825625</v>
+        <v>45419.43511574074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5545,7 +5570,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5582,14 +5607,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2556-2024</t>
+          <t>A 42698-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45313.60317129629</v>
+        <v>45566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5627,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5639,14 +5664,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 47630-2022</t>
+          <t>A 46523-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44852</v>
+        <v>45582.6306712963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5659,7 +5684,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5696,14 +5721,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34183-2023</t>
+          <t>A 28385-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45138</v>
+        <v>44747.55924768518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5716,7 +5741,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5753,14 +5778,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 54006-2022</t>
+          <t>A 24107-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44881.40414351852</v>
+        <v>45456</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5773,7 +5798,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5810,14 +5835,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 42698-2024</t>
+          <t>A 19133-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45566</v>
+        <v>45764</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5830,7 +5855,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5867,14 +5892,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61409-2022</t>
+          <t>A 49481-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44909</v>
+        <v>45211</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5887,7 +5912,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5924,14 +5949,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 22402-2024</t>
+          <t>A 18715-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45446.6730787037</v>
+        <v>45043.65006944445</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5944,7 +5969,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5981,14 +6006,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32838-2022</t>
+          <t>A 16452-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44784.43820601852</v>
+        <v>45751.51493055555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6001,7 +6026,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6038,14 +6063,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40721-2022</t>
+          <t>A 46520-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44824.50174768519</v>
+        <v>45582</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6058,7 +6083,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6095,14 +6120,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 43856-2024</t>
+          <t>A 20536-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45572.35760416667</v>
+        <v>45057</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6115,7 +6140,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6152,14 +6177,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 22631-2022</t>
+          <t>A 9732-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44714.44008101852</v>
+        <v>44978</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6172,7 +6197,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6209,14 +6234,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24940-2023</t>
+          <t>A 15102-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45085.54883101852</v>
+        <v>45399.66299768518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6229,7 +6254,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6266,14 +6291,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 7243-2025</t>
+          <t>A 12823-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45702.5430324074</v>
+        <v>44642.42333333333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6286,7 +6311,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6323,14 +6348,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28264-2025</t>
+          <t>A 57699-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45818.55997685185</v>
+        <v>45246</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6343,7 +6368,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6380,14 +6405,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28265-2025</t>
+          <t>A 27815-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45818.56096064814</v>
+        <v>45475.59787037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6437,14 +6462,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 6167-2024</t>
+          <t>A 55618-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45337</v>
+        <v>45238.825625</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6457,7 +6482,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6494,14 +6519,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 10444-2022</t>
+          <t>A 17932-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44623</v>
+        <v>45040</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6514,7 +6539,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6551,14 +6576,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28261-2025</t>
+          <t>A 48161-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45818.55596064815</v>
+        <v>45589</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6571,7 +6596,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>42</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6608,14 +6633,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28263-2025</t>
+          <t>A 15108-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45818.55798611111</v>
+        <v>45399.66778935185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6628,7 +6653,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6665,14 +6690,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 38614-2025</t>
+          <t>A 40939-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45884.54458333334</v>
+        <v>45558.64363425926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6685,7 +6710,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6722,14 +6747,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 9169-2023</t>
+          <t>A 22631-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44980.41365740741</v>
+        <v>44714.44008101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6742,7 +6767,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6779,14 +6804,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 56734-2023</t>
+          <t>A 2556-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45244.35234953704</v>
+        <v>45313.60317129629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6799,7 +6824,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6836,14 +6861,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28960-2025</t>
+          <t>A 48163-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45821.31986111111</v>
+        <v>45589</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6856,7 +6881,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>14.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6893,14 +6918,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 56480-2024</t>
+          <t>A 17749-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45625.47077546296</v>
+        <v>45418.59761574074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6913,7 +6938,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6950,14 +6975,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24107-2024</t>
+          <t>A 33912-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45456</v>
+        <v>45134.41664351852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6970,7 +6995,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7007,14 +7032,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 17861-2024</t>
+          <t>A 23441-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45419.43511574074</v>
+        <v>44333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7027,7 +7052,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7064,14 +7089,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29840-2025</t>
+          <t>A 7640-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45826.29282407407</v>
+        <v>45348.64657407408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7084,7 +7109,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7121,14 +7146,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30621-2025</t>
+          <t>A 20793-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45831.47098379629</v>
+        <v>45058.60979166667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7141,7 +7166,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7178,14 +7203,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40844-2025</t>
+          <t>A 65120-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45897.53482638889</v>
+        <v>45287</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7198,7 +7223,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>11.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7235,14 +7260,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 40544-2025</t>
+          <t>A 56734-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45896.43144675926</v>
+        <v>45244.35234953704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7255,7 +7280,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7292,14 +7317,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40550-2025</t>
+          <t>A 33942-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45896.44113425926</v>
+        <v>45134</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7337,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7349,14 +7374,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40553-2025</t>
+          <t>A 7590-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45896.44429398148</v>
+        <v>45348</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7394,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7406,14 +7431,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40538-2025</t>
+          <t>A 16551-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45896.41814814815</v>
+        <v>45408</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7426,7 +7451,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>6.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7463,14 +7488,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40539-2025</t>
+          <t>A 28263-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45896.41945601852</v>
+        <v>45099</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7483,7 +7508,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7520,14 +7545,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 1385-2025</t>
+          <t>A 34183-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45667.66609953704</v>
+        <v>45138</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7540,7 +7565,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7577,14 +7602,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 21140-2023</t>
+          <t>A 16922-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45062.36817129629</v>
+        <v>45411.65899305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7597,7 +7622,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7634,14 +7659,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 42021-2025</t>
+          <t>A 56829-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45903.59125</v>
+        <v>45244.46680555555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7654,7 +7679,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7691,14 +7716,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41795-2025</t>
+          <t>A 43817-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45902.60028935185</v>
+        <v>45187</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7711,7 +7736,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7748,14 +7773,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 42566-2025</t>
+          <t>A 7243-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45905.60494212963</v>
+        <v>45702.5430324074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7768,7 +7793,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7805,14 +7830,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20793-2023</t>
+          <t>A 22402-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45058.60979166667</v>
+        <v>45446.6730787037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7825,7 +7850,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7862,14 +7887,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61566-2024</t>
+          <t>A 13698-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45646.61444444444</v>
+        <v>45390</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7882,7 +7907,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7919,14 +7944,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7605-2022</t>
+          <t>A 23862-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44606</v>
+        <v>44722.551875</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7939,7 +7964,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7.1</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7976,14 +8001,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 32666-2025</t>
+          <t>A 6179-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45838</v>
+        <v>45337</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7996,7 +8021,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8033,14 +8058,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7590-2024</t>
+          <t>A 40721-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45348</v>
+        <v>44824.50174768519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8053,7 +8078,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8090,14 +8115,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44588-2025</t>
+          <t>A 61825-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45917.4165625</v>
+        <v>44501.79969907407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8110,7 +8135,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8147,14 +8172,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44575-2025</t>
+          <t>A 61826-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45917.40004629629</v>
+        <v>44501</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8167,7 +8192,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8204,14 +8229,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44578-2025</t>
+          <t>A 73226-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45917.40295138889</v>
+        <v>44550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8224,7 +8249,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8261,14 +8286,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44584-2025</t>
+          <t>A 1749-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45917.41353009259</v>
+        <v>45307.45815972222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8318,14 +8343,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 63509-2023</t>
+          <t>A 6140-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45274</v>
+        <v>45337</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8338,7 +8363,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.4</v>
+        <v>12.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8375,14 +8400,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 44583-2025</t>
+          <t>A 38360-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45917.40908564815</v>
+        <v>45545.79484953704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8395,7 +8420,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8432,14 +8457,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 32843-2022</t>
+          <t>A 27181-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44784.4495949074</v>
+        <v>45096.52827546297</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8452,7 +8477,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8489,14 +8514,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44589-2025</t>
+          <t>A 56029-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45917.42443287037</v>
+        <v>45624.31143518518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8509,7 +8534,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8546,14 +8571,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44597-2025</t>
+          <t>A 46320-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45917.4290625</v>
+        <v>45581.80997685185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8566,7 +8591,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8603,14 +8628,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43987-2022</t>
+          <t>A 9169-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44838.66666666666</v>
+        <v>44980.41365740741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8623,7 +8648,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8660,14 +8685,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44841-2025</t>
+          <t>A 120-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45918.4284375</v>
+        <v>45294.3707175926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8680,7 +8705,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8717,14 +8742,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45537-2025</t>
+          <t>A 59692-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45922.61059027778</v>
+        <v>45256</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8737,7 +8762,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8774,14 +8799,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 15067-2025</t>
+          <t>A 7795-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45743.76568287037</v>
+        <v>44973</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8794,7 +8819,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8831,14 +8856,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45712-2025</t>
+          <t>A 64606-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45923.43152777778</v>
+        <v>45281.5049537037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8851,7 +8876,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>7.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8888,14 +8913,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 15458-2025</t>
+          <t>A 50939-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45747.50989583333</v>
+        <v>45602.92913194445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8908,7 +8933,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8945,14 +8970,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45950-2025</t>
+          <t>A 18997-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45924.34196759259</v>
+        <v>45427.62200231481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8965,7 +8990,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9002,14 +9027,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 36101-2025</t>
+          <t>A 6167-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45866.53873842592</v>
+        <v>45337</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9022,7 +9047,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9059,14 +9084,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46145-2025</t>
+          <t>A 40223-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45924.60802083334</v>
+        <v>44419</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9078,8 +9103,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9116,14 +9146,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26025-2025</t>
+          <t>A 40226-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45804</v>
+        <v>44419</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9135,8 +9165,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9173,14 +9208,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 46986-2025</t>
+          <t>A 47630-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45929.5359375</v>
+        <v>44852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9193,7 +9228,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9230,14 +9265,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47342-2025</t>
+          <t>A 31051-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45930.56956018518</v>
+        <v>44769</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9250,7 +9285,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9287,14 +9322,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 3884-2022</t>
+          <t>A 18937-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44587.46003472222</v>
+        <v>45427</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9307,7 +9342,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9344,14 +9379,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 15102-2024</t>
+          <t>A 61731-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45399.66299768518</v>
+        <v>45649.34305555555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9364,7 +9399,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9401,14 +9436,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 15108-2024</t>
+          <t>A 7420-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45399.66778935185</v>
+        <v>45345.62907407407</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9421,7 +9456,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9458,14 +9493,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13698-2024</t>
+          <t>A 56480-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45390</v>
+        <v>45625.47077546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9478,7 +9513,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9515,14 +9550,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 27232-2024</t>
+          <t>A 15099-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45471</v>
+        <v>45399.66082175926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9535,7 +9570,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9572,14 +9607,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 47783-2025</t>
+          <t>A 15107-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45931.76866898148</v>
+        <v>45399</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9592,7 +9627,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9629,14 +9664,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 3880-2022</t>
+          <t>A 55794-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44587.45909722222</v>
+        <v>45239.54755787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9649,7 +9684,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9686,14 +9721,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48036-2025</t>
+          <t>A 33915-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45932</v>
+        <v>45134.43918981482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,14 +9778,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 31051-2022</t>
+          <t>A 58972-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44769</v>
+        <v>45636.60099537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9763,7 +9798,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9800,14 +9835,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 33921-2023</t>
+          <t>A 61566-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45134.47034722222</v>
+        <v>45646.61444444444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9820,7 +9855,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9857,14 +9892,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6140-2024</t>
+          <t>A 43987-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45337</v>
+        <v>44838.66666666666</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9877,7 +9912,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>12.8</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9914,14 +9949,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50939-2024</t>
+          <t>A 32838-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45602.92913194445</v>
+        <v>44784.43820601852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9934,7 +9969,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9971,14 +10006,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 49201-2025</t>
+          <t>A 40553-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45938.41451388889</v>
+        <v>45896.44429398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9991,7 +10026,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10028,14 +10063,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58972-2024</t>
+          <t>A 40538-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45636.60099537037</v>
+        <v>45896.41814814815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10048,7 +10083,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10085,14 +10120,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 27181-2023</t>
+          <t>A 40539-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45096.52827546297</v>
+        <v>45896.41945601852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10105,7 +10140,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10142,14 +10177,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 58704-2021</t>
+          <t>A 505-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44489</v>
+        <v>44930.35895833333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10162,7 +10197,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10199,14 +10234,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 50192-2025</t>
+          <t>A 40544-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45943.63825231481</v>
+        <v>45896.43144675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10219,7 +10254,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>15.8</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10256,14 +10291,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50193-2025</t>
+          <t>A 40550-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45943.640625</v>
+        <v>45896.44113425926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10276,7 +10311,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10313,14 +10348,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 50145-2025</t>
+          <t>A 19051-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45943.57131944445</v>
+        <v>45047</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10333,7 +10368,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.3</v>
+        <v>6.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10370,14 +10405,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61731-2024</t>
+          <t>A 54006-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45649.34305555555</v>
+        <v>44881.40414351852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10390,7 +10425,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10427,14 +10462,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 33925-2023</t>
+          <t>A 17985-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45134.48231481481</v>
+        <v>44683</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10447,7 +10482,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10484,14 +10519,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50901-2025</t>
+          <t>A 6270-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45946.64501157407</v>
+        <v>44965.39467592593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10504,7 +10539,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10541,14 +10576,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 50884-2025</t>
+          <t>A 40844-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45946</v>
+        <v>45897.53482638889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10561,7 +10596,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10598,14 +10633,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 50891-2025</t>
+          <t>A 63509-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45946.63685185185</v>
+        <v>45274</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10618,7 +10653,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10655,14 +10690,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 43798-2024</t>
+          <t>A 41795-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45571.59386574074</v>
+        <v>45902.60028935185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10675,7 +10710,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10712,14 +10747,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 48161-2024</t>
+          <t>A 42021-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45589</v>
+        <v>45903.59125</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10732,7 +10767,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>42</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10769,14 +10804,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 16747-2023</t>
+          <t>A 13334-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45030</v>
+        <v>44645.37586805555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10789,7 +10824,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10826,14 +10861,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 53296-2025</t>
+          <t>A 42566-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45958.89180555556</v>
+        <v>45905.60494212963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10846,7 +10881,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10883,14 +10918,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2146-2025</t>
+          <t>A 20280-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45672.69664351852</v>
+        <v>45056</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10903,7 +10938,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10940,14 +10975,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 11439-2022</t>
+          <t>A 24940-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44630.62471064815</v>
+        <v>45085.54883101852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10960,7 +10995,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>10.6</v>
+        <v>4.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10997,14 +11032,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 73226-2021</t>
+          <t>A 33921-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44550</v>
+        <v>45134.47034722222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11017,7 +11052,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11054,14 +11089,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 53869-2025</t>
+          <t>A 48494-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45961.38677083333</v>
+        <v>45592.75105324074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11073,13 +11108,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11116,14 +11146,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 54244-2025</t>
+          <t>A 12853-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45964.63546296296</v>
+        <v>45001</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11136,7 +11166,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11173,14 +11203,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 54467-2025</t>
+          <t>A 21140-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45965.5700462963</v>
+        <v>45062.36817129629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11193,7 +11223,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>13.4</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11230,14 +11260,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 54863-2025</t>
+          <t>A 6752-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45966.77891203704</v>
+        <v>44966.87815972222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11250,7 +11280,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11287,14 +11317,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 17871-2024</t>
+          <t>A 44589-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45419.44590277778</v>
+        <v>45917.42443287037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11307,7 +11337,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11344,14 +11374,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 55439-2025</t>
+          <t>A 44841-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45971.48627314815</v>
+        <v>45918.4284375</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11364,7 +11394,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11401,14 +11431,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47523-2025</t>
+          <t>A 44583-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45930</v>
+        <v>45917.40908564815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11421,7 +11451,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11458,14 +11488,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 55336-2025</t>
+          <t>A 44588-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45971.3446412037</v>
+        <v>45917.4165625</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11478,7 +11508,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11515,14 +11545,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 15309-2022</t>
+          <t>A 44597-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44659</v>
+        <v>45917.4290625</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11535,7 +11565,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11572,14 +11602,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 55331-2025</t>
+          <t>A 44578-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45971.34190972222</v>
+        <v>45917.40295138889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11592,7 +11622,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11629,14 +11659,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 46523-2024</t>
+          <t>A 44584-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45582.6306712963</v>
+        <v>45917.41353009259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11649,7 +11679,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11686,14 +11716,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 5009-2025</t>
+          <t>A 44575-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45691</v>
+        <v>45917.40004629629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11706,7 +11736,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11743,14 +11773,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 65120-2023</t>
+          <t>A 45537-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45287</v>
+        <v>45922.61059027778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11763,7 +11793,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>11.4</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11800,14 +11830,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 56886-2025</t>
+          <t>A 17172-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45975</v>
+        <v>45034.65365740741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11820,7 +11850,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11857,14 +11887,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 56259-2025</t>
+          <t>A 32843-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45974</v>
+        <v>44784.4495949074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11877,7 +11907,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11914,14 +11944,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 56261-2025</t>
+          <t>A 46145-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45974</v>
+        <v>45924.60802083334</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11934,7 +11964,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11971,14 +12001,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56893-2025</t>
+          <t>A 28190-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45978.56734953704</v>
+        <v>44746.58916666666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11991,7 +12021,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12028,14 +12058,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 56922-2025</t>
+          <t>A 45712-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45978.59846064815</v>
+        <v>45923.43152777778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12048,7 +12078,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12085,14 +12115,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 12910-2023</t>
+          <t>A 45950-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45001</v>
+        <v>45924.34196759259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12105,7 +12135,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12142,14 +12172,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 56805-2025</t>
+          <t>A 39899-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45978.44703703704</v>
+        <v>45166</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12162,7 +12192,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>12.1</v>
+        <v>15.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12199,14 +12229,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 23862-2022</t>
+          <t>A 12910-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44722.551875</v>
+        <v>45001</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12219,7 +12249,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12256,14 +12286,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 7795-2023</t>
+          <t>A 6172-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44973</v>
+        <v>45337</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12276,7 +12306,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12313,14 +12343,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 12610-2024</t>
+          <t>A 46986-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45382.87498842592</v>
+        <v>45929.5359375</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12333,7 +12363,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12370,14 +12400,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 6172-2024</t>
+          <t>A 47342-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45337</v>
+        <v>45930.56956018518</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,7 +12420,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12427,14 +12457,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 12853-2023</t>
+          <t>A 47783-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45001</v>
+        <v>45931.76866898148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,7 +12477,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12484,14 +12514,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59745-2024</t>
+          <t>A 33925-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45639.5343287037</v>
+        <v>45134.48231481481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12504,7 +12534,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12541,14 +12571,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 40223-2021</t>
+          <t>A 18855-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44419</v>
+        <v>45764.42244212963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12560,13 +12590,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12603,14 +12628,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 40226-2021</t>
+          <t>A 48036-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44419</v>
+        <v>45932</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12622,13 +12647,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12665,14 +12685,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 60095-2025</t>
+          <t>A 3880-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45993.7368287037</v>
+        <v>44587.45909722222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12685,7 +12705,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12722,14 +12742,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 64606-2023</t>
+          <t>A 27232-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45281.5049537037</v>
+        <v>45471</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12742,7 +12762,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12779,14 +12799,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 60328-2025</t>
+          <t>A 3884-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45994.74658564815</v>
+        <v>44587.46003472222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12799,7 +12819,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>8.9</v>
+        <v>1.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12836,14 +12856,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60325-2025</t>
+          <t>A 15309-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45994.74046296296</v>
+        <v>44659</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12856,7 +12876,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>11.5</v>
+        <v>0.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12893,14 +12913,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 2050-2026</t>
+          <t>A 11439-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46035.84706018519</v>
+        <v>44630.62471064815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12913,7 +12933,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>10.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12950,14 +12970,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 19133-2025</t>
+          <t>A 49201-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45764</v>
+        <v>45938.41451388889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12970,7 +12990,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13007,14 +13027,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 18937-2024</t>
+          <t>A 33033-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45427</v>
+        <v>45517</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13047,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13064,14 +13084,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 61120-2025</t>
+          <t>A 49131-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46000.46729166667</v>
+        <v>45594.68315972222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13104,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13121,14 +13141,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 12823-2022</t>
+          <t>A 50192-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44642.42333333333</v>
+        <v>45943.63825231481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13161,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.9</v>
+        <v>15.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13178,14 +13198,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 4195-2026</t>
+          <t>A 50193-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46044.69524305555</v>
+        <v>45943.640625</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13218,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13235,14 +13255,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16551-2024</t>
+          <t>A 61409-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45408</v>
+        <v>44909</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13255,7 +13275,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13292,14 +13312,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 27815-2024</t>
+          <t>A 50145-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45475.59787037037</v>
+        <v>45943.57131944445</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13312,7 +13332,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13349,14 +13369,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 18855-2025</t>
+          <t>A 50884-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45764.42244212963</v>
+        <v>45946</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13369,7 +13389,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13406,14 +13426,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 4910-2026</t>
+          <t>A 50901-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46045</v>
+        <v>45946.64501157407</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13426,7 +13446,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13463,14 +13483,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 17172-2023</t>
+          <t>A 50891-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45034.65365740741</v>
+        <v>45946.63685185185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13483,7 +13503,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13520,14 +13540,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 62439-2025</t>
+          <t>A 48496-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46007.46944444445</v>
+        <v>45592.77157407408</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13540,7 +13560,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13577,14 +13597,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 18997-2024</t>
+          <t>A 1385-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45427.62200231481</v>
+        <v>45667.66609953704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13597,7 +13617,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13634,14 +13654,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 505-2023</t>
+          <t>A 56725-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44930.35895833333</v>
+        <v>45244</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13654,7 +13674,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13691,14 +13711,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 17932-2023</t>
+          <t>A 56739-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45040</v>
+        <v>45244</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13711,7 +13731,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13748,14 +13768,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 6356-2026</t>
+          <t>A 17871-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46055.61503472222</v>
+        <v>45419.44590277778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13768,7 +13788,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13805,14 +13825,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 28190-2022</t>
+          <t>A 50002-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44746.58916666666</v>
+        <v>45215</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13845,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13869,7 +13889,7 @@
         <v>45730.38883101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13924,14 +13944,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 20536-2023</t>
+          <t>A 53296-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45057</v>
+        <v>45958.89180555556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13944,7 +13964,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13981,14 +14001,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 28385-2022</t>
+          <t>A 54244-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44747.55924768518</v>
+        <v>45964.63546296296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14001,7 +14021,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14038,14 +14058,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 6865-2026</t>
+          <t>A 53869-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46057.441875</v>
+        <v>45961.38677083333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14057,8 +14077,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14095,14 +14120,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 9732-2023</t>
+          <t>A 369-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44978</v>
+        <v>44929</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14115,7 +14140,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14152,14 +14177,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 1920-2026</t>
+          <t>A 54467-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46035</v>
+        <v>45965.5700462963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14172,7 +14197,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.9</v>
+        <v>13.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14209,14 +14234,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 1925-2026</t>
+          <t>A 519-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46035</v>
+        <v>44930.40255787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14229,7 +14254,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14266,14 +14291,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 1933-2026</t>
+          <t>A 54863-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46035</v>
+        <v>45966.77891203704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14286,7 +14311,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14323,14 +14348,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 23441-2021</t>
+          <t>A 43798-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44333</v>
+        <v>45571.59386574074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14343,7 +14368,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14380,14 +14405,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 1937-2026</t>
+          <t>A 55331-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46035</v>
+        <v>45971.34190972222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14399,13 +14424,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14442,14 +14462,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7640-2024</t>
+          <t>A 23700-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45348.64657407408</v>
+        <v>45077.62905092593</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14462,7 +14482,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14499,14 +14519,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 1930-2026</t>
+          <t>A 55336-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46035</v>
+        <v>45971.3446412037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14519,7 +14539,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14556,14 +14576,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 17077-2023</t>
+          <t>A 55439-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45034</v>
+        <v>45971.48627314815</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14576,7 +14596,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14613,14 +14633,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 46520-2024</t>
+          <t>A 47523-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45582</v>
+        <v>45930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14633,7 +14653,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14670,14 +14690,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 18715-2023</t>
+          <t>A 56261-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45043.65006944445</v>
+        <v>45974</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14690,7 +14710,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14727,14 +14747,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 14798-2024</t>
+          <t>A 5009-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45397.90431712963</v>
+        <v>45691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14746,13 +14766,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14785,38 +14800,18 @@
         <v>0</v>
       </c>
       <c r="R240" s="2" t="inlineStr"/>
-      <c r="U240">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="V240">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="W240">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="X240">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y240">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 19051-2023</t>
+          <t>A 56259-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45047</v>
+        <v>45974</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14824,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14866,14 +14861,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 146-2026</t>
+          <t>A 17077-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46024.63701388889</v>
+        <v>45034</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14881,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14923,14 +14918,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 59692-2023</t>
+          <t>A 56922-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45256</v>
+        <v>45978.59846064815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14943,7 +14938,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14980,14 +14975,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 33915-2023</t>
+          <t>A 56805-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45134.43918981482</v>
+        <v>45978.44703703704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +14995,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.7</v>
+        <v>12.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15037,14 +15032,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 49131-2024</t>
+          <t>A 56886-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45594.68315972222</v>
+        <v>45975</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15052,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15094,14 +15089,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 43621-2021</t>
+          <t>A 56893-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44433</v>
+        <v>45978.56734953704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15109,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15151,14 +15146,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 33942-2023</t>
+          <t>A 40399-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45134</v>
+        <v>45555.44511574074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15171,7 +15166,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15208,14 +15203,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 9289-2026</t>
+          <t>A 60325-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46070</v>
+        <v>45994.74046296296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15227,13 +15222,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15270,14 +15260,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 49481-2023</t>
+          <t>A 60095-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45211</v>
+        <v>45993.7368287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15290,7 +15280,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15327,14 +15317,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 57699-2023</t>
+          <t>A 60328-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45246</v>
+        <v>45994.74658564815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15347,7 +15337,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>4</v>
+        <v>8.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15384,14 +15374,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 13334-2022</t>
+          <t>A 22326-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44645.37586805555</v>
+        <v>45786.41207175926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15404,7 +15394,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15441,14 +15431,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 39899-2023</t>
+          <t>A 2050-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45166</v>
+        <v>46035.84706018519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15461,7 +15451,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>15.6</v>
+        <v>1.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15498,14 +15488,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 16922-2024</t>
+          <t>A 23060-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45411.65899305556</v>
+        <v>45790</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15518,7 +15508,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15555,14 +15545,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 50002-2023</t>
+          <t>A 29371-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45215</v>
+        <v>44361</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15575,7 +15565,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15612,14 +15602,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 6179-2024</t>
+          <t>A 10525-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45337</v>
+        <v>45721.43710648148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15632,7 +15622,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15669,14 +15659,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 48163-2024</t>
+          <t>A 42605-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45589</v>
+        <v>45565.72832175926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15689,7 +15679,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>14.4</v>
+        <v>2.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15726,14 +15716,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 56829-2023</t>
+          <t>A 13666-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45244.46680555555</v>
+        <v>45736.8315162037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15746,7 +15736,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15783,14 +15773,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 55794-2023</t>
+          <t>A 13674-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45239.54755787037</v>
+        <v>45736.9021875</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15793,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15840,14 +15830,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 23700-2023</t>
+          <t>A 12760-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45077.62905092593</v>
+        <v>45733.57016203704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15850,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15897,14 +15887,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 6270-2023</t>
+          <t>A 13196-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44965.39467592593</v>
+        <v>45735.42291666667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15907,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15954,14 +15944,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 1749-2024</t>
+          <t>A 14752-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45307.45815972222</v>
+        <v>45742.66047453704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15964,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16011,14 +16001,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 20280-2023</t>
+          <t>A 61120-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45056</v>
+        <v>46000.46729166667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16031,7 +16021,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16068,14 +16058,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 40939-2024</t>
+          <t>A 11883-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45558.64363425926</v>
+        <v>45728</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16088,7 +16078,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.2</v>
+        <v>4.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16125,14 +16115,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 56029-2024</t>
+          <t>A 24549-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45624.31143518518</v>
+        <v>45798.44802083333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16145,7 +16135,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16182,14 +16172,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 519-2023</t>
+          <t>A 24567-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44930.40255787037</v>
+        <v>45798.46579861111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16202,7 +16192,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16239,14 +16229,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 61825-2021</t>
+          <t>A 24560-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44501.79969907407</v>
+        <v>45798.45908564814</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16259,7 +16249,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16296,14 +16286,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 61826-2021</t>
+          <t>A 4195-2026</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44501</v>
+        <v>46044.69524305555</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16316,7 +16306,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16353,14 +16343,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 120-2024</t>
+          <t>A 24894-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45294.3707175926</v>
+        <v>45799.51355324074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16373,7 +16363,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16410,14 +16400,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 33476-2022</t>
+          <t>A 24882-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44788</v>
+        <v>45799.49961805555</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16430,7 +16420,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16467,14 +16457,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 46320-2024</t>
+          <t>A 24892-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45581.80997685185</v>
+        <v>45799.51231481481</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16487,7 +16477,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16524,14 +16514,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 6752-2023</t>
+          <t>A 24897-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44966.87815972222</v>
+        <v>45799.51752314815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16544,7 +16534,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16581,14 +16571,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 14722-2023</t>
+          <t>A 24832-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45014</v>
+        <v>45799.4587962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16601,7 +16591,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16638,14 +16628,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 56725-2023</t>
+          <t>A 25575-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45244</v>
+        <v>45803.47547453704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16657,8 +16647,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>1.9</v>
+        <v>9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16695,14 +16690,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 56739-2023</t>
+          <t>A 26247-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45244</v>
+        <v>45805</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16715,7 +16710,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16752,14 +16747,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 43799-2024</t>
+          <t>A 62439-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45571.62708333333</v>
+        <v>46007.46944444445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16772,7 +16767,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16809,14 +16804,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 33912-2023</t>
+          <t>A 4910-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45134.41664351852</v>
+        <v>46045</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16829,7 +16824,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16866,14 +16861,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 48496-2024</t>
+          <t>A 46514-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45592.77157407408</v>
+        <v>45582.62592592592</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16886,7 +16881,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16923,14 +16918,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 40399-2024</t>
+          <t>A 46521-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45555.44511574074</v>
+        <v>45582.62986111111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16943,7 +16938,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16980,14 +16975,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 22326-2025</t>
+          <t>A 48034-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45786.41207175926</v>
+        <v>45589.49070601852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17000,7 +16995,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17037,14 +17032,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 29371-2021</t>
+          <t>A 51480-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44361</v>
+        <v>45603</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17057,7 +17052,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17094,14 +17089,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 10525-2025</t>
+          <t>A 4736-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45721.43710648148</v>
+        <v>45328</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,8 +17108,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17151,14 +17151,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 42605-2024</t>
+          <t>A 6356-2026</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45565.72832175926</v>
+        <v>46055.61503472222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17208,14 +17208,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 12760-2025</t>
+          <t>A 1930-2026</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45733.57016203704</v>
+        <v>46035</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17265,14 +17265,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 23060-2025</t>
+          <t>A 27031-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45790</v>
+        <v>45811.5890625</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17322,14 +17322,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 14752-2025</t>
+          <t>A 1937-2026</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45742.66047453704</v>
+        <v>46035</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17341,8 +17341,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G285" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17379,14 +17384,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 13196-2025</t>
+          <t>A 1920-2026</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45735.42291666667</v>
+        <v>46035</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17399,7 +17404,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17436,14 +17441,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 13666-2025</t>
+          <t>A 11817-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45736.8315162037</v>
+        <v>45728.30768518519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17456,7 +17461,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17493,14 +17498,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 13674-2025</t>
+          <t>A 1925-2026</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45736.9021875</v>
+        <v>46035</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17513,7 +17518,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17550,14 +17555,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 11883-2025</t>
+          <t>A 1933-2026</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45728</v>
+        <v>46035</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17570,7 +17575,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17607,14 +17612,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 24560-2025</t>
+          <t>A 6865-2026</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45798.45908564814</v>
+        <v>46057.441875</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17627,7 +17632,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17664,14 +17669,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 24892-2025</t>
+          <t>A 10515-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45799.51231481481</v>
+        <v>45721.423125</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17684,7 +17689,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17721,14 +17726,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 24832-2025</t>
+          <t>A 28264-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45799.4587962963</v>
+        <v>45818.55997685185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17741,7 +17746,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17778,14 +17783,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 24882-2025</t>
+          <t>A 28265-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45799.49961805555</v>
+        <v>45818.56096064814</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17798,7 +17803,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17835,14 +17840,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 24897-2025</t>
+          <t>A 28261-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45799.51752314815</v>
+        <v>45818.55596064815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17855,7 +17860,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17892,14 +17897,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 24549-2025</t>
+          <t>A 28263-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45798.44802083333</v>
+        <v>45818.55798611111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17912,7 +17917,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17949,14 +17954,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 24567-2025</t>
+          <t>A 27867-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45798.46579861111</v>
+        <v>45817.42643518518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17969,7 +17974,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18006,14 +18011,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 24894-2025</t>
+          <t>A 28960-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45799.51355324074</v>
+        <v>45821.31986111111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18026,7 +18031,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18063,14 +18068,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 25575-2025</t>
+          <t>A 29840-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45803.47547453704</v>
+        <v>45826.29282407407</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18082,13 +18087,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18125,14 +18125,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 26247-2025</t>
+          <t>A 146-2026</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45805</v>
+        <v>46024.63701388889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18182,14 +18182,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 48034-2024</t>
+          <t>A 30621-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45589.49070601852</v>
+        <v>45831.47098379629</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18239,14 +18239,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 46514-2024</t>
+          <t>A 9289-2026</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45582.62592592592</v>
+        <v>46070</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,8 +18258,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G301" t="n">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18296,14 +18301,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 46521-2024</t>
+          <t>A 32666-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45582.62986111111</v>
+        <v>45838</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18316,7 +18321,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18353,14 +18358,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 27031-2025</t>
+          <t>A 7605-2022</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45811.5890625</v>
+        <v>44606</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18373,7 +18378,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18410,14 +18415,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 4736-2024</t>
+          <t>A 15067-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45328</v>
+        <v>45743.76568287037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,13 +18434,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G304" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18472,14 +18472,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 51480-2024</t>
+          <t>A 36101-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45603</v>
+        <v>45866.53873842592</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18492,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18529,14 +18529,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 11817-2025</t>
+          <t>A 15458-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45728.30768518519</v>
+        <v>45747.50989583333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18586,14 +18586,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 10515-2025</t>
+          <t>A 26025-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45721.423125</v>
+        <v>45804</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18606,7 +18606,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18643,14 +18643,14 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 27867-2025</t>
+          <t>A 38614-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45817.42643518518</v>
+        <v>45884.54458333334</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55617-2023</t>
+          <t>A 58292-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45238.82357638889</v>
+        <v>45250</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1508,23 +1508,23 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
@@ -1532,469 +1532,469 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 58292-2023 artfynd.xlsx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 58292-2023 karta.png", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 58292-2023 FSC-klagomål.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 58292-2023 FSC-klagomål mail.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 58292-2023 tillsynsbegäran.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 58292-2023 tillsynsbegäran mail.docx", "A 58292-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 17920-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45040</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 17920-2023 artfynd.xlsx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 17920-2023 karta.png", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 17920-2023 FSC-klagomål.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 17920-2023 FSC-klagomål mail.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 17920-2023 tillsynsbegäran.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 17920-2023 tillsynsbegäran mail.docx", "A 17920-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 44736-2021</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44438</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 44736-2021 artfynd.xlsx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 44736-2021 karta.png", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 44736-2021 FSC-klagomål.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 44736-2021 FSC-klagomål mail.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 44736-2021 tillsynsbegäran.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 44736-2021 tillsynsbegäran mail.docx", "A 44736-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 27055-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45811.62898148148</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 27055-2025 artfynd.xlsx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 27055-2025 karta.png", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 27055-2025 FSC-klagomål.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 27055-2025 FSC-klagomål mail.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 27055-2025 tillsynsbegäran.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 27055-2025 tillsynsbegäran mail.docx", "A 27055-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 11709-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45373.61430555556</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Gullklöver</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 11709-2024 artfynd.xlsx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 11709-2024 karta.png", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 11709-2024 FSC-klagomål.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 11709-2024 FSC-klagomål mail.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 11709-2024 tillsynsbegäran.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 11709-2024 tillsynsbegäran mail.docx", "A 11709-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 55617-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45238.82357638889</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>VÄNERSBORG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 55617-2023 artfynd.xlsx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 55617-2023 karta.png", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 55617-2023 FSC-klagomål.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 55617-2023 FSC-klagomål mail.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 55617-2023 tillsynsbegäran.docx", "A 55617-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 55617-2023 tillsynsbegäran mail.docx", "A 55617-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 44736-2021</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44438</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Barkticka</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 44736-2021 artfynd.xlsx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 44736-2021 karta.png", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 44736-2021 FSC-klagomål.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 44736-2021 FSC-klagomål mail.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 44736-2021 tillsynsbegäran.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 44736-2021 tillsynsbegäran mail.docx", "A 44736-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 27055-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45811.62898148148</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Barkticka</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 27055-2025 artfynd.xlsx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 27055-2025 karta.png", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 27055-2025 FSC-klagomål.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 27055-2025 FSC-klagomål mail.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 27055-2025 tillsynsbegäran.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 27055-2025 tillsynsbegäran mail.docx", "A 27055-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 11709-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45373.61430555556</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gullklöver</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 11709-2024 artfynd.xlsx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 11709-2024 karta.png", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 11709-2024 FSC-klagomål.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 11709-2024 FSC-klagomål mail.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 11709-2024 tillsynsbegäran.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 11709-2024 tillsynsbegäran mail.docx", "A 11709-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 58292-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45250</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>19</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ask</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 58292-2023 artfynd.xlsx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 58292-2023 karta.png", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 58292-2023 FSC-klagomål.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 58292-2023 FSC-klagomål mail.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 58292-2023 tillsynsbegäran.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 58292-2023 tillsynsbegäran mail.docx", "A 58292-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 17920-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45040</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>VÄNERSBORG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/artfynd/A 17920-2023 artfynd.xlsx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/kartor/A 17920-2023 karta.png", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 17920-2023 FSC-klagomål.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 17920-2023 FSC-klagomål mail.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 17920-2023 tillsynsbegäran.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 17920-2023 tillsynsbegäran mail.docx", "A 17920-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2117,14 +2117,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 29346-2022</t>
+          <t>A 54899-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44753.32848379629</v>
+        <v>44886</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2174,14 +2174,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 54899-2022</t>
+          <t>A 34717-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44886</v>
+        <v>44795</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34717-2022</t>
+          <t>A 29346-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44795</v>
+        <v>44753.32848379629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,14 +2920,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 29352-2022</t>
+          <t>A 34380-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44753.35193287037</v>
+        <v>44379.89332175926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2977,14 +2977,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 29755-2021</t>
+          <t>A 46870-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44362</v>
+        <v>44446</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2996,8 +2996,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3034,14 +3039,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26740-2021</t>
+          <t>A 10-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44349.40521990741</v>
+        <v>44563.73993055556</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3054,7 +3059,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.3</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3091,14 +3096,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46870-2021</t>
+          <t>A 20138-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44446</v>
+        <v>44314.4852662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3110,13 +3115,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 10-2022</t>
+          <t>A 19561-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44563.73993055556</v>
+        <v>44693.66460648148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 20138-2021</t>
+          <t>A 12828-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44314.4852662037</v>
+        <v>44642.43065972222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 58301-2021</t>
+          <t>A 12836-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44488</v>
+        <v>44642.44318287037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14708-2021</t>
+          <t>A 58301-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44280</v>
+        <v>44488</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3381,14 +3381,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3465-2022</t>
+          <t>A 29352-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44585</v>
+        <v>44753.35193287037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3438,14 +3438,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 34380-2021</t>
+          <t>A 14708-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44379.89332175926</v>
+        <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3495,14 +3495,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19561-2022</t>
+          <t>A 29755-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44693.66460648148</v>
+        <v>44362</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3552,14 +3552,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12828-2022</t>
+          <t>A 26740-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44642.43065972222</v>
+        <v>44349.40521990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>10.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3609,14 +3609,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12836-2022</t>
+          <t>A 3465-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44642.44318287037</v>
+        <v>44585</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3666,14 +3666,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34592-2021</t>
+          <t>A 29371-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44382</v>
+        <v>44753.39418981481</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>12.5</v>
+        <v>5.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3728,14 +3728,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 34593-2021</t>
+          <t>A 19559-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44382</v>
+        <v>44693.6590625</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3747,13 +3747,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3790,14 +3785,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10976-2022</t>
+          <t>A 2377-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44628.42969907408</v>
+        <v>44579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3810,7 +3805,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3847,14 +3842,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29371-2022</t>
+          <t>A 60987-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44753.39418981481</v>
+        <v>44497</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3866,13 +3861,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3909,14 +3899,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60987-2021</t>
+          <t>A 61042-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3919,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3966,14 +3956,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61042-2021</t>
+          <t>A 10977-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44497</v>
+        <v>44628.43050925926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3986,7 +3976,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4023,14 +4013,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 10977-2022</t>
+          <t>A 13923-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44628.43050925926</v>
+        <v>44650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4042,8 +4032,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4080,14 +4075,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 18157-2022</t>
+          <t>A 34598-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44684</v>
+        <v>44382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4099,8 +4094,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4137,14 +4137,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19559-2022</t>
+          <t>A 34592-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44693.6590625</v>
+        <v>44382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4156,8 +4156,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>12.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4194,14 +4199,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2377-2022</t>
+          <t>A 34593-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44579</v>
+        <v>44382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4213,8 +4218,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4251,14 +4261,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13923-2022</t>
+          <t>A 34595-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44650</v>
+        <v>44382</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4272,11 +4282,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4320,7 +4330,7 @@
         <v>44753</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4375,14 +4385,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 22557-2021</t>
+          <t>A 18157-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44322</v>
+        <v>44684</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4395,7 +4405,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>6.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4432,14 +4442,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34598-2021</t>
+          <t>A 22557-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44382</v>
+        <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4451,13 +4461,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4494,14 +4499,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34595-2021</t>
+          <t>A 11979-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44382</v>
+        <v>44635.66027777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4513,13 +4518,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4556,14 +4556,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11979-2022</t>
+          <t>A 29345-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44635.66027777778</v>
+        <v>44753.32299768519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4613,14 +4613,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30201-2021</t>
+          <t>A 30878-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 29345-2022</t>
+          <t>A 10976-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44753.32299768519</v>
+        <v>44628.42969907408</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4727,14 +4727,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30878-2021</t>
+          <t>A 30201-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4784,14 +4784,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48494-2024</t>
+          <t>A 33476-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45592.75105324074</v>
+        <v>44788</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4841,14 +4841,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33033-2024</t>
+          <t>A 49481-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45517</v>
+        <v>45211</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20584-2023</t>
+          <t>A 17172-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45057</v>
+        <v>45034.65365740741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4955,14 +4955,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61731-2024</t>
+          <t>A 46520-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45649.34305555555</v>
+        <v>45582</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5012,14 +5012,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38360-2024</t>
+          <t>A 32843-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45545.79484953704</v>
+        <v>44784.4495949074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5069,14 +5069,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3884-2022</t>
+          <t>A 20536-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44587.46003472222</v>
+        <v>45057</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5126,14 +5126,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16452-2025</t>
+          <t>A 15102-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45751.51493055555</v>
+        <v>45399.66299768518</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5183,14 +5183,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27232-2024</t>
+          <t>A 28190-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45471</v>
+        <v>44746.58916666666</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5240,14 +5240,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47783-2025</t>
+          <t>A 55618-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45931.76866898148</v>
+        <v>45238.825625</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5297,14 +5297,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17749-2024</t>
+          <t>A 48161-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45418.59761574074</v>
+        <v>45589</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5354,14 +5354,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17985-2022</t>
+          <t>A 33912-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44683</v>
+        <v>45134.41664351852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>10</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5411,14 +5411,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 38614-2025</t>
+          <t>A 15108-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45884.54458333334</v>
+        <v>45399.66778935185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5468,14 +5468,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3880-2022</t>
+          <t>A 39899-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44587.45909722222</v>
+        <v>45166</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>15.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5525,14 +5525,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 48036-2025</t>
+          <t>A 40939-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45932</v>
+        <v>45558.64363425926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5582,14 +5582,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40399-2024</t>
+          <t>A 12910-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45555.44511574074</v>
+        <v>45001</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5639,14 +5639,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 43817-2023</t>
+          <t>A 48163-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45187</v>
+        <v>45589</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>14.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5696,14 +5696,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15099-2024</t>
+          <t>A 6172-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45399.66082175926</v>
+        <v>45337</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5753,14 +5753,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 15107-2024</t>
+          <t>A 17861-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45399</v>
+        <v>45419.43511574074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5810,14 +5810,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 369-2023</t>
+          <t>A 33925-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44929</v>
+        <v>45134.48231481481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5867,14 +5867,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56480-2024</t>
+          <t>A 18855-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45625.47077546296</v>
+        <v>45764.42244212963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5924,14 +5924,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7420-2024</t>
+          <t>A 24107-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45345.62907407407</v>
+        <v>45456</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5981,14 +5981,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 55618-2023</t>
+          <t>A 65120-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45238.825625</v>
+        <v>45287</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>11.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6038,14 +6038,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28263-2023</t>
+          <t>A 7640-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45099</v>
+        <v>45348.64657407408</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6095,14 +6095,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 22326-2025</t>
+          <t>A 14798-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45786.41207175926</v>
+        <v>45397.90431712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6114,8 +6114,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6148,18 +6153,38 @@
         <v>0</v>
       </c>
       <c r="R89" s="2" t="inlineStr"/>
+      <c r="U89">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="V89">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="W89">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="X89">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y89">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 40844-2025</t>
+          <t>A 7590-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45897.53482638889</v>
+        <v>45348</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6172,7 +6197,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6209,14 +6234,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40544-2025</t>
+          <t>A 12610-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45896.43144675926</v>
+        <v>45382.87498842592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6229,7 +6254,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6266,14 +6291,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40550-2025</t>
+          <t>A 15309-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45896.44113425926</v>
+        <v>44659</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6286,7 +6311,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6323,14 +6348,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 40553-2025</t>
+          <t>A 43621-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45896.44429398148</v>
+        <v>44433</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6343,7 +6368,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6380,14 +6405,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 47630-2022</t>
+          <t>A 11439-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44852</v>
+        <v>44630.62471064815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6400,7 +6425,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6437,14 +6462,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40538-2025</t>
+          <t>A 2556-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45896.41814814815</v>
+        <v>45313.60317129629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6457,7 +6482,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6494,14 +6519,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 40539-2025</t>
+          <t>A 17749-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45896.41945601852</v>
+        <v>45418.59761574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6514,7 +6539,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6551,14 +6576,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 34183-2023</t>
+          <t>A 58704-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45138</v>
+        <v>44489</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6571,7 +6596,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6608,14 +6633,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 2556-2024</t>
+          <t>A 20584-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45313.60317129629</v>
+        <v>45057</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6628,7 +6653,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6665,14 +6690,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29371-2021</t>
+          <t>A 23441-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44361</v>
+        <v>44333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6685,7 +6710,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6722,14 +6747,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10525-2025</t>
+          <t>A 59745-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45721.43710648148</v>
+        <v>45639.5343287037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6742,7 +6767,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6779,14 +6804,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42605-2024</t>
+          <t>A 16551-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45565.72832175926</v>
+        <v>45408</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6799,7 +6824,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.7</v>
+        <v>6.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6836,14 +6861,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 12760-2025</t>
+          <t>A 2146-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45733.57016203704</v>
+        <v>45672.69664351852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6856,7 +6881,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6893,14 +6918,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 23060-2025</t>
+          <t>A 22402-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45790</v>
+        <v>45446.6730787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6913,7 +6938,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6950,14 +6975,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14752-2025</t>
+          <t>A 33033-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45742.66047453704</v>
+        <v>45517</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6970,7 +6995,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7007,14 +7032,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13196-2025</t>
+          <t>A 49131-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45735.42291666667</v>
+        <v>45594.68315972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7027,7 +7052,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7064,14 +7089,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13666-2025</t>
+          <t>A 61409-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45736.8315162037</v>
+        <v>44909</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7084,7 +7109,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7121,14 +7146,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13674-2025</t>
+          <t>A 120-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45736.9021875</v>
+        <v>45294.3707175926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7141,7 +7166,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7178,14 +7203,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42021-2025</t>
+          <t>A 56734-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45903.59125</v>
+        <v>45244.35234953704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7198,7 +7223,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7235,14 +7260,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41795-2025</t>
+          <t>A 33942-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45902.60028935185</v>
+        <v>45134</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7255,7 +7280,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7292,14 +7317,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42566-2025</t>
+          <t>A 48496-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45905.60494212963</v>
+        <v>45592.77157407408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7312,7 +7337,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7349,14 +7374,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54006-2022</t>
+          <t>A 46523-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44881.40414351852</v>
+        <v>45582.6306712963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7369,7 +7394,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7406,14 +7431,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11883-2025</t>
+          <t>A 1385-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45728</v>
+        <v>45667.66609953704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7426,7 +7451,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7463,14 +7488,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24560-2025</t>
+          <t>A 28385-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45798.45908564814</v>
+        <v>44747.55924768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7483,7 +7508,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7520,14 +7545,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 42698-2024</t>
+          <t>A 18997-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45566</v>
+        <v>45427.62200231481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7540,7 +7565,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7577,14 +7602,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24892-2025</t>
+          <t>A 6167-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45799.51231481481</v>
+        <v>45337</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7597,7 +7622,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7634,14 +7659,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24832-2025</t>
+          <t>A 56725-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45799.4587962963</v>
+        <v>45244</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7654,7 +7679,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7691,14 +7716,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 24882-2025</t>
+          <t>A 56739-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45799.49961805555</v>
+        <v>45244</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7711,7 +7736,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7748,14 +7773,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 24897-2025</t>
+          <t>A 40223-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45799.51752314815</v>
+        <v>44419</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7767,8 +7792,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7805,14 +7835,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 24549-2025</t>
+          <t>A 40226-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45798.44802083333</v>
+        <v>44419</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7824,8 +7854,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7862,14 +7897,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24567-2025</t>
+          <t>A 17871-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45798.46579861111</v>
+        <v>45419.44590277778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7882,7 +7917,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7919,14 +7954,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 24894-2025</t>
+          <t>A 50002-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45799.51355324074</v>
+        <v>45215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7939,7 +7974,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7976,14 +8011,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61409-2022</t>
+          <t>A 12385-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44909</v>
+        <v>45730.38883101852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7995,8 +8030,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8033,14 +8073,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 25575-2025</t>
+          <t>A 58972-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45803.47547453704</v>
+        <v>45636.60099537037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8052,13 +8092,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8095,14 +8130,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 22402-2024</t>
+          <t>A 34183-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45446.6730787037</v>
+        <v>45138</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8115,7 +8150,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8152,14 +8187,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 32838-2022</t>
+          <t>A 61566-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44784.43820601852</v>
+        <v>45646.61444444444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8172,7 +8207,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8209,14 +8244,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40721-2022</t>
+          <t>A 9732-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44824.50174768519</v>
+        <v>44978</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8229,7 +8264,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8266,14 +8301,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26247-2025</t>
+          <t>A 54006-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45805</v>
+        <v>44881.40414351852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8286,7 +8321,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8323,14 +8358,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 44588-2025</t>
+          <t>A 16922-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45917.4165625</v>
+        <v>45411.65899305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8343,7 +8378,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8380,14 +8415,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 44575-2025</t>
+          <t>A 17932-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45917.40004629629</v>
+        <v>45040</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8400,7 +8435,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8437,14 +8472,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44578-2025</t>
+          <t>A 369-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45917.40295138889</v>
+        <v>44929</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,7 +8492,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8494,14 +8529,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44584-2025</t>
+          <t>A 519-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45917.41353009259</v>
+        <v>44930.40255787037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8514,7 +8549,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8551,14 +8586,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 48034-2024</t>
+          <t>A 43798-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45589.49070601852</v>
+        <v>45571.59386574074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8571,7 +8606,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8608,14 +8643,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43856-2024</t>
+          <t>A 19133-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45572.35760416667</v>
+        <v>45764</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8628,7 +8663,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8665,14 +8700,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44583-2025</t>
+          <t>A 23700-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45917.40908564815</v>
+        <v>45077.62905092593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8685,7 +8720,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8722,14 +8757,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44589-2025</t>
+          <t>A 5009-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45917.42443287037</v>
+        <v>45691</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8742,7 +8777,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8779,14 +8814,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44597-2025</t>
+          <t>A 14722-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45917.4290625</v>
+        <v>45014</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8799,7 +8834,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8836,14 +8871,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 46514-2024</t>
+          <t>A 10444-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45582.62592592592</v>
+        <v>44623</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8856,7 +8891,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8893,14 +8928,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 46521-2024</t>
+          <t>A 43799-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45582.62986111111</v>
+        <v>45571.62708333333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8913,7 +8948,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8950,14 +8985,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 27031-2025</t>
+          <t>A 43856-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45811.5890625</v>
+        <v>45572.35760416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8970,7 +9005,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9007,14 +9042,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 4736-2024</t>
+          <t>A 17077-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45328</v>
+        <v>45034</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9026,13 +9061,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9069,14 +9099,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 44841-2025</t>
+          <t>A 18715-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45918.4284375</v>
+        <v>45043.65006944445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9089,7 +9119,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9126,14 +9156,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51480-2024</t>
+          <t>A 16747-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45603</v>
+        <v>45030</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9146,7 +9176,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.9</v>
+        <v>0.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9183,14 +9213,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45537-2025</t>
+          <t>A 16452-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45922.61059027778</v>
+        <v>45751.51493055555</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9203,7 +9233,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9240,14 +9270,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 22631-2022</t>
+          <t>A 12823-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44714.44008101852</v>
+        <v>44642.42333333333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9260,7 +9290,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9297,14 +9327,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45712-2025</t>
+          <t>A 57699-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45923.43152777778</v>
+        <v>45246</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9317,7 +9347,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9354,14 +9384,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 24940-2023</t>
+          <t>A 42698-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45085.54883101852</v>
+        <v>45566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9374,7 +9404,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9411,14 +9441,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45950-2025</t>
+          <t>A 27815-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45924.34196759259</v>
+        <v>45475.59787037037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9431,7 +9461,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9468,14 +9498,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 11817-2025</t>
+          <t>A 22631-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45728.30768518519</v>
+        <v>44714.44008101852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9488,7 +9518,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.1</v>
+        <v>7.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9525,14 +9555,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 10515-2025</t>
+          <t>A 40399-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45721.423125</v>
+        <v>45555.44511574074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9545,7 +9575,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9582,14 +9612,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 7243-2025</t>
+          <t>A 6140-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45702.5430324074</v>
+        <v>45337</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9602,7 +9632,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>12.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9639,14 +9669,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 10444-2022</t>
+          <t>A 31051-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44623</v>
+        <v>44769</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9659,7 +9689,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9696,14 +9726,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 27867-2025</t>
+          <t>A 61731-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45817.42643518518</v>
+        <v>45649.34305555555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9716,7 +9746,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9753,14 +9783,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 46145-2025</t>
+          <t>A 64606-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45924.60802083334</v>
+        <v>45281.5049537037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9773,7 +9803,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9810,14 +9840,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 28264-2025</t>
+          <t>A 20793-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45818.55997685185</v>
+        <v>45058.60979166667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9830,7 +9860,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9867,14 +9897,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 28265-2025</t>
+          <t>A 56480-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45818.56096064814</v>
+        <v>45625.47077546296</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9887,7 +9917,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9924,14 +9954,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28261-2025</t>
+          <t>A 50939-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45818.55596064815</v>
+        <v>45602.92913194445</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9944,7 +9974,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9981,14 +10011,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 28263-2025</t>
+          <t>A 28263-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45818.55798611111</v>
+        <v>45099</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10001,7 +10031,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10038,14 +10068,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 46986-2025</t>
+          <t>A 40553-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45929.5359375</v>
+        <v>45896.44429398148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10058,7 +10088,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10095,14 +10125,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 6167-2024</t>
+          <t>A 40538-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45337</v>
+        <v>45896.41814814815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10115,7 +10145,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10152,14 +10182,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 47342-2025</t>
+          <t>A 40539-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45930.56956018518</v>
+        <v>45896.41945601852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10172,7 +10202,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10209,14 +10239,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 28960-2025</t>
+          <t>A 40544-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45821.31986111111</v>
+        <v>45896.43144675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10229,7 +10259,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10266,14 +10296,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 9169-2023</t>
+          <t>A 40550-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44980.41365740741</v>
+        <v>45896.44113425926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10286,7 +10316,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10323,14 +10353,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 49201-2025</t>
+          <t>A 40844-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45938.41451388889</v>
+        <v>45897.53482638889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10343,7 +10373,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10380,14 +10410,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56734-2023</t>
+          <t>A 22326-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45244.35234953704</v>
+        <v>45786.41207175926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10400,7 +10430,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10437,14 +10467,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50192-2025</t>
+          <t>A 23060-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45943.63825231481</v>
+        <v>45790</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10457,7 +10487,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>15.8</v>
+        <v>3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10494,14 +10524,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50193-2025</t>
+          <t>A 29371-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45943.640625</v>
+        <v>44361</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10514,7 +10544,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10551,14 +10581,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 50145-2025</t>
+          <t>A 10525-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45943.57131944445</v>
+        <v>45721.43710648148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10571,7 +10601,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10608,14 +10638,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 24107-2024</t>
+          <t>A 42605-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45456</v>
+        <v>45565.72832175926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10628,7 +10658,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10665,14 +10695,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 29840-2025</t>
+          <t>A 41795-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45826.29282407407</v>
+        <v>45902.60028935185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10685,7 +10715,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10722,14 +10752,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 30621-2025</t>
+          <t>A 13666-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45831.47098379629</v>
+        <v>45736.8315162037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10742,7 +10772,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10779,14 +10809,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 17861-2024</t>
+          <t>A 13674-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45419.43511574074</v>
+        <v>45736.9021875</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10799,7 +10829,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10836,14 +10866,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 1385-2025</t>
+          <t>A 12760-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45667.66609953704</v>
+        <v>45733.57016203704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,7 +10886,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10893,14 +10923,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 21140-2023</t>
+          <t>A 13196-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45062.36817129629</v>
+        <v>45735.42291666667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10913,7 +10943,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.4</v>
+        <v>5.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10950,14 +10980,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 50901-2025</t>
+          <t>A 6179-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45946.64501157407</v>
+        <v>45337</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +11000,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11007,14 +11037,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 50884-2025</t>
+          <t>A 61825-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45946</v>
+        <v>44501.79969907407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11027,7 +11057,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11064,14 +11094,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 50891-2025</t>
+          <t>A 61826-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45946.63685185185</v>
+        <v>44501</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11084,7 +11114,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11121,14 +11151,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 7605-2022</t>
+          <t>A 14752-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44606</v>
+        <v>45742.66047453704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11141,7 +11171,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11178,14 +11208,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 32666-2025</t>
+          <t>A 73226-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45838</v>
+        <v>44550</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11198,7 +11228,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11235,14 +11265,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 20793-2023</t>
+          <t>A 1749-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45058.60979166667</v>
+        <v>45307.45815972222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11255,7 +11285,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11292,14 +11322,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61566-2024</t>
+          <t>A 42021-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45646.61444444444</v>
+        <v>45903.59125</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11312,7 +11342,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11349,14 +11379,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 7590-2024</t>
+          <t>A 42566-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45348</v>
+        <v>45905.60494212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11369,7 +11399,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11406,14 +11436,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 63509-2023</t>
+          <t>A 11883-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45274</v>
+        <v>45728</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11426,7 +11456,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11463,14 +11493,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 32843-2022</t>
+          <t>A 38360-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44784.4495949074</v>
+        <v>45545.79484953704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11483,7 +11513,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11520,14 +11550,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 15067-2025</t>
+          <t>A 27181-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45743.76568287037</v>
+        <v>45096.52827546297</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11540,7 +11570,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11577,14 +11607,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 43987-2022</t>
+          <t>A 46320-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44838.66666666666</v>
+        <v>45581.80997685185</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11597,7 +11627,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11634,14 +11664,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 15458-2025</t>
+          <t>A 9169-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45747.50989583333</v>
+        <v>44980.41365740741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11654,7 +11684,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11691,14 +11721,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36101-2025</t>
+          <t>A 24549-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45866.53873842592</v>
+        <v>45798.44802083333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11711,7 +11741,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11748,14 +11778,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 26025-2025</t>
+          <t>A 24567-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45804</v>
+        <v>45798.46579861111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11768,7 +11798,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11805,14 +11835,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 53296-2025</t>
+          <t>A 24560-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45958.89180555556</v>
+        <v>45798.45908564814</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11825,7 +11855,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11862,14 +11892,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 15102-2024</t>
+          <t>A 18937-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45399.66299768518</v>
+        <v>45427</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11882,7 +11912,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11919,14 +11949,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 15108-2024</t>
+          <t>A 24894-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45399.66778935185</v>
+        <v>45799.51355324074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11939,7 +11969,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11976,14 +12006,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 13698-2024</t>
+          <t>A 24882-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45390</v>
+        <v>45799.49961805555</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11996,7 +12026,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12033,14 +12063,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 31051-2022</t>
+          <t>A 24892-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44769</v>
+        <v>45799.51231481481</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12053,7 +12083,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12090,14 +12120,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53869-2025</t>
+          <t>A 24897-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45961.38677083333</v>
+        <v>45799.51752314815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12109,13 +12139,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12152,14 +12177,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 54244-2025</t>
+          <t>A 24832-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45964.63546296296</v>
+        <v>45799.4587962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12172,7 +12197,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12209,14 +12234,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 33921-2023</t>
+          <t>A 44589-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45134.47034722222</v>
+        <v>45917.42443287037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12229,7 +12254,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12266,14 +12291,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 54467-2025</t>
+          <t>A 44841-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45965.5700462963</v>
+        <v>45918.4284375</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12286,7 +12311,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>13.4</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12323,14 +12348,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 6140-2024</t>
+          <t>A 44583-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45337</v>
+        <v>45917.40908564815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12343,7 +12368,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>12.8</v>
+        <v>3.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12380,14 +12405,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50939-2024</t>
+          <t>A 44588-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45602.92913194445</v>
+        <v>45917.4165625</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12437,14 +12462,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 54863-2025</t>
+          <t>A 44597-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45966.77891203704</v>
+        <v>45917.4290625</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12457,7 +12482,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12494,14 +12519,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58972-2024</t>
+          <t>A 44578-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45636.60099537037</v>
+        <v>45917.40295138889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12514,7 +12539,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12551,14 +12576,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 27181-2023</t>
+          <t>A 44584-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45096.52827546297</v>
+        <v>45917.41353009259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12571,7 +12596,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12608,14 +12633,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 58704-2021</t>
+          <t>A 44575-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44489</v>
+        <v>45917.40004629629</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12628,7 +12653,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12665,14 +12690,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 55439-2025</t>
+          <t>A 45537-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45971.48627314815</v>
+        <v>45922.61059027778</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12685,7 +12710,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12722,14 +12747,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 47523-2025</t>
+          <t>A 25575-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45930</v>
+        <v>45803.47547453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12741,8 +12766,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12779,14 +12809,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 33925-2023</t>
+          <t>A 26247-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45134.48231481481</v>
+        <v>45805</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12799,7 +12829,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12836,14 +12866,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 55336-2025</t>
+          <t>A 46145-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45971.3446412037</v>
+        <v>45924.60802083334</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12856,7 +12886,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12893,14 +12923,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 55331-2025</t>
+          <t>A 55794-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45971.34190972222</v>
+        <v>45239.54755787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12913,7 +12943,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12950,14 +12980,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 43798-2024</t>
+          <t>A 45712-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45571.59386574074</v>
+        <v>45923.43152777778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12970,7 +13000,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13007,14 +13037,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 48161-2024</t>
+          <t>A 45950-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45589</v>
+        <v>45924.34196759259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13027,7 +13057,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>42</v>
+        <v>2.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13064,14 +13094,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 16747-2023</t>
+          <t>A 33915-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45030</v>
+        <v>45134.43918981482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,7 +13114,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13121,14 +13151,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56886-2025</t>
+          <t>A 46514-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45975</v>
+        <v>45582.62592592592</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13141,7 +13171,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13178,14 +13208,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 56259-2025</t>
+          <t>A 46521-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45974</v>
+        <v>45582.62986111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,7 +13228,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13235,14 +13265,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56261-2025</t>
+          <t>A 48034-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45974</v>
+        <v>45589.49070601852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13255,7 +13285,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13292,14 +13322,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56893-2025</t>
+          <t>A 51480-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45978.56734953704</v>
+        <v>45603</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13312,7 +13342,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13349,14 +13379,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 56922-2025</t>
+          <t>A 4736-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45978.59846064815</v>
+        <v>45328</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13368,8 +13398,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13406,14 +13441,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 56805-2025</t>
+          <t>A 27031-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45978.44703703704</v>
+        <v>45811.5890625</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13426,7 +13461,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>12.1</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13463,14 +13498,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 2146-2025</t>
+          <t>A 46986-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45672.69664351852</v>
+        <v>45929.5359375</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13483,7 +13518,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13520,14 +13555,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 11439-2022</t>
+          <t>A 47342-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44630.62471064815</v>
+        <v>45930.56956018518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13540,7 +13575,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>10.6</v>
+        <v>0.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13577,14 +13612,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 73226-2021</t>
+          <t>A 11817-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44550</v>
+        <v>45728.30768518519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13634,14 +13669,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 17871-2024</t>
+          <t>A 43987-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45419.44590277778</v>
+        <v>44838.66666666666</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13654,7 +13689,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13691,14 +13726,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 15309-2022</t>
+          <t>A 47783-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44659</v>
+        <v>45931.76866898148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13711,7 +13746,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13748,14 +13783,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 46523-2024</t>
+          <t>A 10515-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45582.6306712963</v>
+        <v>45721.423125</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13768,7 +13803,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13805,14 +13840,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 5009-2025</t>
+          <t>A 28264-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45691</v>
+        <v>45818.55997685185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13825,7 +13860,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13862,14 +13897,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 65120-2023</t>
+          <t>A 28265-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45287</v>
+        <v>45818.56096064814</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13882,7 +13917,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>11.4</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13919,14 +13954,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 60095-2025</t>
+          <t>A 28261-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45993.7368287037</v>
+        <v>45818.55596064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13939,7 +13974,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13976,14 +14011,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 60328-2025</t>
+          <t>A 28263-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45994.74658564815</v>
+        <v>45818.55798611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13996,7 +14031,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>8.9</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14033,14 +14068,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 12910-2023</t>
+          <t>A 48036-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45001</v>
+        <v>45932</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14053,7 +14088,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14090,14 +14125,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 23862-2022</t>
+          <t>A 3880-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44722.551875</v>
+        <v>44587.45909722222</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14110,7 +14145,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14147,14 +14182,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 60325-2025</t>
+          <t>A 27232-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45994.74046296296</v>
+        <v>45471</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14167,7 +14202,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>11.5</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14204,14 +14239,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 2050-2026</t>
+          <t>A 3884-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46035.84706018519</v>
+        <v>44587.46003472222</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14224,7 +14259,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14261,14 +14296,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 7795-2023</t>
+          <t>A 17985-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44973</v>
+        <v>44683</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14281,7 +14316,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14318,14 +14353,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 12610-2024</t>
+          <t>A 56829-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45382.87498842592</v>
+        <v>45244.46680555555</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14375,14 +14410,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 6172-2024</t>
+          <t>A 43817-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45337</v>
+        <v>45187</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14395,7 +14430,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14432,14 +14467,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 12853-2023</t>
+          <t>A 27867-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45001</v>
+        <v>45817.42643518518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14452,7 +14487,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14489,14 +14524,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 61120-2025</t>
+          <t>A 7243-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46000.46729166667</v>
+        <v>45702.5430324074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14509,7 +14544,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14546,14 +14581,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 59745-2024</t>
+          <t>A 49201-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45639.5343287037</v>
+        <v>45938.41451388889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14566,7 +14601,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14603,14 +14638,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 4195-2026</t>
+          <t>A 28960-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46044.69524305555</v>
+        <v>45821.31986111111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14623,7 +14658,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14660,14 +14695,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 40223-2021</t>
+          <t>A 13698-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44419</v>
+        <v>45390</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14679,13 +14714,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14722,14 +14752,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 40226-2021</t>
+          <t>A 29840-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44419</v>
+        <v>45826.29282407407</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14741,13 +14771,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14784,14 +14809,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 64606-2023</t>
+          <t>A 23862-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45281.5049537037</v>
+        <v>44722.551875</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14804,7 +14829,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>7.7</v>
+        <v>2.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14841,14 +14866,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 4910-2026</t>
+          <t>A 40721-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46045</v>
+        <v>44824.50174768519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14861,7 +14886,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14898,14 +14923,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 62439-2025</t>
+          <t>A 50192-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46007.46944444445</v>
+        <v>45943.63825231481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14918,7 +14943,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.4</v>
+        <v>15.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14955,14 +14980,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 19133-2025</t>
+          <t>A 50193-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45764</v>
+        <v>45943.640625</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14975,7 +15000,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15012,14 +15037,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 18937-2024</t>
+          <t>A 50145-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45427</v>
+        <v>45943.57131944445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15032,7 +15057,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15069,14 +15094,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 12823-2022</t>
+          <t>A 50884-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44642.42333333333</v>
+        <v>45946</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15089,7 +15114,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15126,14 +15151,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 6356-2026</t>
+          <t>A 50901-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46055.61503472222</v>
+        <v>45946.64501157407</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15146,7 +15171,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15183,14 +15208,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 16551-2024</t>
+          <t>A 50891-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45408</v>
+        <v>45946.63685185185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15203,7 +15228,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15240,14 +15265,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 27815-2024</t>
+          <t>A 30621-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45475.59787037037</v>
+        <v>45831.47098379629</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15260,7 +15285,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15297,14 +15322,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 18855-2025</t>
+          <t>A 56029-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45764.42244212963</v>
+        <v>45624.31143518518</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15317,7 +15342,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15354,14 +15379,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 6865-2026</t>
+          <t>A 59692-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46057.441875</v>
+        <v>45256</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15374,7 +15399,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15411,14 +15436,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 1920-2026</t>
+          <t>A 7795-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46035</v>
+        <v>44973</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15431,7 +15456,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15468,14 +15493,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 1925-2026</t>
+          <t>A 53296-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46035</v>
+        <v>45958.89180555556</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15488,7 +15513,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15525,14 +15550,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 1933-2026</t>
+          <t>A 47630-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46035</v>
+        <v>44852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15545,7 +15570,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15582,14 +15607,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 17172-2023</t>
+          <t>A 54244-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45034.65365740741</v>
+        <v>45964.63546296296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15602,7 +15627,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15639,14 +15664,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 1930-2026</t>
+          <t>A 32666-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46035</v>
+        <v>45838</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15659,7 +15684,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15696,14 +15721,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 18997-2024</t>
+          <t>A 53869-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45427.62200231481</v>
+        <v>45961.38677083333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,8 +15740,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15753,14 +15783,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 505-2023</t>
+          <t>A 54467-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44930.35895833333</v>
+        <v>45965.5700462963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15773,7 +15803,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.5</v>
+        <v>13.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15810,14 +15840,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 17932-2023</t>
+          <t>A 7605-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45040</v>
+        <v>44606</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15830,7 +15860,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15867,14 +15897,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 28190-2022</t>
+          <t>A 7420-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44746.58916666666</v>
+        <v>45345.62907407407</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15917,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15924,14 +15954,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 12385-2025</t>
+          <t>A 54863-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45730.38883101852</v>
+        <v>45966.77891203704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,13 +15973,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15986,14 +16011,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 20536-2023</t>
+          <t>A 55331-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45057</v>
+        <v>45971.34190972222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16006,7 +16031,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16043,14 +16068,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 28385-2022</t>
+          <t>A 55336-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44747.55924768518</v>
+        <v>45971.3446412037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16063,7 +16088,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16100,14 +16125,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 9732-2023</t>
+          <t>A 55439-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44978</v>
+        <v>45971.48627314815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16120,7 +16145,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16157,14 +16182,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 23441-2021</t>
+          <t>A 47523-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44333</v>
+        <v>45930</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16177,7 +16202,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16214,14 +16239,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 7640-2024</t>
+          <t>A 56261-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45348.64657407408</v>
+        <v>45974</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16234,7 +16259,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16271,14 +16296,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 17077-2023</t>
+          <t>A 15099-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45034</v>
+        <v>45399.66082175926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16291,7 +16316,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16328,14 +16353,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 146-2026</t>
+          <t>A 15107-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46024.63701388889</v>
+        <v>45399</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16348,7 +16373,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16385,14 +16410,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 46520-2024</t>
+          <t>A 56259-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45582</v>
+        <v>45974</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16405,7 +16430,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16442,14 +16467,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 18715-2023</t>
+          <t>A 15067-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45043.65006944445</v>
+        <v>45743.76568287037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16462,7 +16487,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16499,14 +16524,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 14798-2024</t>
+          <t>A 56922-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45397.90431712963</v>
+        <v>45978.59846064815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16518,13 +16543,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16557,38 +16577,18 @@
         <v>0</v>
       </c>
       <c r="R271" s="2" t="inlineStr"/>
-      <c r="U271">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="V271">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="W271">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="X271">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y271">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 9289-2026</t>
+          <t>A 56805-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46070</v>
+        <v>45978.44703703704</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16600,13 +16600,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>7.2</v>
+        <v>12.1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16643,14 +16638,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 19051-2023</t>
+          <t>A 56886-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45047</v>
+        <v>45975</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16663,7 +16658,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16700,14 +16695,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 59692-2023</t>
+          <t>A 56893-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45256</v>
+        <v>45978.56734953704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16720,7 +16715,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16757,14 +16752,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 33915-2023</t>
+          <t>A 36101-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45134.43918981482</v>
+        <v>45866.53873842592</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16777,7 +16772,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16814,14 +16809,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 49131-2024</t>
+          <t>A 15458-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45594.68315972222</v>
+        <v>45747.50989583333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16834,7 +16829,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16871,14 +16866,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 1937-2026</t>
+          <t>A 32838-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46035</v>
+        <v>44784.43820601852</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16890,13 +16885,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16933,14 +16923,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 43621-2021</t>
+          <t>A 505-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44433</v>
+        <v>44930.35895833333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16953,7 +16943,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16990,14 +16980,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 33942-2023</t>
+          <t>A 19051-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45134</v>
+        <v>45047</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17010,7 +17000,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17047,14 +17037,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 49481-2023</t>
+          <t>A 6270-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45211</v>
+        <v>44965.39467592593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17067,7 +17057,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17104,14 +17094,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 57699-2023</t>
+          <t>A 63509-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45246</v>
+        <v>45274</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17124,7 +17114,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17161,14 +17151,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 13334-2022</t>
+          <t>A 26025-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44645.37586805555</v>
+        <v>45804</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17181,7 +17171,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17218,14 +17208,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 39899-2023</t>
+          <t>A 60325-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45166</v>
+        <v>45994.74046296296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17238,7 +17228,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>15.6</v>
+        <v>11.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17275,14 +17265,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 16922-2024</t>
+          <t>A 60095-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45411.65899305556</v>
+        <v>45993.7368287037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17295,7 +17285,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17332,14 +17322,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 50002-2023</t>
+          <t>A 60328-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45215</v>
+        <v>45994.74658564815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17352,7 +17342,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>4</v>
+        <v>8.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17389,14 +17379,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 6179-2024</t>
+          <t>A 38614-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45337</v>
+        <v>45884.54458333334</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17409,7 +17399,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17446,14 +17436,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 48163-2024</t>
+          <t>A 13334-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45589</v>
+        <v>44645.37586805555</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17466,7 +17456,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>14.4</v>
+        <v>1.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17503,14 +17493,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 56829-2023</t>
+          <t>A 20280-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45244.46680555555</v>
+        <v>45056</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17523,7 +17513,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17560,14 +17550,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 55794-2023</t>
+          <t>A 61120-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45239.54755787037</v>
+        <v>46000.46729166667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17580,7 +17570,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17617,14 +17607,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 23700-2023</t>
+          <t>A 24940-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45077.62905092593</v>
+        <v>45085.54883101852</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17637,7 +17627,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17674,14 +17664,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 6270-2023</t>
+          <t>A 33921-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44965.39467592593</v>
+        <v>45134.47034722222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17694,7 +17684,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17731,14 +17721,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 1749-2024</t>
+          <t>A 48494-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45307.45815972222</v>
+        <v>45592.75105324074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17751,7 +17741,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17788,14 +17778,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 20280-2023</t>
+          <t>A 12853-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45056</v>
+        <v>45001</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17808,7 +17798,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17845,14 +17835,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 40939-2024</t>
+          <t>A 21140-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45558.64363425926</v>
+        <v>45062.36817129629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17865,7 +17855,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17902,14 +17892,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 56029-2024</t>
+          <t>A 4195-2026</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45624.31143518518</v>
+        <v>46044.69524305555</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17922,7 +17912,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17959,14 +17949,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 519-2023</t>
+          <t>A 6752-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44930.40255787037</v>
+        <v>44966.87815972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17979,7 +17969,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18016,14 +18006,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 61825-2021</t>
+          <t>A 62439-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44501.79969907407</v>
+        <v>46007.46944444445</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18036,7 +18026,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18073,14 +18063,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 61826-2021</t>
+          <t>A 4910-2026</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44501</v>
+        <v>46045</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18093,7 +18083,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18130,14 +18120,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 120-2024</t>
+          <t>A 6356-2026</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45294.3707175926</v>
+        <v>46055.61503472222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18150,7 +18140,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18187,14 +18177,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 33476-2022</t>
+          <t>A 1930-2026</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44788</v>
+        <v>46035</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18207,7 +18197,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18244,14 +18234,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 46320-2024</t>
+          <t>A 1920-2026</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45581.80997685185</v>
+        <v>46035</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18264,7 +18254,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18301,14 +18291,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 6752-2023</t>
+          <t>A 1925-2026</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44966.87815972222</v>
+        <v>46035</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18321,7 +18311,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18358,14 +18348,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 14722-2023</t>
+          <t>A 1933-2026</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45014</v>
+        <v>46035</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18378,7 +18368,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18415,14 +18405,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 56725-2023</t>
+          <t>A 6865-2026</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45244</v>
+        <v>46057.441875</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18435,7 +18425,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18472,14 +18462,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 56739-2023</t>
+          <t>A 146-2026</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45244</v>
+        <v>46024.63701388889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18492,7 +18482,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18529,14 +18519,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 43799-2024</t>
+          <t>A 9289-2026</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45571.62708333333</v>
+        <v>46070</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18548,8 +18538,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G306" t="n">
-        <v>1.3</v>
+        <v>7.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18586,14 +18581,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 33912-2023</t>
+          <t>A 1937-2026</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45134.41664351852</v>
+        <v>46035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18605,8 +18600,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G307" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18643,14 +18643,14 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 48496-2024</t>
+          <t>A 2050-2026</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45592.77157407408</v>
+        <v>46035.84706018519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>45250</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45040</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45811.62898148148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45373.61430555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>45238.82357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2117,14 +2117,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 54899-2022</t>
+          <t>A 34717-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44886</v>
+        <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2174,14 +2174,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34717-2022</t>
+          <t>A 29346-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44795</v>
+        <v>44753.32848379629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2231,14 +2231,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 29346-2022</t>
+          <t>A 54899-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44753.32848379629</v>
+        <v>44886</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,14 +2920,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 34380-2021</t>
+          <t>A 29352-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44379.89332175926</v>
+        <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2977,14 +2977,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 46870-2021</t>
+          <t>A 29755-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44446</v>
+        <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2996,13 +2996,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3039,14 +3034,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 10-2022</t>
+          <t>A 26740-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44563.73993055556</v>
+        <v>44349.40521990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3059,7 +3054,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>10.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3096,14 +3091,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 20138-2021</t>
+          <t>A 46870-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44314.4852662037</v>
+        <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3115,8 +3110,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3153,14 +3153,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19561-2022</t>
+          <t>A 20138-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44693.66460648148</v>
+        <v>44314.4852662037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3210,14 +3210,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 12828-2022</t>
+          <t>A 58301-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44642.43065972222</v>
+        <v>44488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3267,14 +3267,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12836-2022</t>
+          <t>A 14708-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44642.44318287037</v>
+        <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3324,14 +3324,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 58301-2021</t>
+          <t>A 10-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44488</v>
+        <v>44563.73993055556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3381,14 +3381,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 29352-2022</t>
+          <t>A 3465-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44753.35193287037</v>
+        <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3438,14 +3438,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14708-2021</t>
+          <t>A 34380-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44280</v>
+        <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3495,14 +3495,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 29755-2021</t>
+          <t>A 12828-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44362</v>
+        <v>44642.43065972222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3552,14 +3552,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 26740-2021</t>
+          <t>A 12836-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44349.40521990741</v>
+        <v>44642.44318287037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>10.3</v>
+        <v>0.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3609,14 +3609,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 3465-2022</t>
+          <t>A 19561-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44585</v>
+        <v>44693.66460648148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3666,14 +3666,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 29371-2022</t>
+          <t>A 34592-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44753.39418981481</v>
+        <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3728,14 +3728,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19559-2022</t>
+          <t>A 34593-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44693.6590625</v>
+        <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3747,8 +3747,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>6.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3785,14 +3790,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2377-2022</t>
+          <t>A 10976-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44579</v>
+        <v>44628.42969907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3805,7 +3810,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3842,14 +3847,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60987-2021</t>
+          <t>A 29371-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44497</v>
+        <v>44753.39418981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3861,8 +3866,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3899,14 +3909,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61042-2021</t>
+          <t>A 60987-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3919,7 +3929,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3956,14 +3966,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10977-2022</t>
+          <t>A 61042-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44628.43050925926</v>
+        <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3976,7 +3986,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4013,14 +4023,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13923-2022</t>
+          <t>A 10977-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44650</v>
+        <v>44628.43050925926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4032,13 +4042,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4075,14 +4080,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 34598-2021</t>
+          <t>A 18157-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44382</v>
+        <v>44684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4094,13 +4099,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4137,14 +4137,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34592-2021</t>
+          <t>A 19559-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44382</v>
+        <v>44693.6590625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4156,13 +4156,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>12.5</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4199,14 +4194,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 34593-2021</t>
+          <t>A 2377-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44382</v>
+        <v>44579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4218,13 +4213,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4261,14 +4251,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34595-2021</t>
+          <t>A 13923-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44382</v>
+        <v>44650</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4282,11 +4272,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4323,14 +4313,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 29373-2022</t>
+          <t>A 34598-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44753</v>
+        <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4348,7 +4338,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4385,14 +4375,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18157-2022</t>
+          <t>A 29373-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44684</v>
+        <v>44753</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4404,8 +4394,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>6.3</v>
+        <v>12.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4449,7 +4444,7 @@
         <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4499,14 +4494,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11979-2022</t>
+          <t>A 34595-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44635.66027777778</v>
+        <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4518,8 +4513,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4556,14 +4556,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 29345-2022</t>
+          <t>A 11979-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44753.32299768519</v>
+        <v>44635.66027777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4613,14 +4613,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30878-2021</t>
+          <t>A 30201-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44365</v>
+        <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10976-2022</t>
+          <t>A 29345-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44628.42969907408</v>
+        <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4727,14 +4727,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30201-2021</t>
+          <t>A 30878-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4791,7 +4791,7 @@
         <v>44788</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4841,14 +4841,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49481-2023</t>
+          <t>A 17861-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45211</v>
+        <v>45419.43511574074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4898,14 +4898,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 17172-2023</t>
+          <t>A 24107-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45034.65365740741</v>
+        <v>45456</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4955,14 +4955,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46520-2024</t>
+          <t>A 14798-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45582</v>
+        <v>45397.90431712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4974,8 +4974,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5008,18 +5013,38 @@
         <v>0</v>
       </c>
       <c r="R69" s="2" t="inlineStr"/>
+      <c r="U69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="V69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="W69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="X69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
+      <c r="Y69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32843-2022</t>
+          <t>A 12610-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44784.4495949074</v>
+        <v>45382.87498842592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5032,7 +5057,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5069,14 +5094,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 20536-2023</t>
+          <t>A 43621-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45057</v>
+        <v>44433</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5089,7 +5114,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5126,14 +5151,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 15102-2024</t>
+          <t>A 2556-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45399.66299768518</v>
+        <v>45313.60317129629</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5146,7 +5171,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5183,14 +5208,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28190-2022</t>
+          <t>A 17749-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44746.58916666666</v>
+        <v>45418.59761574074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5203,7 +5228,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>8.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5240,14 +5265,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55618-2023</t>
+          <t>A 16551-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45238.825625</v>
+        <v>45408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5260,7 +5285,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5297,14 +5322,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48161-2024</t>
+          <t>A 22402-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45589</v>
+        <v>45446.6730787037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5317,7 +5342,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>42</v>
+        <v>5.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5354,14 +5379,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 33912-2023</t>
+          <t>A 120-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45134.41664351852</v>
+        <v>45294.3707175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5374,7 +5399,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5411,14 +5436,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15108-2024</t>
+          <t>A 23441-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45399.66778935185</v>
+        <v>44333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5431,7 +5456,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5468,14 +5493,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39899-2023</t>
+          <t>A 18997-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45166</v>
+        <v>45427.62200231481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5488,7 +5513,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>15.6</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5525,14 +5550,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40939-2024</t>
+          <t>A 6167-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45558.64363425926</v>
+        <v>45337</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5545,7 +5570,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.2</v>
+        <v>6.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5582,14 +5607,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 12910-2023</t>
+          <t>A 40223-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45001</v>
+        <v>44419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5601,8 +5626,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5639,14 +5669,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 48163-2024</t>
+          <t>A 40226-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45589</v>
+        <v>44419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5658,8 +5688,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>14.4</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5696,14 +5731,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6172-2024</t>
+          <t>A 54006-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45337</v>
+        <v>44881.40414351852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5716,7 +5751,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5753,14 +5788,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17861-2024</t>
+          <t>A 58972-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45419.43511574074</v>
+        <v>45636.60099537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5773,7 +5808,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5810,14 +5845,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 33925-2023</t>
+          <t>A 61566-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45134.48231481481</v>
+        <v>45646.61444444444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5830,7 +5865,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5867,14 +5902,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18855-2025</t>
+          <t>A 26247-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45764.42244212963</v>
+        <v>45805</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5887,7 +5922,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5924,14 +5959,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24107-2024</t>
+          <t>A 31051-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45456</v>
+        <v>44769</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,14 +6016,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 65120-2023</t>
+          <t>A 46514-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45287</v>
+        <v>45582.62592592592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6001,7 +6036,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>11.4</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6038,14 +6073,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7640-2024</t>
+          <t>A 46521-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45348.64657407408</v>
+        <v>45582.62986111111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6058,7 +6093,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6095,14 +6130,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14798-2024</t>
+          <t>A 61731-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45397.90431712963</v>
+        <v>45649.34305555555</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6114,13 +6149,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6153,38 +6183,18 @@
         <v>0</v>
       </c>
       <c r="R89" s="2" t="inlineStr"/>
-      <c r="U89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/knärot/A 14798-2024 karta knärot.png", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="V89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomål/A 14798-2024 FSC-klagomål.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="W89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/klagomålsmail/A 14798-2024 FSC-klagomål mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="X89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsyn/A 14798-2024 tillsynsbegäran.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
-      <c r="Y89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1487/tillsynsmail/A 14798-2024 tillsynsbegäran mail.docx", "A 14798-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7590-2024</t>
+          <t>A 48034-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45348</v>
+        <v>45589.49070601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6197,7 +6207,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6234,14 +6244,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12610-2024</t>
+          <t>A 51480-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45382.87498842592</v>
+        <v>45603</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6254,7 +6264,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6291,14 +6301,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 15309-2022</t>
+          <t>A 4736-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44659</v>
+        <v>45328</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6310,8 +6320,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6348,14 +6363,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43621-2021</t>
+          <t>A 27031-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44433</v>
+        <v>45811.5890625</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6368,7 +6383,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6405,14 +6420,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11439-2022</t>
+          <t>A 56480-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44630.62471064815</v>
+        <v>45625.47077546296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6425,7 +6440,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>10.6</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6462,14 +6477,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 2556-2024</t>
+          <t>A 11817-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45313.60317129629</v>
+        <v>45728.30768518519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6482,7 +6497,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6519,14 +6534,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17749-2024</t>
+          <t>A 14722-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45418.59761574074</v>
+        <v>45014</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6539,7 +6554,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6576,14 +6591,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58704-2021</t>
+          <t>A 10444-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44489</v>
+        <v>44623</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6596,7 +6611,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6633,14 +6648,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20584-2023</t>
+          <t>A 43799-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45057</v>
+        <v>45571.62708333333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6653,7 +6668,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6690,14 +6705,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 23441-2021</t>
+          <t>A 43856-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44333</v>
+        <v>45572.35760416667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6710,7 +6725,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6747,14 +6762,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 59745-2024</t>
+          <t>A 16747-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45639.5343287037</v>
+        <v>45030</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6767,7 +6782,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6804,14 +6819,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16551-2024</t>
+          <t>A 10515-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45408</v>
+        <v>45721.423125</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6824,7 +6839,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6861,14 +6876,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 2146-2025</t>
+          <t>A 28264-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45672.69664351852</v>
+        <v>45818.55997685185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6881,7 +6896,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6918,14 +6933,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22402-2024</t>
+          <t>A 28265-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45446.6730787037</v>
+        <v>45818.56096064814</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6938,7 +6953,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6975,14 +6990,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 33033-2024</t>
+          <t>A 28261-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45517</v>
+        <v>45818.55596064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6995,7 +7010,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7032,14 +7047,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49131-2024</t>
+          <t>A 28263-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45594.68315972222</v>
+        <v>45818.55798611111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7052,7 +7067,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7089,14 +7104,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61409-2022</t>
+          <t>A 27867-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44909</v>
+        <v>45817.42643518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7109,7 +7124,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7146,14 +7161,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 120-2024</t>
+          <t>A 42698-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45294.3707175926</v>
+        <v>45566</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7166,7 +7181,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7203,14 +7218,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56734-2023</t>
+          <t>A 28960-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45244.35234953704</v>
+        <v>45821.31986111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7223,7 +7238,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7260,14 +7275,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33942-2023</t>
+          <t>A 40553-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45134</v>
+        <v>45896.44429398148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7280,7 +7295,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7317,14 +7332,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48496-2024</t>
+          <t>A 29840-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45592.77157407408</v>
+        <v>45826.29282407407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7337,7 +7352,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7374,14 +7389,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46523-2024</t>
+          <t>A 40538-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45582.6306712963</v>
+        <v>45896.41814814815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7394,7 +7409,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7431,14 +7446,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 1385-2025</t>
+          <t>A 40539-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45667.66609953704</v>
+        <v>45896.41945601852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7451,7 +7466,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7488,14 +7503,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28385-2022</t>
+          <t>A 40544-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44747.55924768518</v>
+        <v>45896.43144675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7508,7 +7523,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7545,14 +7560,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18997-2024</t>
+          <t>A 40550-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45427.62200231481</v>
+        <v>45896.44113425926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7565,7 +7580,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7602,14 +7617,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6167-2024</t>
+          <t>A 49481-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45337</v>
+        <v>45211</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7622,7 +7637,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7659,14 +7674,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56725-2023</t>
+          <t>A 40844-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45244</v>
+        <v>45897.53482638889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7679,7 +7694,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7716,14 +7731,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 56739-2023</t>
+          <t>A 46520-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45244</v>
+        <v>45582</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7736,7 +7751,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7773,14 +7788,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 40223-2021</t>
+          <t>A 41795-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44419</v>
+        <v>45902.60028935185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7792,13 +7807,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7835,14 +7845,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 40226-2021</t>
+          <t>A 20536-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44419</v>
+        <v>45057</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7854,13 +7864,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7897,14 +7902,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 17871-2024</t>
+          <t>A 15102-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45419.44590277778</v>
+        <v>45399.66299768518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7917,7 +7922,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7954,14 +7959,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50002-2023</t>
+          <t>A 55618-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45215</v>
+        <v>45238.825625</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7974,7 +7979,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8011,14 +8016,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 12385-2025</t>
+          <t>A 30621-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45730.38883101852</v>
+        <v>45831.47098379629</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8030,13 +8035,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8073,14 +8073,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58972-2024</t>
+          <t>A 42021-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45636.60099537037</v>
+        <v>45903.59125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8130,14 +8130,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 34183-2023</t>
+          <t>A 48161-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45138</v>
+        <v>45589</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.2</v>
+        <v>42</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8187,14 +8187,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61566-2024</t>
+          <t>A 15108-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45646.61444444444</v>
+        <v>45399.66778935185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8244,14 +8244,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 9732-2023</t>
+          <t>A 40939-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44978</v>
+        <v>45558.64363425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8301,14 +8301,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 54006-2022</t>
+          <t>A 42566-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44881.40414351852</v>
+        <v>45905.60494212963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8358,14 +8358,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 16922-2024</t>
+          <t>A 48163-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45411.65899305556</v>
+        <v>45589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>14.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8415,14 +8415,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17932-2023</t>
+          <t>A 65120-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45040</v>
+        <v>45287</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>11.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8472,14 +8472,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 369-2023</t>
+          <t>A 7590-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44929</v>
+        <v>45348</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8529,14 +8529,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 519-2023</t>
+          <t>A 32666-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44930.40255787037</v>
+        <v>45838</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8586,14 +8586,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43798-2024</t>
+          <t>A 58704-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45571.59386574074</v>
+        <v>44489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8643,14 +8643,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 19133-2025</t>
+          <t>A 7605-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45764</v>
+        <v>44606</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8700,14 +8700,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 23700-2023</t>
+          <t>A 20584-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45077.62905092593</v>
+        <v>45057</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8757,14 +8757,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5009-2025</t>
+          <t>A 59745-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45691</v>
+        <v>45639.5343287037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8814,14 +8814,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 14722-2023</t>
+          <t>A 2146-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45014</v>
+        <v>45672.69664351852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8871,14 +8871,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 10444-2022</t>
+          <t>A 15067-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44623</v>
+        <v>45743.76568287037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8928,14 +8928,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43799-2024</t>
+          <t>A 44589-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45571.62708333333</v>
+        <v>45917.42443287037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8985,14 +8985,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 43856-2024</t>
+          <t>A 44841-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45572.35760416667</v>
+        <v>45918.4284375</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9042,14 +9042,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 17077-2023</t>
+          <t>A 44583-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45034</v>
+        <v>45917.40908564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9099,14 +9099,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 18715-2023</t>
+          <t>A 44588-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45043.65006944445</v>
+        <v>45917.4165625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9156,14 +9156,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 16747-2023</t>
+          <t>A 44597-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45030</v>
+        <v>45917.4290625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9213,14 +9213,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16452-2025</t>
+          <t>A 44578-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45751.51493055555</v>
+        <v>45917.40295138889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9270,14 +9270,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 12823-2022</t>
+          <t>A 44584-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44642.42333333333</v>
+        <v>45917.41353009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9327,14 +9327,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 57699-2023</t>
+          <t>A 44575-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45246</v>
+        <v>45917.40004629629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9384,14 +9384,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 42698-2024</t>
+          <t>A 45537-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45566</v>
+        <v>45922.61059027778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9441,14 +9441,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 27815-2024</t>
+          <t>A 36101-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45475.59787037037</v>
+        <v>45866.53873842592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9498,14 +9498,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 22631-2022</t>
+          <t>A 15458-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44714.44008101852</v>
+        <v>45747.50989583333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7.1</v>
+        <v>4.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9555,14 +9555,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 40399-2024</t>
+          <t>A 46523-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45555.44511574074</v>
+        <v>45582.6306712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9612,14 +9612,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 6140-2024</t>
+          <t>A 46145-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45337</v>
+        <v>45924.60802083334</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>12.8</v>
+        <v>6.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9669,14 +9669,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 31051-2022</t>
+          <t>A 28385-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44769</v>
+        <v>44747.55924768518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9726,14 +9726,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 61731-2024</t>
+          <t>A 45712-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45649.34305555555</v>
+        <v>45923.43152777778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9783,14 +9783,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 64606-2023</t>
+          <t>A 45950-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45281.5049537037</v>
+        <v>45924.34196759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>7.7</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9840,14 +9840,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 20793-2023</t>
+          <t>A 46986-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45058.60979166667</v>
+        <v>45929.5359375</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9897,14 +9897,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56480-2024</t>
+          <t>A 47342-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45625.47077546296</v>
+        <v>45930.56956018518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9954,14 +9954,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50939-2024</t>
+          <t>A 47783-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45602.92913194445</v>
+        <v>45931.76866898148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10011,14 +10011,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 28263-2023</t>
+          <t>A 26025-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45099</v>
+        <v>45804</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10068,14 +10068,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 40553-2025</t>
+          <t>A 9732-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45896.44429398148</v>
+        <v>44978</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10125,14 +10125,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 40538-2025</t>
+          <t>A 17932-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45896.41814814815</v>
+        <v>45040</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10182,14 +10182,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 40539-2025</t>
+          <t>A 48036-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45896.41945601852</v>
+        <v>45932</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10202,7 +10202,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10239,14 +10239,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 40544-2025</t>
+          <t>A 3880-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45896.43144675926</v>
+        <v>44587.45909722222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10296,14 +10296,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 40550-2025</t>
+          <t>A 27232-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45896.44113425926</v>
+        <v>45471</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10353,14 +10353,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 40844-2025</t>
+          <t>A 38614-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45897.53482638889</v>
+        <v>45884.54458333334</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10410,14 +10410,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 22326-2025</t>
+          <t>A 3884-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45786.41207175926</v>
+        <v>44587.46003472222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10467,14 +10467,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 23060-2025</t>
+          <t>A 49201-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45790</v>
+        <v>45938.41451388889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10524,14 +10524,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 29371-2021</t>
+          <t>A 19133-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44361</v>
+        <v>45764</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10581,14 +10581,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 10525-2025</t>
+          <t>A 18715-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45721.43710648148</v>
+        <v>45043.65006944445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10638,14 +10638,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 42605-2024</t>
+          <t>A 16452-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45565.72832175926</v>
+        <v>45751.51493055555</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10695,14 +10695,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 41795-2025</t>
+          <t>A 12823-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45902.60028935185</v>
+        <v>44642.42333333333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10752,14 +10752,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 13666-2025</t>
+          <t>A 57699-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45736.8315162037</v>
+        <v>45246</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10809,14 +10809,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 13674-2025</t>
+          <t>A 27815-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45736.9021875</v>
+        <v>45475.59787037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10866,14 +10866,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 12760-2025</t>
+          <t>A 22631-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45733.57016203704</v>
+        <v>44714.44008101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10923,14 +10923,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 13196-2025</t>
+          <t>A 50192-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45735.42291666667</v>
+        <v>45943.63825231481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.7</v>
+        <v>15.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10980,14 +10980,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 6179-2024</t>
+          <t>A 50193-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45337</v>
+        <v>45943.640625</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11037,14 +11037,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 61825-2021</t>
+          <t>A 50145-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44501.79969907407</v>
+        <v>45943.57131944445</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11094,14 +11094,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 61826-2021</t>
+          <t>A 50884-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44501</v>
+        <v>45946</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11151,14 +11151,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 14752-2025</t>
+          <t>A 50901-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45742.66047453704</v>
+        <v>45946.64501157407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11208,14 +11208,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 73226-2021</t>
+          <t>A 50891-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44550</v>
+        <v>45946.63685185185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11265,14 +11265,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 1749-2024</t>
+          <t>A 20793-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45307.45815972222</v>
+        <v>45058.60979166667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11322,14 +11322,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 42021-2025</t>
+          <t>A 28263-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45903.59125</v>
+        <v>45099</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11379,14 +11379,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 42566-2025</t>
+          <t>A 53296-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45905.60494212963</v>
+        <v>45958.89180555556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11436,14 +11436,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 11883-2025</t>
+          <t>A 54244-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45728</v>
+        <v>45964.63546296296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11493,14 +11493,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 38360-2024</t>
+          <t>A 6179-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45545.79484953704</v>
+        <v>45337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11550,14 +11550,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 27181-2023</t>
+          <t>A 53869-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45096.52827546297</v>
+        <v>45961.38677083333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11569,8 +11569,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11607,14 +11612,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 46320-2024</t>
+          <t>A 54467-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45581.80997685185</v>
+        <v>45965.5700462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11627,7 +11632,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.9</v>
+        <v>13.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11664,14 +11669,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 9169-2023</t>
+          <t>A 61825-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44980.41365740741</v>
+        <v>44501.79969907407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11684,7 +11689,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11721,14 +11726,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 24549-2025</t>
+          <t>A 61826-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45798.44802083333</v>
+        <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11741,7 +11746,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11778,14 +11783,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 24567-2025</t>
+          <t>A 73226-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45798.46579861111</v>
+        <v>44550</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11798,7 +11803,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11835,14 +11840,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 24560-2025</t>
+          <t>A 1749-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45798.45908564814</v>
+        <v>45307.45815972222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11855,7 +11860,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11892,14 +11897,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 18937-2024</t>
+          <t>A 38360-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45427</v>
+        <v>45545.79484953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11912,7 +11917,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11949,14 +11954,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 24894-2025</t>
+          <t>A 54863-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45799.51355324074</v>
+        <v>45966.77891203704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12006,14 +12011,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 24882-2025</t>
+          <t>A 27181-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45799.49961805555</v>
+        <v>45096.52827546297</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12026,7 +12031,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12063,14 +12068,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 24892-2025</t>
+          <t>A 46320-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45799.51231481481</v>
+        <v>45581.80997685185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12083,7 +12088,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12120,14 +12125,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 24897-2025</t>
+          <t>A 55331-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45799.51752314815</v>
+        <v>45971.34190972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12140,7 +12145,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12177,14 +12182,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 24832-2025</t>
+          <t>A 9169-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45799.4587962963</v>
+        <v>44980.41365740741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12197,7 +12202,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12234,14 +12239,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 44589-2025</t>
+          <t>A 55336-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45917.42443287037</v>
+        <v>45971.3446412037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12254,7 +12259,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12291,14 +12296,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 44841-2025</t>
+          <t>A 55439-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45918.4284375</v>
+        <v>45971.48627314815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,7 +12316,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12348,14 +12353,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 44583-2025</t>
+          <t>A 47523-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45917.40908564815</v>
+        <v>45930</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12368,7 +12373,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12405,14 +12410,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 44588-2025</t>
+          <t>A 56261-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45917.4165625</v>
+        <v>45974</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,7 +12430,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12462,14 +12467,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 44597-2025</t>
+          <t>A 33912-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45917.4290625</v>
+        <v>45134.41664351852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,7 +12487,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12519,14 +12524,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 44578-2025</t>
+          <t>A 56259-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45917.40295138889</v>
+        <v>45974</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12539,7 +12544,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12576,14 +12581,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 44584-2025</t>
+          <t>A 7640-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45917.41353009259</v>
+        <v>45348.64657407408</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,7 +12601,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12633,14 +12638,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 44575-2025</t>
+          <t>A 56734-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45917.40004629629</v>
+        <v>45244.35234953704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12653,7 +12658,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12690,14 +12695,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 45537-2025</t>
+          <t>A 56922-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45922.61059027778</v>
+        <v>45978.59846064815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12710,7 +12715,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12747,14 +12752,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 25575-2025</t>
+          <t>A 33942-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45803.47547453704</v>
+        <v>45134</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12766,13 +12771,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12809,14 +12809,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 26247-2025</t>
+          <t>A 56805-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45805</v>
+        <v>45978.44703703704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.3</v>
+        <v>12.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12866,14 +12866,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 46145-2025</t>
+          <t>A 56886-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45924.60802083334</v>
+        <v>45975</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12923,14 +12923,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 55794-2023</t>
+          <t>A 56893-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45239.54755787037</v>
+        <v>45978.56734953704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12980,14 +12980,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 45712-2025</t>
+          <t>A 34183-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45923.43152777778</v>
+        <v>45138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13037,14 +13037,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 45950-2025</t>
+          <t>A 16922-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45924.34196759259</v>
+        <v>45411.65899305556</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13094,14 +13094,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 33915-2023</t>
+          <t>A 6140-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45134.43918981482</v>
+        <v>45337</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>12.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13151,14 +13151,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 46514-2024</t>
+          <t>A 60325-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45582.62592592592</v>
+        <v>45994.74046296296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.1</v>
+        <v>11.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13208,14 +13208,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 46521-2024</t>
+          <t>A 60095-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45582.62986111111</v>
+        <v>45993.7368287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13265,14 +13265,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 48034-2024</t>
+          <t>A 60328-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45589.49070601852</v>
+        <v>45994.74658564815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>8.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13322,14 +13322,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 51480-2024</t>
+          <t>A 64606-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45603</v>
+        <v>45281.5049537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.9</v>
+        <v>7.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 4736-2024</t>
+          <t>A 50939-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45328</v>
+        <v>45602.92913194445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13398,13 +13398,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13441,14 +13436,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 27031-2025</t>
+          <t>A 61120-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45811.5890625</v>
+        <v>46000.46729166667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13461,7 +13456,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13498,14 +13493,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 46986-2025</t>
+          <t>A 18937-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45929.5359375</v>
+        <v>45427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,7 +13513,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13555,14 +13550,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 47342-2025</t>
+          <t>A 4195-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45930.56956018518</v>
+        <v>46044.69524305555</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13575,7 +13570,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13612,14 +13607,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 11817-2025</t>
+          <t>A 55794-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45728.30768518519</v>
+        <v>45239.54755787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,7 +13627,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13669,14 +13664,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 43987-2022</t>
+          <t>A 33915-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44838.66666666666</v>
+        <v>45134.43918981482</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,7 +13684,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13726,14 +13721,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 47783-2025</t>
+          <t>A 62439-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45931.76866898148</v>
+        <v>46007.46944444445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,7 +13741,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13783,14 +13778,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 10515-2025</t>
+          <t>A 43987-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45721.423125</v>
+        <v>44838.66666666666</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,7 +13798,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13840,14 +13835,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 28264-2025</t>
+          <t>A 4910-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45818.55997685185</v>
+        <v>46045</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13860,7 +13855,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13897,14 +13892,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 28265-2025</t>
+          <t>A 17985-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45818.56096064814</v>
+        <v>44683</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,7 +13912,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13954,14 +13949,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 28261-2025</t>
+          <t>A 56829-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45818.55596064815</v>
+        <v>45244.46680555555</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13974,7 +13969,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14011,14 +14006,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 28263-2025</t>
+          <t>A 43817-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45818.55798611111</v>
+        <v>45187</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14031,7 +14026,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14068,14 +14063,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 48036-2025</t>
+          <t>A 7243-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45932</v>
+        <v>45702.5430324074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14088,7 +14083,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14125,14 +14120,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 3880-2022</t>
+          <t>A 6356-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44587.45909722222</v>
+        <v>46055.61503472222</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14145,7 +14140,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14182,14 +14177,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 27232-2024</t>
+          <t>A 1930-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45471</v>
+        <v>46035</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14202,7 +14197,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14239,14 +14234,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 3884-2022</t>
+          <t>A 1920-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44587.46003472222</v>
+        <v>46035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14259,7 +14254,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14296,14 +14291,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 17985-2022</t>
+          <t>A 13698-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44683</v>
+        <v>45390</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14316,7 +14311,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14353,14 +14348,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 56829-2023</t>
+          <t>A 1925-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45244.46680555555</v>
+        <v>46035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14373,7 +14368,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14410,14 +14405,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 43817-2023</t>
+          <t>A 1933-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45187</v>
+        <v>46035</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14430,7 +14425,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14467,14 +14462,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 27867-2025</t>
+          <t>A 23862-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45817.42643518518</v>
+        <v>44722.551875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14487,7 +14482,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14524,14 +14519,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 7243-2025</t>
+          <t>A 6865-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45702.5430324074</v>
+        <v>46057.441875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14581,14 +14576,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 49201-2025</t>
+          <t>A 40721-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45938.41451388889</v>
+        <v>44824.50174768519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,7 +14596,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14638,14 +14633,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 28960-2025</t>
+          <t>A 56029-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45821.31986111111</v>
+        <v>45624.31143518518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14658,7 +14653,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14695,14 +14690,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 13698-2024</t>
+          <t>A 59692-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45390</v>
+        <v>45256</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14715,7 +14710,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14752,14 +14747,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 29840-2025</t>
+          <t>A 7795-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45826.29282407407</v>
+        <v>44973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14772,7 +14767,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14809,14 +14804,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 23862-2022</t>
+          <t>A 146-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44722.551875</v>
+        <v>46024.63701388889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14829,7 +14824,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14866,14 +14861,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 40721-2022</t>
+          <t>A 47630-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44824.50174768519</v>
+        <v>44852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14886,7 +14881,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14923,14 +14918,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 50192-2025</t>
+          <t>A 9289-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45943.63825231481</v>
+        <v>46070</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14942,8 +14937,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>15.8</v>
+        <v>7.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14980,14 +14980,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 50193-2025</t>
+          <t>A 7420-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45943.640625</v>
+        <v>45345.62907407407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15037,14 +15037,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 50145-2025</t>
+          <t>A 15099-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45943.57131944445</v>
+        <v>45399.66082175926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15094,14 +15094,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 50884-2025</t>
+          <t>A 15107-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45946</v>
+        <v>45399</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15151,14 +15151,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 50901-2025</t>
+          <t>A 32838-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45946.64501157407</v>
+        <v>44784.43820601852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15208,14 +15208,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 50891-2025</t>
+          <t>A 505-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45946.63685185185</v>
+        <v>44930.35895833333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15265,14 +15265,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 30621-2025</t>
+          <t>A 19051-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45831.47098379629</v>
+        <v>45047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15322,14 +15322,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 56029-2024</t>
+          <t>A 6270-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45624.31143518518</v>
+        <v>44965.39467592593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15379,14 +15379,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 59692-2023</t>
+          <t>A 63509-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45256</v>
+        <v>45274</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15436,14 +15436,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 7795-2023</t>
+          <t>A 1937-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44973</v>
+        <v>46035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15455,8 +15455,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15493,14 +15498,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 53296-2025</t>
+          <t>A 2050-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45958.89180555556</v>
+        <v>46035.84706018519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15513,7 +15518,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15550,14 +15555,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 47630-2022</t>
+          <t>A 13334-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44852</v>
+        <v>44645.37586805555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15570,7 +15575,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15607,14 +15612,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 54244-2025</t>
+          <t>A 20280-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45964.63546296296</v>
+        <v>45056</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15627,7 +15632,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15664,14 +15669,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 32666-2025</t>
+          <t>A 24940-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45838</v>
+        <v>45085.54883101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15684,7 +15689,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15721,14 +15726,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 53869-2025</t>
+          <t>A 33921-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45961.38677083333</v>
+        <v>45134.47034722222</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15740,13 +15745,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15783,14 +15783,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 54467-2025</t>
+          <t>A 48494-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45965.5700462963</v>
+        <v>45592.75105324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>13.4</v>
+        <v>0.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15840,14 +15840,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 7605-2022</t>
+          <t>A 12853-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44606</v>
+        <v>45001</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>7.1</v>
+        <v>3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15897,14 +15897,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 7420-2024</t>
+          <t>A 21140-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45345.62907407407</v>
+        <v>45062.36817129629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15954,14 +15954,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 54863-2025</t>
+          <t>A 6752-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45966.77891203704</v>
+        <v>44966.87815972222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16011,14 +16011,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 55331-2025</t>
+          <t>A 17172-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45971.34190972222</v>
+        <v>45034.65365740741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16068,14 +16068,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 55336-2025</t>
+          <t>A 32843-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45971.3446412037</v>
+        <v>44784.4495949074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16125,14 +16125,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 55439-2025</t>
+          <t>A 28190-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45971.48627314815</v>
+        <v>44746.58916666666</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16182,14 +16182,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 47523-2025</t>
+          <t>A 39899-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45930</v>
+        <v>45166</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3.2</v>
+        <v>15.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16239,14 +16239,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 56261-2025</t>
+          <t>A 12910-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45974</v>
+        <v>45001</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16296,14 +16296,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 15099-2024</t>
+          <t>A 6172-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45399.66082175926</v>
+        <v>45337</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16316,7 +16316,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16353,14 +16353,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 15107-2024</t>
+          <t>A 33925-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45399</v>
+        <v>45134.48231481481</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16410,14 +16410,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 56259-2025</t>
+          <t>A 18855-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45974</v>
+        <v>45764.42244212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16467,14 +16467,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 15067-2025</t>
+          <t>A 15309-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45743.76568287037</v>
+        <v>44659</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16524,14 +16524,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 56922-2025</t>
+          <t>A 11439-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45978.59846064815</v>
+        <v>44630.62471064815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.3</v>
+        <v>10.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16581,14 +16581,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 56805-2025</t>
+          <t>A 33033-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45978.44703703704</v>
+        <v>45517</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>12.1</v>
+        <v>3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16638,14 +16638,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 56886-2025</t>
+          <t>A 49131-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45975</v>
+        <v>45594.68315972222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16695,14 +16695,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 56893-2025</t>
+          <t>A 61409-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45978.56734953704</v>
+        <v>44909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16752,14 +16752,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 36101-2025</t>
+          <t>A 48496-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45866.53873842592</v>
+        <v>45592.77157407408</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16809,14 +16809,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 15458-2025</t>
+          <t>A 1385-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45747.50989583333</v>
+        <v>45667.66609953704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16866,14 +16866,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 32838-2022</t>
+          <t>A 56725-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44784.43820601852</v>
+        <v>45244</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16923,14 +16923,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 505-2023</t>
+          <t>A 56739-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44930.35895833333</v>
+        <v>45244</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16980,14 +16980,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 19051-2023</t>
+          <t>A 17871-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45047</v>
+        <v>45419.44590277778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17037,14 +17037,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 6270-2023</t>
+          <t>A 50002-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44965.39467592593</v>
+        <v>45215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17094,14 +17094,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 63509-2023</t>
+          <t>A 12385-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45274</v>
+        <v>45730.38883101852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17113,8 +17113,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17151,14 +17156,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 26025-2025</t>
+          <t>A 369-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45804</v>
+        <v>44929</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17171,7 +17176,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17208,14 +17213,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 60325-2025</t>
+          <t>A 519-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45994.74046296296</v>
+        <v>44930.40255787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17228,7 +17233,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>11.5</v>
+        <v>2.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17265,14 +17270,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 60095-2025</t>
+          <t>A 43798-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45993.7368287037</v>
+        <v>45571.59386574074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17285,7 +17290,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17322,14 +17327,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 60328-2025</t>
+          <t>A 23700-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45994.74658564815</v>
+        <v>45077.62905092593</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17342,7 +17347,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>8.9</v>
+        <v>1.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17379,14 +17384,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 38614-2025</t>
+          <t>A 5009-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45884.54458333334</v>
+        <v>45691</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17399,7 +17404,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17436,14 +17441,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 13334-2022</t>
+          <t>A 17077-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44645.37586805555</v>
+        <v>45034</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17456,7 +17461,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17493,14 +17498,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 20280-2023</t>
+          <t>A 40399-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45056</v>
+        <v>45555.44511574074</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17513,7 +17518,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17550,14 +17555,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 61120-2025</t>
+          <t>A 22326-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>46000.46729166667</v>
+        <v>45786.41207175926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17570,7 +17575,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17607,14 +17612,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 24940-2023</t>
+          <t>A 23060-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45085.54883101852</v>
+        <v>45790</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17627,7 +17632,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17664,14 +17669,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 33921-2023</t>
+          <t>A 29371-2021</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45134.47034722222</v>
+        <v>44361</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17684,7 +17689,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17721,14 +17726,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 48494-2024</t>
+          <t>A 10525-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45592.75105324074</v>
+        <v>45721.43710648148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17741,7 +17746,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17778,14 +17783,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 12853-2023</t>
+          <t>A 42605-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45001</v>
+        <v>45565.72832175926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17798,7 +17803,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17835,14 +17840,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 21140-2023</t>
+          <t>A 13666-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45062.36817129629</v>
+        <v>45736.8315162037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17855,7 +17860,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17892,14 +17897,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 4195-2026</t>
+          <t>A 13674-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>46044.69524305555</v>
+        <v>45736.9021875</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17912,7 +17917,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17949,14 +17954,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 6752-2023</t>
+          <t>A 12760-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44966.87815972222</v>
+        <v>45733.57016203704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17969,7 +17974,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18006,14 +18011,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 62439-2025</t>
+          <t>A 13196-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>46007.46944444445</v>
+        <v>45735.42291666667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18026,7 +18031,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.4</v>
+        <v>5.7</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18063,14 +18068,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 4910-2026</t>
+          <t>A 14752-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>46045</v>
+        <v>45742.66047453704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18083,7 +18088,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18120,14 +18125,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 6356-2026</t>
+          <t>A 11883-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>46055.61503472222</v>
+        <v>45728</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18140,7 +18145,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18177,14 +18182,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 1930-2026</t>
+          <t>A 24549-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>46035</v>
+        <v>45798.44802083333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18197,7 +18202,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18234,14 +18239,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 1920-2026</t>
+          <t>A 24567-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>46035</v>
+        <v>45798.46579861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18254,7 +18259,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18291,14 +18296,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 1925-2026</t>
+          <t>A 24560-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>46035</v>
+        <v>45798.45908564814</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18311,7 +18316,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18348,14 +18353,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 1933-2026</t>
+          <t>A 24894-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>46035</v>
+        <v>45799.51355324074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18368,7 +18373,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18405,14 +18410,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 6865-2026</t>
+          <t>A 24882-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>46057.441875</v>
+        <v>45799.49961805555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18425,7 +18430,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18462,14 +18467,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 146-2026</t>
+          <t>A 24892-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>46024.63701388889</v>
+        <v>45799.51231481481</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18482,7 +18487,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18519,14 +18524,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 9289-2026</t>
+          <t>A 24897-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>46070</v>
+        <v>45799.51752314815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18538,13 +18543,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G306" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18581,14 +18581,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 1937-2026</t>
+          <t>A 24832-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>46035</v>
+        <v>45799.4587962963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,13 +18600,8 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G307" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18643,14 +18638,14 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 2050-2026</t>
+          <t>A 25575-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>46035.84706018519</v>
+        <v>45803.47547453704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18662,8 +18657,13 @@
           <t>VÄNERSBORG</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G308" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -575,7 +575,7 @@
         <v>45854.35061342592</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>44378</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44684</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44753</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44753</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44382</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44753</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>44792</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>45250</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>45040</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>44438</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45811.62898148148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45373.61430555556</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>45238.82357638889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44382</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>44467</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>44795</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>44753.32848379629</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>44886</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>44551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44565.84197916667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>44257</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>44881</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>44851.40767361111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44488</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44792</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>44442</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44857</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>44361.47685185185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>44753.35193287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44362</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>44349.40521990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44314.4852662037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44488</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44563.73993055556</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>44585</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44379.89332175926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44642.43065972222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44642.44318287037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44693.66460648148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44382</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44382</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44628.42969907408</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44753.39418981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44497</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44497</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44628.43050925926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
         <v>44684</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>44693.6590625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>44579</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44650</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44753</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>44322</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>44382</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44635.66027777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44363</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44753.32299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>44788</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>45419.43511574074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45456</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>45397.90431712963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45382.87498842592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44433</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45313.60317129629</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45418.59761574074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45446.6730787037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45294.3707175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45427.62200231481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45337</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44419</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>44881.40414351852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>45636.60099537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>45646.61444444444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45805</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44769</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>45582.62592592592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45582.62986111111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45649.34305555555</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>45589.49070601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45603</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>45328</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         <v>45811.5890625</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         <v>45625.47077546296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>45728.30768518519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>45014</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44623</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>45571.62708333333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>45572.35760416667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>45030</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
         <v>45721.423125</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>45818.55997685185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>45818.56096064814</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>45818.55596064815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>45818.55798611111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>45817.42643518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>45566</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>45821.31986111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>45896.44429398148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45826.29282407407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>45896.41814814815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>45896.41945601852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>45896.43144675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>45896.44113425926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>45211</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>45897.53482638889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>45582</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>45902.60028935185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>45057</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>45399.66299768518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>45238.825625</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>45831.47098379629</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45903.59125</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>45589</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8194,7 +8194,7 @@
         <v>45399.66778935185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
         <v>45558.64363425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>45905.60494212963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>45589</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>45287</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>45348</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>45838</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>44606</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>45057</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>45639.5343287037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         <v>45672.69664351852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
         <v>45743.76568287037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         <v>45917.42443287037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>45918.4284375</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>45917.40908564815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>45917.4165625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>45917.4290625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>45917.40295138889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>45917.41353009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45917.40004629629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>45922.61059027778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>45866.53873842592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>45747.50989583333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>45582.6306712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>45924.60802083334</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44747.55924768518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45923.43152777778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45924.34196759259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45929.5359375</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45930.56956018518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45931.76866898148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>45804</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44978</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>45040</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>45932</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44587.45909722222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>45471</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>45884.54458333334</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44587.46003472222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>45938.41451388889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>45764</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>45043.65006944445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>45751.51493055555</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>44642.42333333333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>45246</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>45475.59787037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>44714.44008101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>45943.63825231481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>45943.640625</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         <v>45943.57131944445</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>45946</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>45946.64501157407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>45946.63685185185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>45058.60979166667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>45099</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45958.89180555556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>45964.63546296296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>45337</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>45961.38677083333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>45965.5700462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44501.79969907407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44501</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44550</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>45307.45815972222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>45545.79484953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>45966.77891203704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45096.52827546297</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>45581.80997685185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>45971.34190972222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44980.41365740741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45971.3446412037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>45971.48627314815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>45930</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>45974</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>45134.41664351852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>45974</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>45348.64657407408</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>45244.35234953704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45978.59846064815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>45134</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45978.44703703704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>45975</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45978.56734953704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45411.65899305556</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45337</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45994.74046296296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>45993.7368287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45994.74658564815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45281.5049537037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45602.92913194445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>46000.46729166667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45427</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>46044.69524305555</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45239.54755787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45134.43918981482</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>46007.46944444445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44838.66666666666</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>46045</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44683</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45244.46680555555</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45187</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45702.5430324074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>46055.61503472222</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>46035</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>46035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45390</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>46035</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>46035</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>44722.551875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>46057.441875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44824.50174768519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45624.31143518518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45256</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44973</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>46024.63701388889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>44852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>46070</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45345.62907407407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45399.66082175926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>45399</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44784.43820601852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44930.35895833333</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>44965.39467592593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45274</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>46035</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>46035.84706018519</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44645.37586805555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>45056</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45085.54883101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45134.47034722222</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45592.75105324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45001</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>45062.36817129629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>44966.87815972222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>45034.65365740741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>44784.4495949074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>44746.58916666666</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45166</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45001</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>45337</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>45134.48231481481</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>45764.42244212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
         <v>44659</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
         <v>44630.62471064815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>45517</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
         <v>45594.68315972222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16702,7 +16702,7 @@
         <v>44909</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>45592.77157407408</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>45667.66609953704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>45244</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45244</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45419.44590277778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45215</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45730.38883101852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44929</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
         <v>44930.40255787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45571.59386574074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45077.62905092593</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45691</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>45034</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>45555.44511574074</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>45786.41207175926</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>45790</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44361</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>45721.43710648148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>45565.72832175926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>45736.8315162037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>45736.9021875</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45733.57016203704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>45735.42291666667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>45742.66047453704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18132,7 +18132,7 @@
         <v>45728</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         <v>45798.44802083333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18246,7 +18246,7 @@
         <v>45798.46579861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45798.45908564814</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45799.51355324074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18417,7 +18417,7 @@
         <v>45799.49961805555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45799.51231481481</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18531,7 +18531,7 @@
         <v>45799.51752314815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
         <v>45799.4587962963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45803.47547453704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
